--- a/DTAC-SOURCE-TO-TARGET-MAPPING_SET2_V0.8.xlsx
+++ b/DTAC-SOURCE-TO-TARGET-MAPPING_SET2_V0.8.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Telenor-AEP\Requirement-Docs\DTAC_STM_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Telenor-AEP\Requirement-Docs\DTAC_Sprint1_SS_Feeds\IS_DTAC_Feeds\Review_Feb2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document - Sign-off" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5549" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5549" uniqueCount="422">
   <si>
     <t>Mode of Integration</t>
   </si>
@@ -606,9 +606,6 @@
   </si>
   <si>
     <t>cs_snrt</t>
-  </si>
-  <si>
-    <t>.inc</t>
   </si>
   <si>
     <t>DIM_CCB_CS_SNRT</t>
@@ -2290,22 +2287,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -2341,7 +2329,16 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2631,7 +2628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -2653,12 +2650,12 @@
       <c r="A2" s="67"/>
     </row>
     <row r="3" spans="1:6" ht="20.25">
-      <c r="A3" s="133" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
+      <c r="A3" s="130" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="67"/>
@@ -2668,12 +2665,12 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" thickBot="1">
       <c r="A6" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="70" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
@@ -2682,29 +2679,29 @@
       <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="131" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="132"/>
+      <c r="C8" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="74" t="s">
+      <c r="D8" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="E8" s="75" t="s">
         <v>325</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="F8" s="76" t="s">
         <v>326</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="78" t="s">
         <v>328</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>329</v>
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="74"/>
@@ -2712,11 +2709,11 @@
       <c r="F9" s="76"/>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="133" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="78" t="s">
         <v>330</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>331</v>
       </c>
       <c r="C10" s="81"/>
       <c r="D10" s="79"/>
@@ -2724,9 +2721,9 @@
       <c r="F10" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="137"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="84" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C11" s="81"/>
       <c r="D11" s="79"/>
@@ -2736,7 +2733,7 @@
     <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="85"/>
       <c r="B12" s="84" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C12" s="81"/>
       <c r="D12" s="79"/>
@@ -2746,7 +2743,7 @@
     <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="85"/>
       <c r="B13" s="84" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C13" s="81"/>
       <c r="D13" s="79"/>
@@ -2754,11 +2751,11 @@
       <c r="F13" s="83"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="135" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14" s="84" t="s">
         <v>335</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>336</v>
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="86"/>
@@ -2766,9 +2763,9 @@
       <c r="F14" s="88"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="139"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C15" s="89"/>
       <c r="D15" s="84"/>
@@ -2776,9 +2773,9 @@
       <c r="F15" s="91"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="139"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="78" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
@@ -2786,9 +2783,9 @@
       <c r="F16" s="91"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="140"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C17" s="94"/>
       <c r="D17" s="93"/>
@@ -2805,7 +2802,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1">
       <c r="A19" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B19" s="98"/>
       <c r="C19" s="97"/>
@@ -2815,19 +2812,19 @@
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1">
       <c r="A20" s="99" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="100" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="C20" s="100" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="D20" s="138" t="s">
         <v>342</v>
       </c>
-      <c r="D20" s="141" t="s">
-        <v>343</v>
-      </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="143"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="140"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
       <c r="A21" s="101">
@@ -2837,13 +2834,13 @@
         <v>43861</v>
       </c>
       <c r="C21" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="127" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="144" t="s">
-        <v>345</v>
-      </c>
-      <c r="E21" s="130"/>
-      <c r="F21" s="131"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
     </row>
     <row r="22" spans="1:6" ht="36.75" customHeight="1">
       <c r="A22" s="104">
@@ -2853,13 +2850,13 @@
         <v>43878</v>
       </c>
       <c r="C22" s="106" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="141" t="s">
         <v>346</v>
       </c>
-      <c r="D22" s="127" t="s">
-        <v>347</v>
-      </c>
-      <c r="E22" s="127"/>
-      <c r="F22" s="128"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="142"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" customHeight="1">
       <c r="A23" s="104">
@@ -2869,13 +2866,13 @@
         <v>43885</v>
       </c>
       <c r="C23" s="106" t="s">
-        <v>346</v>
-      </c>
-      <c r="D23" s="127" t="s">
-        <v>348</v>
-      </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="128"/>
+        <v>345</v>
+      </c>
+      <c r="D23" s="141" t="s">
+        <v>347</v>
+      </c>
+      <c r="E23" s="141"/>
+      <c r="F23" s="142"/>
     </row>
     <row r="24" spans="1:6" ht="44.25" customHeight="1">
       <c r="A24" s="104">
@@ -2885,13 +2882,13 @@
         <v>43892</v>
       </c>
       <c r="C24" s="106" t="s">
-        <v>346</v>
-      </c>
-      <c r="D24" s="127" t="s">
-        <v>349</v>
-      </c>
-      <c r="E24" s="127"/>
-      <c r="F24" s="128"/>
+        <v>345</v>
+      </c>
+      <c r="D24" s="141" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="141"/>
+      <c r="F24" s="142"/>
     </row>
     <row r="25" spans="1:6" ht="89.25" customHeight="1">
       <c r="A25" s="104">
@@ -2901,13 +2898,13 @@
         <v>43899</v>
       </c>
       <c r="C25" s="106" t="s">
-        <v>346</v>
-      </c>
-      <c r="D25" s="129" t="s">
-        <v>350</v>
-      </c>
-      <c r="E25" s="130"/>
-      <c r="F25" s="131"/>
+        <v>345</v>
+      </c>
+      <c r="D25" s="143" t="s">
+        <v>349</v>
+      </c>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
     </row>
     <row r="26" spans="1:6" ht="44.25" customHeight="1">
       <c r="A26" s="104">
@@ -2917,27 +2914,27 @@
         <v>43906</v>
       </c>
       <c r="C26" s="106" t="s">
-        <v>346</v>
-      </c>
-      <c r="D26" s="132" t="s">
-        <v>416</v>
-      </c>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
+        <v>345</v>
+      </c>
+      <c r="D26" s="144" t="s">
+        <v>415</v>
+      </c>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2951,9 +2948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V528"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -3727,10 +3724,10 @@
         <v>80</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27" t="s">
@@ -3740,7 +3737,7 @@
         <v>28</v>
       </c>
       <c r="N23" s="124" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P23" s="66"/>
       <c r="Q23" s="66"/>
@@ -3815,7 +3812,7 @@
         <v>28</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R25" s="66" t="s">
         <v>28</v>
@@ -4713,10 +4710,10 @@
         <v>99</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J55" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K55" s="27"/>
       <c r="L55" s="27" t="s">
@@ -4726,7 +4723,7 @@
         <v>28</v>
       </c>
       <c r="N55" s="124" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P55" s="66"/>
       <c r="Q55" s="66"/>
@@ -4801,7 +4798,7 @@
         <v>29</v>
       </c>
       <c r="N57" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R57" s="66" t="s">
         <v>28</v>
@@ -4853,7 +4850,7 @@
         <v>101</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H59" s="26" t="s">
         <v>99</v>
@@ -4874,7 +4871,7 @@
         <v>29</v>
       </c>
       <c r="N59" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
@@ -4987,7 +4984,7 @@
         <v>106</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H63" s="26" t="s">
         <v>99</v>
@@ -5008,7 +5005,7 @@
         <v>28</v>
       </c>
       <c r="N63" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
@@ -5348,10 +5345,10 @@
         <v>108</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J75" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K75" s="27"/>
       <c r="L75" s="27" t="s">
@@ -5361,7 +5358,7 @@
         <v>28</v>
       </c>
       <c r="N75" s="124" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P75" s="66"/>
       <c r="Q75" s="66"/>
@@ -5436,7 +5433,7 @@
         <v>29</v>
       </c>
       <c r="N77" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R77" s="66" t="s">
         <v>28</v>
@@ -5488,7 +5485,7 @@
         <v>101</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H79" s="26" t="s">
         <v>108</v>
@@ -5509,7 +5506,7 @@
         <v>29</v>
       </c>
       <c r="N79" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
@@ -5622,7 +5619,7 @@
         <v>106</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H83" s="26" t="s">
         <v>108</v>
@@ -5643,7 +5640,7 @@
         <v>28</v>
       </c>
       <c r="N83" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="84" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
@@ -6901,10 +6898,10 @@
         <v>123</v>
       </c>
       <c r="I125" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J125" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K125" s="27"/>
       <c r="L125" s="27" t="s">
@@ -6914,7 +6911,7 @@
         <v>28</v>
       </c>
       <c r="N125" s="124" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P125" s="66"/>
       <c r="Q125" s="66"/>
@@ -7021,7 +7018,7 @@
         <v>28</v>
       </c>
       <c r="N128" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R128" s="66" t="s">
         <v>28</v>
@@ -7137,7 +7134,7 @@
         <v>128</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H132" s="26" t="s">
         <v>123</v>
@@ -7158,7 +7155,7 @@
         <v>28</v>
       </c>
       <c r="N132" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
@@ -9726,10 +9723,10 @@
         <v>165</v>
       </c>
       <c r="I216" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J216" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K216" s="27"/>
       <c r="L216" s="27" t="s">
@@ -9739,7 +9736,7 @@
         <v>28</v>
       </c>
       <c r="N216" s="124" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P216" s="66"/>
       <c r="Q216" s="66"/>
@@ -9846,7 +9843,7 @@
         <v>28</v>
       </c>
       <c r="N219" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R219" s="66" t="s">
         <v>28</v>
@@ -11103,7 +11100,7 @@
         <v>28</v>
       </c>
       <c r="N258" s="26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O258" s="26"/>
       <c r="P258" s="26"/>
@@ -11149,7 +11146,7 @@
         <v>28</v>
       </c>
       <c r="N259" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O259" s="26"/>
       <c r="P259" s="26"/>
@@ -11239,7 +11236,7 @@
         <v>28</v>
       </c>
       <c r="N261" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O261" s="26"/>
       <c r="P261" s="26"/>
@@ -11308,7 +11305,7 @@
         <v>185</v>
       </c>
       <c r="E263" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F263" s="47"/>
       <c r="G263" s="26"/>
@@ -11331,7 +11328,7 @@
         <v>28</v>
       </c>
       <c r="N263" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O263" s="26"/>
       <c r="P263" s="26"/>
@@ -11377,7 +11374,7 @@
         <v>28</v>
       </c>
       <c r="N264" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O264" s="26"/>
       <c r="P264" s="26"/>
@@ -11807,7 +11804,7 @@
         <v>187</v>
       </c>
       <c r="C275" s="48" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D275" s="49"/>
       <c r="E275" s="49"/>
@@ -11818,7 +11815,7 @@
         <v>25</v>
       </c>
       <c r="H275" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I275" s="8"/>
       <c r="J275" s="50"/>
@@ -11857,31 +11854,31 @@
         <v>187</v>
       </c>
       <c r="C276" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D276" s="26" t="s">
         <v>174</v>
       </c>
       <c r="E276" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F276" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G276" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H276" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I276" s="26" t="s">
         <v>174</v>
       </c>
       <c r="J276" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K276" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="K276" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="L276" s="26" t="s">
         <v>35</v>
@@ -11907,31 +11904,31 @@
         <v>187</v>
       </c>
       <c r="C277" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D277" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E277" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F277" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G277" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H277" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D277" s="26" t="s">
+      <c r="I277" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="J277" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="E277" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F277" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G277" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H277" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="I277" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="J277" s="26" t="s">
+      <c r="K277" s="26" t="s">
         <v>194</v>
-      </c>
-      <c r="K277" s="26" t="s">
-        <v>195</v>
       </c>
       <c r="L277" s="26" t="s">
         <v>35</v>
@@ -11957,7 +11954,7 @@
         <v>187</v>
       </c>
       <c r="C278" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D278" s="26" t="s">
         <v>46</v>
@@ -11966,19 +11963,19 @@
         <v>47</v>
       </c>
       <c r="F278" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G278" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H278" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I278" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J278" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K278" s="26" t="s">
         <v>48</v>
@@ -12009,31 +12006,31 @@
         <v>187</v>
       </c>
       <c r="C279" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D279" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E279" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F279" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G279" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H279" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I279" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J279" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K279" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K279" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L279" s="26" t="s">
         <v>35</v>
@@ -12059,7 +12056,7 @@
         <v>187</v>
       </c>
       <c r="C280" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D280" s="26" t="s">
         <v>50</v>
@@ -12068,19 +12065,19 @@
         <v>47</v>
       </c>
       <c r="F280" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G280" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H280" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I280" s="26" t="s">
         <v>50</v>
       </c>
       <c r="J280" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K280" s="26" t="s">
         <v>48</v>
@@ -12111,31 +12108,31 @@
         <v>187</v>
       </c>
       <c r="C281" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D281" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E281" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F281" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G281" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H281" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I281" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J281" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K281" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K281" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L281" s="26" t="s">
         <v>35</v>
@@ -12164,7 +12161,7 @@
       <c r="F282" s="55"/>
       <c r="G282" s="55"/>
       <c r="H282" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I282" s="55" t="s">
         <v>55</v>
@@ -12202,7 +12199,7 @@
       <c r="F283" s="55"/>
       <c r="G283" s="55"/>
       <c r="H283" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I283" s="29" t="s">
         <v>60</v>
@@ -12240,7 +12237,7 @@
       <c r="F284" s="55"/>
       <c r="G284" s="55"/>
       <c r="H284" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I284" s="29" t="s">
         <v>64</v>
@@ -12278,7 +12275,7 @@
       <c r="F285" s="55"/>
       <c r="G285" s="55"/>
       <c r="H285" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I285" s="29" t="s">
         <v>68</v>
@@ -12318,7 +12315,7 @@
       <c r="F286" s="55"/>
       <c r="G286" s="55"/>
       <c r="H286" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I286" s="29" t="s">
         <v>72</v>
@@ -12351,7 +12348,7 @@
       <c r="C287" s="29"/>
       <c r="D287" s="29"/>
       <c r="H287" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I287" s="31" t="s">
         <v>76</v>
@@ -12383,10 +12380,10 @@
         <v>22</v>
       </c>
       <c r="B288" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C288" s="48" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D288" s="49"/>
       <c r="E288" s="49"/>
@@ -12397,7 +12394,7 @@
         <v>25</v>
       </c>
       <c r="H288" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I288" s="8"/>
       <c r="J288" s="50"/>
@@ -12433,25 +12430,25 @@
         <v>22</v>
       </c>
       <c r="B289" s="54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C289" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D289" s="26" t="s">
         <v>138</v>
       </c>
       <c r="E289" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F289" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G289" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H289" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I289" s="26" t="s">
         <v>138</v>
@@ -12483,34 +12480,34 @@
         <v>22</v>
       </c>
       <c r="B290" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C290" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D290" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E290" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F290" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G290" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H290" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C290" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D290" s="26" t="s">
+      <c r="I290" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J290" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E290" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F290" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G290" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H290" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="I290" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="J290" s="26" t="s">
+      <c r="K290" s="26" t="s">
         <v>204</v>
-      </c>
-      <c r="K290" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="L290" s="26" t="s">
         <v>35</v>
@@ -12533,28 +12530,28 @@
         <v>22</v>
       </c>
       <c r="B291" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C291" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D291" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E291" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F291" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G291" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H291" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C291" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D291" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="E291" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F291" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G291" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H291" s="26" t="s">
-        <v>202</v>
-      </c>
       <c r="I291" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J291" s="26" t="s">
         <v>140</v>
@@ -12583,10 +12580,10 @@
         <v>22</v>
       </c>
       <c r="B292" s="54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C292" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D292" s="26" t="s">
         <v>128</v>
@@ -12595,13 +12592,13 @@
         <v>47</v>
       </c>
       <c r="F292" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G292" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H292" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I292" s="26" t="s">
         <v>128</v>
@@ -12635,28 +12632,28 @@
         <v>22</v>
       </c>
       <c r="B293" s="54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C293" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D293" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E293" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F293" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G293" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H293" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I293" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J293" s="26" t="s">
         <v>69</v>
@@ -12687,28 +12684,28 @@
         <v>22</v>
       </c>
       <c r="B294" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C294" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D294" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E294" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F294" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G294" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H294" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C294" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D294" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E294" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F294" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G294" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H294" s="26" t="s">
-        <v>202</v>
-      </c>
       <c r="I294" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J294" s="26" t="s">
         <v>34</v>
@@ -12737,34 +12734,34 @@
         <v>22</v>
       </c>
       <c r="B295" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C295" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D295" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E295" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F295" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G295" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H295" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C295" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D295" s="26" t="s">
+      <c r="I295" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J295" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="E295" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F295" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G295" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H295" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="I295" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="J295" s="26" t="s">
+      <c r="K295" s="26" t="s">
         <v>210</v>
-      </c>
-      <c r="K295" s="26" t="s">
-        <v>211</v>
       </c>
       <c r="L295" s="26" t="s">
         <v>35</v>
@@ -12787,10 +12784,10 @@
         <v>22</v>
       </c>
       <c r="B296" s="54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C296" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D296" s="26" t="s">
         <v>46</v>
@@ -12799,19 +12796,19 @@
         <v>47</v>
       </c>
       <c r="F296" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G296" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H296" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I296" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J296" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K296" s="26" t="s">
         <v>48</v>
@@ -12839,34 +12836,34 @@
         <v>22</v>
       </c>
       <c r="B297" s="54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C297" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D297" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E297" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F297" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G297" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H297" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I297" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J297" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K297" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K297" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L297" s="26" t="s">
         <v>35</v>
@@ -12895,7 +12892,7 @@
       <c r="F298" s="55"/>
       <c r="G298" s="55"/>
       <c r="H298" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I298" s="55" t="s">
         <v>55</v>
@@ -12933,7 +12930,7 @@
       <c r="F299" s="55"/>
       <c r="G299" s="55"/>
       <c r="H299" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I299" s="29" t="s">
         <v>60</v>
@@ -12971,7 +12968,7 @@
       <c r="F300" s="55"/>
       <c r="G300" s="55"/>
       <c r="H300" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I300" s="29" t="s">
         <v>64</v>
@@ -13009,7 +13006,7 @@
       <c r="F301" s="55"/>
       <c r="G301" s="55"/>
       <c r="H301" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I301" s="29" t="s">
         <v>68</v>
@@ -13049,7 +13046,7 @@
       <c r="F302" s="55"/>
       <c r="G302" s="55"/>
       <c r="H302" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I302" s="29" t="s">
         <v>72</v>
@@ -13082,7 +13079,7 @@
       <c r="C303" s="29"/>
       <c r="D303" s="29"/>
       <c r="H303" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I303" s="31" t="s">
         <v>76</v>
@@ -13108,10 +13105,10 @@
         <v>22</v>
       </c>
       <c r="B304" s="48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C304" s="48" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D304" s="49"/>
       <c r="E304" s="49"/>
@@ -13122,7 +13119,7 @@
         <v>25</v>
       </c>
       <c r="H304" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I304" s="8"/>
       <c r="J304" s="50"/>
@@ -13158,34 +13155,34 @@
         <v>22</v>
       </c>
       <c r="B305" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C305" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D305" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E305" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F305" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G305" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H305" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C305" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D305" s="26" t="s">
+      <c r="I305" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J305" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="E305" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F305" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G305" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H305" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I305" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="J305" s="26" t="s">
+      <c r="K305" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="K305" s="26" t="s">
-        <v>216</v>
       </c>
       <c r="L305" s="26" t="s">
         <v>35</v>
@@ -13208,34 +13205,34 @@
         <v>22</v>
       </c>
       <c r="B306" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C306" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E306" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F306" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G306" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H306" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C306" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D306" s="26" t="s">
+      <c r="I306" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J306" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="E306" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F306" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G306" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H306" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I306" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="J306" s="26" t="s">
+      <c r="K306" s="26" t="s">
         <v>218</v>
-      </c>
-      <c r="K306" s="26" t="s">
-        <v>219</v>
       </c>
       <c r="L306" s="26" t="s">
         <v>35</v>
@@ -13258,34 +13255,34 @@
         <v>22</v>
       </c>
       <c r="B307" s="54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C307" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D307" s="26" t="s">
         <v>116</v>
       </c>
       <c r="E307" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F307" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G307" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H307" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I307" s="26" t="s">
         <v>116</v>
       </c>
       <c r="J307" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="K307" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="K307" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="L307" s="26" t="s">
         <v>35</v>
@@ -13308,28 +13305,28 @@
         <v>22</v>
       </c>
       <c r="B308" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C308" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D308" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E308" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F308" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G308" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H308" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C308" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D308" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="E308" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F308" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G308" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H308" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="I308" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J308" s="26" t="s">
         <v>140</v>
@@ -13358,34 +13355,34 @@
         <v>22</v>
       </c>
       <c r="B309" s="54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C309" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D309" s="26" t="s">
         <v>148</v>
       </c>
       <c r="E309" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F309" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G309" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H309" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I309" s="26" t="s">
         <v>148</v>
       </c>
       <c r="J309" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K309" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K309" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L309" s="26" t="s">
         <v>35</v>
@@ -13408,34 +13405,34 @@
         <v>22</v>
       </c>
       <c r="B310" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C310" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D310" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E310" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F310" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G310" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H310" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C310" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D310" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="E310" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F310" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G310" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H310" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="I310" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J310" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K310" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K310" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L310" s="26" t="s">
         <v>35</v>
@@ -13458,34 +13455,34 @@
         <v>22</v>
       </c>
       <c r="B311" s="54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C311" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D311" s="26" t="s">
         <v>155</v>
       </c>
       <c r="E311" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F311" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G311" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H311" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I311" s="26" t="s">
         <v>155</v>
       </c>
       <c r="J311" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K311" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K311" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L311" s="26" t="s">
         <v>35</v>
@@ -13508,34 +13505,34 @@
         <v>22</v>
       </c>
       <c r="B312" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C312" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D312" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E312" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F312" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G312" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H312" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C312" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D312" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="E312" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F312" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G312" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H312" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="I312" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J312" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K312" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K312" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L312" s="26" t="s">
         <v>35</v>
@@ -13558,34 +13555,34 @@
         <v>22</v>
       </c>
       <c r="B313" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C313" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D313" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E313" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F313" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G313" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H313" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C313" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D313" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="E313" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F313" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G313" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H313" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="I313" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J313" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K313" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K313" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L313" s="26" t="s">
         <v>35</v>
@@ -13608,34 +13605,34 @@
         <v>22</v>
       </c>
       <c r="B314" s="54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C314" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D314" s="26" t="s">
         <v>120</v>
       </c>
       <c r="E314" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F314" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G314" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H314" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I314" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J314" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K314" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K314" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L314" s="26" t="s">
         <v>35</v>
@@ -13658,10 +13655,10 @@
         <v>22</v>
       </c>
       <c r="B315" s="54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C315" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D315" s="26" t="s">
         <v>46</v>
@@ -13670,19 +13667,19 @@
         <v>47</v>
       </c>
       <c r="F315" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G315" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H315" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I315" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J315" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K315" s="26" t="s">
         <v>48</v>
@@ -13710,34 +13707,34 @@
         <v>22</v>
       </c>
       <c r="B316" s="54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C316" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D316" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E316" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F316" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G316" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H316" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I316" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J316" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K316" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K316" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L316" s="26" t="s">
         <v>35</v>
@@ -13760,10 +13757,10 @@
         <v>22</v>
       </c>
       <c r="B317" s="54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C317" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D317" s="26" t="s">
         <v>50</v>
@@ -13772,19 +13769,19 @@
         <v>47</v>
       </c>
       <c r="F317" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G317" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H317" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I317" s="26" t="s">
         <v>50</v>
       </c>
       <c r="J317" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K317" s="26" t="s">
         <v>48</v>
@@ -13812,34 +13809,34 @@
         <v>22</v>
       </c>
       <c r="B318" s="54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C318" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D318" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E318" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F318" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G318" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H318" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I318" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J318" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K318" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K318" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L318" s="26" t="s">
         <v>35</v>
@@ -13862,34 +13859,34 @@
         <v>22</v>
       </c>
       <c r="B319" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C319" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D319" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E319" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F319" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G319" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H319" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C319" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D319" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E319" s="26" t="s">
+      <c r="I319" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J319" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F319" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G319" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H319" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I319" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="J319" s="26" t="s">
+      <c r="K319" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="K319" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="L319" s="26" t="s">
         <v>35</v>
@@ -13912,34 +13909,34 @@
         <v>22</v>
       </c>
       <c r="B320" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C320" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D320" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E320" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F320" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G320" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H320" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C320" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D320" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="E320" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F320" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G320" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H320" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="I320" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J320" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K320" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K320" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L320" s="26" t="s">
         <v>35</v>
@@ -13968,7 +13965,7 @@
       <c r="F321" s="55"/>
       <c r="G321" s="55"/>
       <c r="H321" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I321" s="55" t="s">
         <v>55</v>
@@ -14006,7 +14003,7 @@
       <c r="F322" s="55"/>
       <c r="G322" s="55"/>
       <c r="H322" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I322" s="29" t="s">
         <v>60</v>
@@ -14044,7 +14041,7 @@
       <c r="F323" s="55"/>
       <c r="G323" s="55"/>
       <c r="H323" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I323" s="29" t="s">
         <v>64</v>
@@ -14082,7 +14079,7 @@
       <c r="F324" s="55"/>
       <c r="G324" s="55"/>
       <c r="H324" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I324" s="29" t="s">
         <v>68</v>
@@ -14122,7 +14119,7 @@
       <c r="F325" s="55"/>
       <c r="G325" s="55"/>
       <c r="H325" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I325" s="29" t="s">
         <v>72</v>
@@ -14155,7 +14152,7 @@
       <c r="C326" s="29"/>
       <c r="D326" s="29"/>
       <c r="H326" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I326" s="31" t="s">
         <v>76</v>
@@ -14185,10 +14182,10 @@
         <v>22</v>
       </c>
       <c r="B327" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C327" s="48" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D327" s="49"/>
       <c r="E327" s="49"/>
@@ -14199,7 +14196,7 @@
         <v>25</v>
       </c>
       <c r="H327" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I327" s="8"/>
       <c r="J327" s="50"/>
@@ -14235,34 +14232,34 @@
         <v>22</v>
       </c>
       <c r="B328" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C328" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D328" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E328" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F328" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G328" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H328" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="C328" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D328" s="26" t="s">
+      <c r="I328" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J328" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E328" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F328" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G328" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H328" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="I328" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="J328" s="26" t="s">
+      <c r="K328" s="26" t="s">
         <v>231</v>
-      </c>
-      <c r="K328" s="26" t="s">
-        <v>232</v>
       </c>
       <c r="L328" s="26" t="s">
         <v>35</v>
@@ -14285,34 +14282,34 @@
         <v>22</v>
       </c>
       <c r="B329" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C329" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D329" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E329" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F329" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G329" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H329" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="C329" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D329" s="26" t="s">
+      <c r="I329" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J329" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="E329" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F329" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G329" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H329" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="I329" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="J329" s="26" t="s">
+      <c r="K329" s="26" t="s">
         <v>234</v>
-      </c>
-      <c r="K329" s="26" t="s">
-        <v>235</v>
       </c>
       <c r="L329" s="26" t="s">
         <v>35</v>
@@ -14335,34 +14332,34 @@
         <v>22</v>
       </c>
       <c r="B330" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C330" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D330" s="26" t="s">
         <v>120</v>
       </c>
       <c r="E330" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F330" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G330" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H330" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I330" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J330" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K330" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K330" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L330" s="26" t="s">
         <v>35</v>
@@ -14385,10 +14382,10 @@
         <v>22</v>
       </c>
       <c r="B331" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C331" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D331" s="26" t="s">
         <v>46</v>
@@ -14397,19 +14394,19 @@
         <v>47</v>
       </c>
       <c r="F331" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G331" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H331" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I331" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J331" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K331" s="26" t="s">
         <v>48</v>
@@ -14437,34 +14434,34 @@
         <v>22</v>
       </c>
       <c r="B332" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C332" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D332" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E332" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F332" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G332" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H332" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I332" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J332" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K332" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K332" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L332" s="26" t="s">
         <v>35</v>
@@ -14487,10 +14484,10 @@
         <v>22</v>
       </c>
       <c r="B333" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C333" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D333" s="26" t="s">
         <v>50</v>
@@ -14499,19 +14496,19 @@
         <v>47</v>
       </c>
       <c r="F333" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G333" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H333" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I333" s="26" t="s">
         <v>50</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K333" s="26" t="s">
         <v>48</v>
@@ -14539,34 +14536,34 @@
         <v>22</v>
       </c>
       <c r="B334" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C334" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D334" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E334" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F334" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G334" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H334" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I334" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J334" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K334" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K334" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L334" s="26" t="s">
         <v>35</v>
@@ -14589,34 +14586,34 @@
         <v>22</v>
       </c>
       <c r="B335" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C335" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D335" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E335" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F335" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G335" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H335" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="C335" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D335" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="E335" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F335" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G335" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H335" s="26" t="s">
-        <v>229</v>
-      </c>
       <c r="I335" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J335" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K335" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K335" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L335" s="26" t="s">
         <v>35</v>
@@ -14645,7 +14642,7 @@
       <c r="F336" s="55"/>
       <c r="G336" s="55"/>
       <c r="H336" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I336" s="55" t="s">
         <v>55</v>
@@ -14683,7 +14680,7 @@
       <c r="F337" s="55"/>
       <c r="G337" s="55"/>
       <c r="H337" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I337" s="29" t="s">
         <v>60</v>
@@ -14721,7 +14718,7 @@
       <c r="F338" s="55"/>
       <c r="G338" s="55"/>
       <c r="H338" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I338" s="29" t="s">
         <v>64</v>
@@ -14759,7 +14756,7 @@
       <c r="F339" s="55"/>
       <c r="G339" s="55"/>
       <c r="H339" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I339" s="29" t="s">
         <v>68</v>
@@ -14799,7 +14796,7 @@
       <c r="F340" s="55"/>
       <c r="G340" s="55"/>
       <c r="H340" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I340" s="29" t="s">
         <v>72</v>
@@ -14835,7 +14832,7 @@
       <c r="F341" s="47"/>
       <c r="G341" s="26"/>
       <c r="H341" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I341" s="31" t="s">
         <v>76</v>
@@ -14863,7 +14860,7 @@
         <v>22</v>
       </c>
       <c r="B342" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C342" s="48" t="s">
         <v>24</v>
@@ -14877,7 +14874,7 @@
         <v>25</v>
       </c>
       <c r="H342" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I342" s="8"/>
       <c r="J342" s="50"/>
@@ -14913,31 +14910,31 @@
         <v>22</v>
       </c>
       <c r="B343" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C343" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D343" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="E343" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F343" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G343" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H343" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C343" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D343" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="E343" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F343" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G343" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H343" s="26" t="s">
+      <c r="I343" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="I343" s="26" t="s">
-        <v>239</v>
-      </c>
       <c r="J343" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K343" s="26" t="s">
         <v>43</v>
@@ -14963,31 +14960,31 @@
         <v>22</v>
       </c>
       <c r="B344" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C344" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D344" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E344" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F344" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G344" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H344" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C344" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D344" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="E344" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F344" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G344" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H344" s="26" t="s">
-        <v>238</v>
-      </c>
       <c r="I344" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J344" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K344" s="26" t="s">
         <v>145</v>
@@ -15013,34 +15010,34 @@
         <v>22</v>
       </c>
       <c r="B345" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C345" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D345" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="E345" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F345" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G345" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H345" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C345" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D345" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="E345" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F345" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G345" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H345" s="26" t="s">
-        <v>238</v>
-      </c>
       <c r="I345" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J345" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K345" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K345" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L345" s="26" t="s">
         <v>35</v>
@@ -15063,7 +15060,7 @@
         <v>22</v>
       </c>
       <c r="B346" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C346" s="55" t="s">
         <v>24</v>
@@ -15072,25 +15069,25 @@
         <v>120</v>
       </c>
       <c r="E346" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F346" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G346" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H346" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I346" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J346" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K346" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K346" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L346" s="26" t="s">
         <v>35</v>
@@ -15113,34 +15110,34 @@
         <v>22</v>
       </c>
       <c r="B347" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C347" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D347" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E347" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F347" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G347" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H347" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C347" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D347" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="E347" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F347" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G347" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H347" s="26" t="s">
-        <v>238</v>
-      </c>
       <c r="I347" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J347" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K347" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K347" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L347" s="26" t="s">
         <v>35</v>
@@ -15163,7 +15160,7 @@
         <v>22</v>
       </c>
       <c r="B348" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C348" s="55" t="s">
         <v>24</v>
@@ -15175,19 +15172,19 @@
         <v>47</v>
       </c>
       <c r="F348" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G348" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H348" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I348" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J348" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K348" s="26" t="s">
         <v>48</v>
@@ -15215,7 +15212,7 @@
         <v>22</v>
       </c>
       <c r="B349" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C349" s="55" t="s">
         <v>24</v>
@@ -15224,25 +15221,25 @@
         <v>49</v>
       </c>
       <c r="E349" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F349" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G349" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H349" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I349" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J349" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K349" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K349" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L349" s="26" t="s">
         <v>35</v>
@@ -15265,7 +15262,7 @@
         <v>22</v>
       </c>
       <c r="B350" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C350" s="55" t="s">
         <v>24</v>
@@ -15277,19 +15274,19 @@
         <v>47</v>
       </c>
       <c r="F350" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G350" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H350" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I350" s="26" t="s">
         <v>50</v>
       </c>
       <c r="J350" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K350" s="26" t="s">
         <v>48</v>
@@ -15317,7 +15314,7 @@
         <v>22</v>
       </c>
       <c r="B351" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C351" s="55" t="s">
         <v>24</v>
@@ -15326,22 +15323,22 @@
         <v>51</v>
       </c>
       <c r="E351" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F351" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G351" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H351" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I351" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J351" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K351" s="26" t="s">
         <v>45</v>
@@ -15367,34 +15364,34 @@
         <v>22</v>
       </c>
       <c r="B352" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C352" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D352" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="E352" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F352" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G352" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H352" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C352" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D352" s="26" t="s">
+      <c r="I352" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J352" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="E352" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F352" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G352" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H352" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="I352" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="J352" s="26" t="s">
+      <c r="K352" s="26" t="s">
         <v>244</v>
-      </c>
-      <c r="K352" s="26" t="s">
-        <v>245</v>
       </c>
       <c r="L352" s="26" t="s">
         <v>35</v>
@@ -15423,7 +15420,7 @@
       <c r="F353" s="55"/>
       <c r="G353" s="55"/>
       <c r="H353" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I353" s="55" t="s">
         <v>55</v>
@@ -15461,7 +15458,7 @@
       <c r="F354" s="55"/>
       <c r="G354" s="55"/>
       <c r="H354" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I354" s="29" t="s">
         <v>60</v>
@@ -15499,7 +15496,7 @@
       <c r="F355" s="55"/>
       <c r="G355" s="55"/>
       <c r="H355" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I355" s="29" t="s">
         <v>64</v>
@@ -15537,7 +15534,7 @@
       <c r="F356" s="55"/>
       <c r="G356" s="55"/>
       <c r="H356" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I356" s="29" t="s">
         <v>68</v>
@@ -15577,7 +15574,7 @@
       <c r="F357" s="55"/>
       <c r="G357" s="55"/>
       <c r="H357" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I357" s="29" t="s">
         <v>72</v>
@@ -15610,7 +15607,7 @@
       <c r="C358" s="29"/>
       <c r="D358" s="29"/>
       <c r="H358" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I358" s="31" t="s">
         <v>76</v>
@@ -15639,10 +15636,10 @@
         <v>22</v>
       </c>
       <c r="B359" s="48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C359" s="48" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D359" s="49"/>
       <c r="E359" s="49"/>
@@ -15653,7 +15650,7 @@
         <v>25</v>
       </c>
       <c r="H359" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I359" s="8"/>
       <c r="J359" s="50"/>
@@ -15695,13 +15692,13 @@
       <c r="F360" s="26"/>
       <c r="G360" s="26"/>
       <c r="H360" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="I360" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="I360" s="63" t="s">
-        <v>248</v>
-      </c>
       <c r="J360" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K360" s="64"/>
       <c r="L360" s="63" t="s">
@@ -15711,7 +15708,7 @@
         <v>28</v>
       </c>
       <c r="N360" s="65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O360" s="26"/>
       <c r="P360" s="66" t="s">
@@ -15731,25 +15728,25 @@
         <v>22</v>
       </c>
       <c r="B361" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C361" s="26" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D361" s="26" t="s">
         <v>124</v>
       </c>
       <c r="E361" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F361" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G361" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H361" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I361" s="26" t="s">
         <v>124</v>
@@ -15783,25 +15780,25 @@
         <v>22</v>
       </c>
       <c r="B362" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C362" s="26" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D362" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E362" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F362" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G362" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H362" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I362" s="26" t="s">
         <v>81</v>
@@ -15833,35 +15830,35 @@
         <v>22</v>
       </c>
       <c r="B363" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C363" s="26" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D363" s="26" t="s">
         <v>82</v>
       </c>
       <c r="E363" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F363" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G363" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H363" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I363" s="26" t="s">
         <v>82</v>
       </c>
       <c r="J363" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K363" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="K363" s="26" t="s">
-        <v>250</v>
-      </c>
       <c r="L363" s="26" t="s">
         <v>35</v>
       </c>
@@ -15869,7 +15866,7 @@
         <v>28</v>
       </c>
       <c r="N363" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O363" s="55"/>
       <c r="P363" s="62"/>
@@ -15887,34 +15884,34 @@
         <v>22</v>
       </c>
       <c r="B364" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="C364" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D364" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E364" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F364" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G364" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H364" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C364" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D364" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="E364" s="26" t="s">
+      <c r="I364" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J364" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F364" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G364" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H364" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="I364" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="J364" s="26" t="s">
+      <c r="K364" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="K364" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="L364" s="26" t="s">
         <v>35</v>
@@ -15936,34 +15933,34 @@
         <v>22</v>
       </c>
       <c r="B365" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="C365" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D365" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E365" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F365" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G365" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H365" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C365" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D365" s="26" t="s">
+      <c r="I365" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J365" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E365" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F365" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G365" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H365" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="I365" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="J365" s="26" t="s">
+      <c r="K365" s="26" t="s">
         <v>231</v>
-      </c>
-      <c r="K365" s="26" t="s">
-        <v>232</v>
       </c>
       <c r="L365" s="26" t="s">
         <v>35</v>
@@ -15986,31 +15983,31 @@
         <v>22</v>
       </c>
       <c r="B366" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C366" s="26" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D366" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E366" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F366" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G366" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H366" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I366" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J366" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K366" s="26" t="s">
         <v>48</v>
@@ -16038,31 +16035,31 @@
         <v>22</v>
       </c>
       <c r="B367" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C367" s="26" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D367" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E367" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F367" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G367" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H367" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I367" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J367" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K367" s="26" t="s">
         <v>48</v>
@@ -16090,10 +16087,10 @@
         <v>22</v>
       </c>
       <c r="B368" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C368" s="26" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D368" s="26" t="s">
         <v>46</v>
@@ -16102,19 +16099,19 @@
         <v>47</v>
       </c>
       <c r="F368" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G368" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H368" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I368" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J368" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K368" s="26" t="s">
         <v>48</v>
@@ -16142,34 +16139,34 @@
         <v>22</v>
       </c>
       <c r="B369" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C369" s="26" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D369" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E369" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F369" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G369" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H369" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I369" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J369" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K369" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K369" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L369" s="26" t="s">
         <v>35</v>
@@ -16192,10 +16189,10 @@
         <v>22</v>
       </c>
       <c r="B370" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C370" s="26" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D370" s="26" t="s">
         <v>50</v>
@@ -16204,19 +16201,19 @@
         <v>47</v>
       </c>
       <c r="F370" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G370" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H370" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I370" s="26" t="s">
         <v>50</v>
       </c>
       <c r="J370" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K370" s="26" t="s">
         <v>48</v>
@@ -16244,34 +16241,34 @@
         <v>22</v>
       </c>
       <c r="B371" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C371" s="26" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D371" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E371" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F371" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G371" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H371" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I371" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J371" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K371" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K371" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L371" s="26" t="s">
         <v>35</v>
@@ -16300,7 +16297,7 @@
       <c r="F372" s="55"/>
       <c r="G372" s="55"/>
       <c r="H372" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I372" s="55" t="s">
         <v>55</v>
@@ -16338,7 +16335,7 @@
       <c r="F373" s="55"/>
       <c r="G373" s="55"/>
       <c r="H373" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I373" s="29" t="s">
         <v>60</v>
@@ -16376,7 +16373,7 @@
       <c r="F374" s="55"/>
       <c r="G374" s="55"/>
       <c r="H374" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I374" s="29" t="s">
         <v>64</v>
@@ -16414,7 +16411,7 @@
       <c r="F375" s="55"/>
       <c r="G375" s="55"/>
       <c r="H375" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I375" s="29" t="s">
         <v>68</v>
@@ -16454,7 +16451,7 @@
       <c r="F376" s="55"/>
       <c r="G376" s="55"/>
       <c r="H376" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I376" s="29" t="s">
         <v>72</v>
@@ -16487,7 +16484,7 @@
       <c r="C377" s="29"/>
       <c r="D377" s="29"/>
       <c r="H377" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I377" s="31" t="s">
         <v>76</v>
@@ -16516,10 +16513,10 @@
         <v>22</v>
       </c>
       <c r="B378" s="48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C378" s="48" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D378" s="49"/>
       <c r="E378" s="49"/>
@@ -16530,7 +16527,7 @@
         <v>25</v>
       </c>
       <c r="H378" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I378" s="8"/>
       <c r="J378" s="50"/>
@@ -16572,13 +16569,13 @@
       <c r="F379" s="26"/>
       <c r="G379" s="26"/>
       <c r="H379" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I379" s="63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J379" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K379" s="64"/>
       <c r="L379" s="63" t="s">
@@ -16588,7 +16585,7 @@
         <v>28</v>
       </c>
       <c r="N379" s="65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O379" s="26"/>
       <c r="P379" s="66" t="s">
@@ -16608,25 +16605,25 @@
         <v>22</v>
       </c>
       <c r="B380" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C380" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D380" s="26" t="s">
         <v>124</v>
       </c>
       <c r="E380" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F380" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G380" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H380" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I380" s="26" t="s">
         <v>124</v>
@@ -16660,25 +16657,25 @@
         <v>22</v>
       </c>
       <c r="B381" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C381" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D381" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E381" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F381" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G381" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H381" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I381" s="26" t="s">
         <v>81</v>
@@ -16710,35 +16707,35 @@
         <v>22</v>
       </c>
       <c r="B382" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C382" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D382" s="26" t="s">
         <v>82</v>
       </c>
       <c r="E382" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F382" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G382" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H382" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I382" s="26" t="s">
         <v>82</v>
       </c>
       <c r="J382" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K382" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="K382" s="26" t="s">
-        <v>250</v>
-      </c>
       <c r="L382" s="26" t="s">
         <v>35</v>
       </c>
@@ -16746,7 +16743,7 @@
         <v>28</v>
       </c>
       <c r="N382" s="55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O382" s="37"/>
       <c r="P382" s="56"/>
@@ -16764,34 +16761,34 @@
         <v>22</v>
       </c>
       <c r="B383" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C383" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D383" s="26" t="s">
         <v>100</v>
       </c>
       <c r="E383" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F383" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G383" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H383" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I383" s="26" t="s">
         <v>100</v>
       </c>
       <c r="J383" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K383" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="K383" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="L383" s="26" t="s">
         <v>35</v>
@@ -16814,43 +16811,43 @@
         <v>22</v>
       </c>
       <c r="B384" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="C384" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D384" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E384" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F384" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G384" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H384" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C384" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D384" s="26" t="s">
+      <c r="I384" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J384" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="E384" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F384" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G384" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H384" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="I384" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="J384" s="26" t="s">
+      <c r="K384" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="K384" s="26" t="s">
+      <c r="L384" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M384" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N384" s="55" t="s">
         <v>260</v>
-      </c>
-      <c r="L384" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="M384" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="N384" s="55" t="s">
-        <v>261</v>
       </c>
       <c r="O384" s="37"/>
       <c r="P384" s="56"/>
@@ -16868,31 +16865,31 @@
         <v>22</v>
       </c>
       <c r="B385" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C385" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D385" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E385" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F385" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G385" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H385" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I385" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J385" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K385" s="26" t="s">
         <v>48</v>
@@ -16920,31 +16917,31 @@
         <v>22</v>
       </c>
       <c r="B386" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C386" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D386" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E386" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F386" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G386" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H386" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I386" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J386" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K386" s="26" t="s">
         <v>48</v>
@@ -16972,10 +16969,10 @@
         <v>22</v>
       </c>
       <c r="B387" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C387" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D387" s="26" t="s">
         <v>46</v>
@@ -16984,19 +16981,19 @@
         <v>47</v>
       </c>
       <c r="F387" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G387" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H387" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I387" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J387" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K387" s="26" t="s">
         <v>48</v>
@@ -17024,34 +17021,34 @@
         <v>22</v>
       </c>
       <c r="B388" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C388" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D388" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E388" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F388" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G388" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H388" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I388" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J388" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K388" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K388" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L388" s="26" t="s">
         <v>35</v>
@@ -17074,10 +17071,10 @@
         <v>22</v>
       </c>
       <c r="B389" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C389" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D389" s="26" t="s">
         <v>50</v>
@@ -17086,19 +17083,19 @@
         <v>47</v>
       </c>
       <c r="F389" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G389" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H389" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I389" s="26" t="s">
         <v>50</v>
       </c>
       <c r="J389" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K389" s="26" t="s">
         <v>48</v>
@@ -17126,34 +17123,34 @@
         <v>22</v>
       </c>
       <c r="B390" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C390" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D390" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E390" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F390" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G390" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H390" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I390" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J390" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K390" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K390" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L390" s="26" t="s">
         <v>35</v>
@@ -17176,34 +17173,34 @@
         <v>22</v>
       </c>
       <c r="B391" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="C391" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D391" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E391" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F391" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G391" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H391" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C391" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D391" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="E391" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F391" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G391" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H391" s="26" t="s">
-        <v>256</v>
-      </c>
       <c r="I391" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J391" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K391" s="26" t="s">
         <v>249</v>
-      </c>
-      <c r="K391" s="26" t="s">
-        <v>250</v>
       </c>
       <c r="L391" s="26" t="s">
         <v>35</v>
@@ -17226,34 +17223,34 @@
         <v>22</v>
       </c>
       <c r="B392" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="C392" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D392" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="E392" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F392" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G392" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H392" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C392" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D392" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="E392" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F392" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G392" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H392" s="26" t="s">
-        <v>256</v>
-      </c>
       <c r="I392" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J392" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K392" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K392" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L392" s="26" t="s">
         <v>35</v>
@@ -17282,7 +17279,7 @@
       <c r="F393" s="55"/>
       <c r="G393" s="55"/>
       <c r="H393" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I393" s="55" t="s">
         <v>55</v>
@@ -17320,7 +17317,7 @@
       <c r="F394" s="55"/>
       <c r="G394" s="55"/>
       <c r="H394" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I394" s="29" t="s">
         <v>60</v>
@@ -17358,7 +17355,7 @@
       <c r="F395" s="55"/>
       <c r="G395" s="55"/>
       <c r="H395" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I395" s="29" t="s">
         <v>64</v>
@@ -17396,7 +17393,7 @@
       <c r="F396" s="55"/>
       <c r="G396" s="55"/>
       <c r="H396" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I396" s="29" t="s">
         <v>68</v>
@@ -17436,7 +17433,7 @@
       <c r="F397" s="55"/>
       <c r="G397" s="55"/>
       <c r="H397" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I397" s="29" t="s">
         <v>72</v>
@@ -17472,7 +17469,7 @@
       <c r="F398" s="47"/>
       <c r="G398" s="26"/>
       <c r="H398" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I398" s="31" t="s">
         <v>76</v>
@@ -17504,10 +17501,10 @@
         <v>22</v>
       </c>
       <c r="B399" s="48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C399" s="48" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D399" s="49"/>
       <c r="E399" s="49"/>
@@ -17518,7 +17515,7 @@
         <v>25</v>
       </c>
       <c r="H399" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I399" s="8"/>
       <c r="J399" s="50"/>
@@ -17560,13 +17557,13 @@
       <c r="F400" s="26"/>
       <c r="G400" s="26"/>
       <c r="H400" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I400" s="63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J400" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K400" s="64"/>
       <c r="L400" s="63" t="s">
@@ -17576,7 +17573,7 @@
         <v>28</v>
       </c>
       <c r="N400" s="65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O400" s="26"/>
       <c r="P400" s="66" t="s">
@@ -17596,25 +17593,25 @@
         <v>22</v>
       </c>
       <c r="B401" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C401" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D401" s="26" t="s">
         <v>124</v>
       </c>
       <c r="E401" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F401" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G401" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H401" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I401" s="26" t="s">
         <v>124</v>
@@ -17648,25 +17645,25 @@
         <v>22</v>
       </c>
       <c r="B402" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C402" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D402" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E402" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F402" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G402" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H402" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I402" s="26" t="s">
         <v>81</v>
@@ -17698,34 +17695,34 @@
         <v>22</v>
       </c>
       <c r="B403" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C403" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D403" s="26" t="s">
         <v>82</v>
       </c>
       <c r="E403" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F403" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G403" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H403" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I403" s="26" t="s">
         <v>82</v>
       </c>
       <c r="J403" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K403" s="26" t="s">
         <v>249</v>
-      </c>
-      <c r="K403" s="26" t="s">
-        <v>250</v>
       </c>
       <c r="L403" s="26" t="s">
         <v>35</v>
@@ -17734,7 +17731,7 @@
         <v>29</v>
       </c>
       <c r="N403" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O403" s="37"/>
       <c r="P403" s="56"/>
@@ -17752,34 +17749,34 @@
         <v>22</v>
       </c>
       <c r="B404" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C404" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D404" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E404" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F404" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G404" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H404" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C404" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D404" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="E404" s="26" t="s">
+      <c r="I404" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J404" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F404" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G404" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H404" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="I404" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="J404" s="26" t="s">
+      <c r="K404" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="K404" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="L404" s="26" t="s">
         <v>35</v>
@@ -17802,34 +17799,34 @@
         <v>22</v>
       </c>
       <c r="B405" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C405" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D405" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E405" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F405" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G405" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H405" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C405" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D405" s="26" t="s">
+      <c r="I405" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J405" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E405" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F405" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G405" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H405" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="I405" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="J405" s="26" t="s">
+      <c r="K405" s="26" t="s">
         <v>231</v>
-      </c>
-      <c r="K405" s="26" t="s">
-        <v>232</v>
       </c>
       <c r="L405" s="26" t="s">
         <v>35</v>
@@ -17852,34 +17849,34 @@
         <v>22</v>
       </c>
       <c r="B406" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C406" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D406" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E406" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F406" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G406" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H406" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C406" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D406" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="E406" s="26" t="s">
+      <c r="I406" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="J406" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F406" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G406" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H406" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="I406" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="J406" s="26" t="s">
+      <c r="K406" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="K406" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="L406" s="26" t="s">
         <v>35</v>
@@ -17902,31 +17899,31 @@
         <v>22</v>
       </c>
       <c r="B407" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C407" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D407" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E407" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F407" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G407" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H407" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I407" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J407" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K407" s="26" t="s">
         <v>48</v>
@@ -17954,31 +17951,31 @@
         <v>22</v>
       </c>
       <c r="B408" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C408" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D408" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E408" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F408" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G408" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H408" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I408" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J408" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K408" s="26" t="s">
         <v>48</v>
@@ -18006,10 +18003,10 @@
         <v>22</v>
       </c>
       <c r="B409" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C409" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D409" s="26" t="s">
         <v>46</v>
@@ -18018,19 +18015,19 @@
         <v>47</v>
       </c>
       <c r="F409" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G409" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H409" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I409" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J409" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K409" s="26" t="s">
         <v>48</v>
@@ -18058,34 +18055,34 @@
         <v>22</v>
       </c>
       <c r="B410" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C410" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D410" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E410" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F410" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G410" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H410" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I410" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J410" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K410" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K410" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L410" s="26" t="s">
         <v>35</v>
@@ -18108,10 +18105,10 @@
         <v>22</v>
       </c>
       <c r="B411" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C411" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D411" s="26" t="s">
         <v>50</v>
@@ -18120,19 +18117,19 @@
         <v>47</v>
       </c>
       <c r="F411" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G411" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H411" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I411" s="26" t="s">
         <v>50</v>
       </c>
       <c r="J411" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K411" s="26" t="s">
         <v>48</v>
@@ -18160,34 +18157,34 @@
         <v>22</v>
       </c>
       <c r="B412" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C412" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D412" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E412" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F412" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G412" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H412" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I412" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J412" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K412" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K412" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L412" s="26" t="s">
         <v>35</v>
@@ -18216,7 +18213,7 @@
       <c r="F413" s="55"/>
       <c r="G413" s="55"/>
       <c r="H413" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I413" s="55" t="s">
         <v>55</v>
@@ -18254,7 +18251,7 @@
       <c r="F414" s="55"/>
       <c r="G414" s="55"/>
       <c r="H414" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I414" s="29" t="s">
         <v>60</v>
@@ -18292,7 +18289,7 @@
       <c r="F415" s="55"/>
       <c r="G415" s="55"/>
       <c r="H415" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I415" s="29" t="s">
         <v>64</v>
@@ -18330,7 +18327,7 @@
       <c r="F416" s="55"/>
       <c r="G416" s="55"/>
       <c r="H416" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I416" s="29" t="s">
         <v>68</v>
@@ -18370,7 +18367,7 @@
       <c r="F417" s="55"/>
       <c r="G417" s="55"/>
       <c r="H417" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I417" s="29" t="s">
         <v>72</v>
@@ -18406,7 +18403,7 @@
       <c r="F418" s="47"/>
       <c r="G418" s="26"/>
       <c r="H418" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I418" s="31" t="s">
         <v>76</v>
@@ -18438,10 +18435,10 @@
         <v>22</v>
       </c>
       <c r="B419" s="48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C419" s="48" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D419" s="49"/>
       <c r="E419" s="49"/>
@@ -18452,7 +18449,7 @@
         <v>25</v>
       </c>
       <c r="H419" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I419" s="8"/>
       <c r="J419" s="50"/>
@@ -18488,34 +18485,34 @@
         <v>22</v>
       </c>
       <c r="B420" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C420" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D420" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="E420" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F420" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G420" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H420" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="C420" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D420" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="E420" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F420" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G420" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H420" s="26" t="s">
+      <c r="I420" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="I420" s="26" t="s">
-        <v>269</v>
-      </c>
       <c r="J420" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K420" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K420" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L420" s="26" t="s">
         <v>35</v>
@@ -18538,34 +18535,34 @@
         <v>22</v>
       </c>
       <c r="B421" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C421" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D421" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E421" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F421" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G421" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H421" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="C421" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D421" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="E421" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F421" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G421" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H421" s="26" t="s">
-        <v>268</v>
-      </c>
       <c r="I421" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J421" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K421" s="26" t="s">
         <v>234</v>
-      </c>
-      <c r="K421" s="26" t="s">
-        <v>235</v>
       </c>
       <c r="L421" s="26" t="s">
         <v>35</v>
@@ -18588,10 +18585,10 @@
         <v>22</v>
       </c>
       <c r="B422" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C422" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D422" s="26" t="s">
         <v>46</v>
@@ -18600,19 +18597,19 @@
         <v>47</v>
       </c>
       <c r="F422" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G422" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H422" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I422" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J422" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K422" s="26" t="s">
         <v>48</v>
@@ -18640,34 +18637,34 @@
         <v>22</v>
       </c>
       <c r="B423" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C423" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D423" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E423" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F423" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G423" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H423" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I423" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J423" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K423" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K423" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L423" s="26" t="s">
         <v>35</v>
@@ -18690,10 +18687,10 @@
         <v>22</v>
       </c>
       <c r="B424" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C424" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D424" s="26" t="s">
         <v>50</v>
@@ -18702,19 +18699,19 @@
         <v>47</v>
       </c>
       <c r="F424" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G424" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H424" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I424" s="26" t="s">
         <v>50</v>
       </c>
       <c r="J424" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K424" s="26" t="s">
         <v>48</v>
@@ -18742,34 +18739,34 @@
         <v>22</v>
       </c>
       <c r="B425" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C425" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D425" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E425" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F425" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G425" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H425" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I425" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J425" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K425" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K425" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L425" s="26" t="s">
         <v>35</v>
@@ -18798,7 +18795,7 @@
       <c r="F426" s="55"/>
       <c r="G426" s="55"/>
       <c r="H426" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I426" s="55" t="s">
         <v>55</v>
@@ -18836,7 +18833,7 @@
       <c r="F427" s="55"/>
       <c r="G427" s="55"/>
       <c r="H427" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I427" s="29" t="s">
         <v>60</v>
@@ -18874,7 +18871,7 @@
       <c r="F428" s="55"/>
       <c r="G428" s="55"/>
       <c r="H428" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I428" s="29" t="s">
         <v>64</v>
@@ -18912,7 +18909,7 @@
       <c r="F429" s="55"/>
       <c r="G429" s="55"/>
       <c r="H429" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I429" s="29" t="s">
         <v>68</v>
@@ -18952,7 +18949,7 @@
       <c r="F430" s="55"/>
       <c r="G430" s="55"/>
       <c r="H430" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I430" s="29" t="s">
         <v>72</v>
@@ -18988,7 +18985,7 @@
       <c r="F431" s="47"/>
       <c r="G431" s="26"/>
       <c r="H431" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I431" s="31" t="s">
         <v>76</v>
@@ -19020,10 +19017,10 @@
         <v>22</v>
       </c>
       <c r="B432" s="48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C432" s="48" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D432" s="49"/>
       <c r="E432" s="49"/>
@@ -19034,7 +19031,7 @@
         <v>25</v>
       </c>
       <c r="H432" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I432" s="8"/>
       <c r="J432" s="50"/>
@@ -19070,28 +19067,28 @@
         <v>22</v>
       </c>
       <c r="B433" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="C433" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D433" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E433" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F433" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G433" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H433" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C433" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D433" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="E433" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F433" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G433" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H433" s="26" t="s">
+      <c r="I433" s="26" t="s">
         <v>272</v>
-      </c>
-      <c r="I433" s="26" t="s">
-        <v>273</v>
       </c>
       <c r="J433" s="26" t="s">
         <v>140</v>
@@ -19120,34 +19117,34 @@
         <v>22</v>
       </c>
       <c r="B434" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="C434" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D434" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E434" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F434" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G434" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H434" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C434" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D434" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="E434" s="26" t="s">
+      <c r="I434" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="J434" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F434" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G434" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H434" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="I434" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="J434" s="26" t="s">
+      <c r="K434" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="K434" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="L434" s="26" t="s">
         <v>35</v>
@@ -19170,31 +19167,31 @@
         <v>22</v>
       </c>
       <c r="B435" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="C435" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D435" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E435" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F435" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G435" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H435" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C435" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D435" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="E435" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F435" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G435" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H435" s="26" t="s">
-        <v>272</v>
-      </c>
       <c r="I435" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J435" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K435" s="26" t="s">
         <v>145</v>
@@ -19220,34 +19217,34 @@
         <v>22</v>
       </c>
       <c r="B436" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C436" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D436" s="26" t="s">
         <v>120</v>
       </c>
       <c r="E436" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F436" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G436" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H436" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I436" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J436" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K436" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K436" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L436" s="26" t="s">
         <v>35</v>
@@ -19270,10 +19267,10 @@
         <v>22</v>
       </c>
       <c r="B437" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C437" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D437" s="26" t="s">
         <v>46</v>
@@ -19282,19 +19279,19 @@
         <v>47</v>
       </c>
       <c r="F437" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G437" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H437" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I437" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J437" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K437" s="26" t="s">
         <v>48</v>
@@ -19322,34 +19319,34 @@
         <v>22</v>
       </c>
       <c r="B438" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C438" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D438" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E438" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F438" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G438" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H438" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I438" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J438" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K438" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K438" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L438" s="26" t="s">
         <v>35</v>
@@ -19372,10 +19369,10 @@
         <v>22</v>
       </c>
       <c r="B439" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C439" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D439" s="26" t="s">
         <v>50</v>
@@ -19384,19 +19381,19 @@
         <v>47</v>
       </c>
       <c r="F439" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G439" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H439" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I439" s="26" t="s">
         <v>50</v>
       </c>
       <c r="J439" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K439" s="26" t="s">
         <v>48</v>
@@ -19424,34 +19421,34 @@
         <v>22</v>
       </c>
       <c r="B440" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C440" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D440" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E440" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F440" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G440" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H440" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I440" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J440" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K440" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K440" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L440" s="26" t="s">
         <v>35</v>
@@ -19480,7 +19477,7 @@
       <c r="F441" s="55"/>
       <c r="G441" s="55"/>
       <c r="H441" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I441" s="55" t="s">
         <v>55</v>
@@ -19518,7 +19515,7 @@
       <c r="F442" s="55"/>
       <c r="G442" s="55"/>
       <c r="H442" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I442" s="29" t="s">
         <v>60</v>
@@ -19556,7 +19553,7 @@
       <c r="F443" s="55"/>
       <c r="G443" s="55"/>
       <c r="H443" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I443" s="29" t="s">
         <v>64</v>
@@ -19594,7 +19591,7 @@
       <c r="F444" s="55"/>
       <c r="G444" s="55"/>
       <c r="H444" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I444" s="29" t="s">
         <v>68</v>
@@ -19634,7 +19631,7 @@
       <c r="F445" s="55"/>
       <c r="G445" s="55"/>
       <c r="H445" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I445" s="29" t="s">
         <v>72</v>
@@ -19670,7 +19667,7 @@
       <c r="F446" s="47"/>
       <c r="G446" s="26"/>
       <c r="H446" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I446" s="31" t="s">
         <v>76</v>
@@ -19702,10 +19699,10 @@
         <v>22</v>
       </c>
       <c r="B447" s="48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C447" s="48" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D447" s="49"/>
       <c r="E447" s="49"/>
@@ -19716,7 +19713,7 @@
         <v>25</v>
       </c>
       <c r="H447" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I447" s="8"/>
       <c r="J447" s="50"/>
@@ -19752,34 +19749,34 @@
         <v>22</v>
       </c>
       <c r="B448" s="54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C448" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D448" s="26" t="s">
         <v>147</v>
       </c>
       <c r="E448" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F448" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G448" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H448" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I448" s="26" t="s">
         <v>147</v>
       </c>
       <c r="J448" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="K448" s="26" t="s">
         <v>277</v>
-      </c>
-      <c r="K448" s="26" t="s">
-        <v>278</v>
       </c>
       <c r="L448" s="26" t="s">
         <v>35</v>
@@ -19802,34 +19799,34 @@
         <v>22</v>
       </c>
       <c r="B449" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C449" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D449" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E449" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F449" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G449" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H449" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="C449" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D449" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="E449" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F449" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G449" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H449" s="26" t="s">
-        <v>276</v>
-      </c>
       <c r="I449" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J449" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K449" s="26" t="s">
         <v>234</v>
-      </c>
-      <c r="K449" s="26" t="s">
-        <v>235</v>
       </c>
       <c r="L449" s="26" t="s">
         <v>35</v>
@@ -19852,34 +19849,34 @@
         <v>22</v>
       </c>
       <c r="B450" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C450" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D450" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E450" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F450" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G450" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H450" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="C450" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D450" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="E450" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F450" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G450" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H450" s="26" t="s">
-        <v>276</v>
-      </c>
       <c r="I450" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J450" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K450" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K450" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L450" s="26" t="s">
         <v>35</v>
@@ -19902,10 +19899,10 @@
         <v>22</v>
       </c>
       <c r="B451" s="54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C451" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D451" s="26" t="s">
         <v>46</v>
@@ -19914,19 +19911,19 @@
         <v>47</v>
       </c>
       <c r="F451" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G451" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H451" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I451" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J451" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K451" s="26" t="s">
         <v>48</v>
@@ -19954,34 +19951,34 @@
         <v>22</v>
       </c>
       <c r="B452" s="54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C452" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D452" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E452" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F452" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G452" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H452" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I452" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J452" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K452" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K452" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L452" s="26" t="s">
         <v>35</v>
@@ -20004,10 +20001,10 @@
         <v>22</v>
       </c>
       <c r="B453" s="54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C453" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D453" s="26" t="s">
         <v>50</v>
@@ -20016,19 +20013,19 @@
         <v>47</v>
       </c>
       <c r="F453" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G453" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H453" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I453" s="26" t="s">
         <v>50</v>
       </c>
       <c r="J453" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K453" s="26" t="s">
         <v>48</v>
@@ -20056,34 +20053,34 @@
         <v>22</v>
       </c>
       <c r="B454" s="54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C454" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D454" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E454" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F454" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G454" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H454" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I454" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J454" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K454" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K454" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L454" s="26" t="s">
         <v>35</v>
@@ -20112,7 +20109,7 @@
       <c r="F455" s="55"/>
       <c r="G455" s="55"/>
       <c r="H455" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I455" s="55" t="s">
         <v>55</v>
@@ -20150,7 +20147,7 @@
       <c r="F456" s="55"/>
       <c r="G456" s="55"/>
       <c r="H456" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I456" s="29" t="s">
         <v>60</v>
@@ -20188,7 +20185,7 @@
       <c r="F457" s="55"/>
       <c r="G457" s="55"/>
       <c r="H457" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I457" s="29" t="s">
         <v>64</v>
@@ -20226,7 +20223,7 @@
       <c r="F458" s="55"/>
       <c r="G458" s="55"/>
       <c r="H458" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I458" s="29" t="s">
         <v>68</v>
@@ -20266,7 +20263,7 @@
       <c r="F459" s="55"/>
       <c r="G459" s="55"/>
       <c r="H459" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I459" s="29" t="s">
         <v>72</v>
@@ -20302,7 +20299,7 @@
       <c r="F460" s="47"/>
       <c r="G460" s="26"/>
       <c r="H460" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I460" s="31" t="s">
         <v>76</v>
@@ -20334,10 +20331,10 @@
         <v>22</v>
       </c>
       <c r="B461" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C461" s="48" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D461" s="49"/>
       <c r="E461" s="49"/>
@@ -20348,7 +20345,7 @@
         <v>25</v>
       </c>
       <c r="H461" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I461" s="8"/>
       <c r="J461" s="50"/>
@@ -20384,34 +20381,34 @@
         <v>22</v>
       </c>
       <c r="B462" s="54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C462" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D462" s="26" t="s">
         <v>147</v>
       </c>
       <c r="E462" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F462" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G462" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H462" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I462" s="26" t="s">
         <v>147</v>
       </c>
       <c r="J462" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="K462" s="26" t="s">
         <v>277</v>
-      </c>
-      <c r="K462" s="26" t="s">
-        <v>278</v>
       </c>
       <c r="L462" s="26" t="s">
         <v>35</v>
@@ -20434,34 +20431,34 @@
         <v>22</v>
       </c>
       <c r="B463" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C463" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D463" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E463" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F463" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G463" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H463" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="C463" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D463" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="E463" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F463" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G463" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H463" s="26" t="s">
-        <v>282</v>
-      </c>
       <c r="I463" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J463" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K463" s="26" t="s">
         <v>234</v>
-      </c>
-      <c r="K463" s="26" t="s">
-        <v>235</v>
       </c>
       <c r="L463" s="26" t="s">
         <v>35</v>
@@ -20484,34 +20481,34 @@
         <v>22</v>
       </c>
       <c r="B464" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C464" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D464" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="E464" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F464" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G464" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H464" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="C464" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D464" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="E464" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F464" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G464" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H464" s="26" t="s">
+      <c r="I464" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="I464" s="26" t="s">
-        <v>283</v>
-      </c>
       <c r="J464" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K464" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K464" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L464" s="26" t="s">
         <v>35</v>
@@ -20534,10 +20531,10 @@
         <v>22</v>
       </c>
       <c r="B465" s="54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C465" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D465" s="26" t="s">
         <v>46</v>
@@ -20546,19 +20543,19 @@
         <v>47</v>
       </c>
       <c r="F465" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G465" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H465" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I465" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J465" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K465" s="26" t="s">
         <v>48</v>
@@ -20586,34 +20583,34 @@
         <v>22</v>
       </c>
       <c r="B466" s="54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C466" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D466" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E466" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F466" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G466" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H466" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I466" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J466" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K466" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K466" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L466" s="26" t="s">
         <v>35</v>
@@ -20636,10 +20633,10 @@
         <v>22</v>
       </c>
       <c r="B467" s="54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C467" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D467" s="26" t="s">
         <v>50</v>
@@ -20648,19 +20645,19 @@
         <v>47</v>
       </c>
       <c r="F467" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G467" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H467" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I467" s="26" t="s">
         <v>50</v>
       </c>
       <c r="J467" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K467" s="26" t="s">
         <v>48</v>
@@ -20688,34 +20685,34 @@
         <v>22</v>
       </c>
       <c r="B468" s="54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C468" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D468" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E468" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F468" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G468" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H468" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I468" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J468" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K468" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K468" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L468" s="26" t="s">
         <v>35</v>
@@ -20744,7 +20741,7 @@
       <c r="F469" s="55"/>
       <c r="G469" s="55"/>
       <c r="H469" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I469" s="55" t="s">
         <v>55</v>
@@ -20782,7 +20779,7 @@
       <c r="F470" s="55"/>
       <c r="G470" s="55"/>
       <c r="H470" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I470" s="29" t="s">
         <v>60</v>
@@ -20820,7 +20817,7 @@
       <c r="F471" s="55"/>
       <c r="G471" s="55"/>
       <c r="H471" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I471" s="29" t="s">
         <v>64</v>
@@ -20858,7 +20855,7 @@
       <c r="F472" s="55"/>
       <c r="G472" s="55"/>
       <c r="H472" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I472" s="29" t="s">
         <v>68</v>
@@ -20898,7 +20895,7 @@
       <c r="F473" s="55"/>
       <c r="G473" s="55"/>
       <c r="H473" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I473" s="29" t="s">
         <v>72</v>
@@ -20934,7 +20931,7 @@
       <c r="F474" s="47"/>
       <c r="G474" s="26"/>
       <c r="H474" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I474" s="31" t="s">
         <v>76</v>
@@ -20966,10 +20963,10 @@
         <v>22</v>
       </c>
       <c r="B475" s="48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C475" s="48" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D475" s="49"/>
       <c r="E475" s="49"/>
@@ -20980,7 +20977,7 @@
         <v>25</v>
       </c>
       <c r="H475" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I475" s="8"/>
       <c r="J475" s="50"/>
@@ -21016,25 +21013,25 @@
         <v>22</v>
       </c>
       <c r="B476" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C476" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D476" s="26" t="s">
         <v>124</v>
       </c>
       <c r="E476" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F476" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G476" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H476" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I476" s="26" t="s">
         <v>124</v>
@@ -21066,34 +21063,34 @@
         <v>22</v>
       </c>
       <c r="B477" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="C477" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D477" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E477" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F477" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G477" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H477" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C477" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D477" s="26" t="s">
+      <c r="I477" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="J477" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E477" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F477" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G477" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H477" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="I477" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="J477" s="26" t="s">
+      <c r="K477" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="K477" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="L477" s="26" t="s">
         <v>35</v>
@@ -21116,34 +21113,34 @@
         <v>22</v>
       </c>
       <c r="B478" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="C478" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D478" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="E478" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F478" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G478" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H478" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C478" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D478" s="26" t="s">
+      <c r="I478" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="J478" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="E478" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F478" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G478" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H478" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="I478" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="J478" s="26" t="s">
+      <c r="K478" s="26" t="s">
         <v>290</v>
-      </c>
-      <c r="K478" s="26" t="s">
-        <v>291</v>
       </c>
       <c r="L478" s="26" t="s">
         <v>35</v>
@@ -21166,34 +21163,34 @@
         <v>22</v>
       </c>
       <c r="B479" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="C479" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D479" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E479" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F479" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G479" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H479" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C479" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D479" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="E479" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F479" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G479" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H479" s="26" t="s">
-        <v>285</v>
-      </c>
       <c r="I479" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J479" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="K479" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="K479" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="L479" s="26" t="s">
         <v>35</v>
@@ -21216,34 +21213,34 @@
         <v>22</v>
       </c>
       <c r="B480" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="C480" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D480" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E480" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F480" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G480" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H480" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C480" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D480" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="E480" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F480" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G480" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H480" s="26" t="s">
-        <v>285</v>
-      </c>
       <c r="I480" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J480" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="K480" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="K480" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="L480" s="26" t="s">
         <v>35</v>
@@ -21266,34 +21263,34 @@
         <v>22</v>
       </c>
       <c r="B481" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="C481" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D481" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E481" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F481" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G481" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H481" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C481" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D481" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="E481" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F481" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G481" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H481" s="26" t="s">
-        <v>285</v>
-      </c>
       <c r="I481" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J481" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="K481" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="K481" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="L481" s="26" t="s">
         <v>35</v>
@@ -21316,34 +21313,34 @@
         <v>22</v>
       </c>
       <c r="B482" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="C482" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D482" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="E482" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F482" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G482" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H482" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C482" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D482" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="E482" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F482" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G482" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H482" s="26" t="s">
-        <v>285</v>
-      </c>
       <c r="I482" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J482" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="K482" s="26" t="s">
         <v>290</v>
-      </c>
-      <c r="K482" s="26" t="s">
-        <v>291</v>
       </c>
       <c r="L482" s="26" t="s">
         <v>35</v>
@@ -21366,28 +21363,28 @@
         <v>22</v>
       </c>
       <c r="B483" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="C483" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D483" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E483" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F483" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G483" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H483" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C483" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D483" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="E483" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F483" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G483" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H483" s="26" t="s">
-        <v>285</v>
-      </c>
       <c r="I483" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J483" s="26" t="s">
         <v>34</v>
@@ -21416,28 +21413,28 @@
         <v>22</v>
       </c>
       <c r="B484" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="C484" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D484" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E484" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F484" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G484" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H484" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C484" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D484" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E484" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="F484" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G484" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H484" s="26" t="s">
-        <v>285</v>
-      </c>
       <c r="I484" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J484" s="26" t="s">
         <v>69</v>
@@ -21452,7 +21449,7 @@
         <v>28</v>
       </c>
       <c r="N484" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O484" s="37"/>
       <c r="P484" s="56"/>
@@ -21468,28 +21465,28 @@
         <v>22</v>
       </c>
       <c r="B485" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="C485" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D485" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="E485" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F485" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G485" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H485" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C485" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D485" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E485" s="26" t="s">
+      <c r="I485" s="26" t="s">
         <v>298</v>
-      </c>
-      <c r="F485" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G485" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H485" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="I485" s="26" t="s">
-        <v>299</v>
       </c>
       <c r="J485" s="26" t="s">
         <v>69</v>
@@ -21504,7 +21501,7 @@
         <v>28</v>
       </c>
       <c r="N485" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O485" s="37"/>
       <c r="P485" s="56"/>
@@ -21520,10 +21517,10 @@
         <v>22</v>
       </c>
       <c r="B486" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C486" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D486" s="26" t="s">
         <v>46</v>
@@ -21532,19 +21529,19 @@
         <v>47</v>
       </c>
       <c r="F486" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G486" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H486" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I486" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J486" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K486" s="26" t="s">
         <v>48</v>
@@ -21572,34 +21569,34 @@
         <v>22</v>
       </c>
       <c r="B487" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C487" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D487" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E487" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F487" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G487" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H487" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I487" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J487" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K487" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K487" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L487" s="26" t="s">
         <v>35</v>
@@ -21622,10 +21619,10 @@
         <v>22</v>
       </c>
       <c r="B488" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C488" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D488" s="26" t="s">
         <v>50</v>
@@ -21634,19 +21631,19 @@
         <v>47</v>
       </c>
       <c r="F488" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G488" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H488" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I488" s="26" t="s">
         <v>50</v>
       </c>
       <c r="J488" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K488" s="26" t="s">
         <v>48</v>
@@ -21674,34 +21671,34 @@
         <v>22</v>
       </c>
       <c r="B489" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C489" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D489" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E489" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F489" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G489" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H489" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I489" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J489" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K489" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K489" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L489" s="26" t="s">
         <v>35</v>
@@ -21730,7 +21727,7 @@
       <c r="F490" s="55"/>
       <c r="G490" s="55"/>
       <c r="H490" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I490" s="55" t="s">
         <v>55</v>
@@ -21768,7 +21765,7 @@
       <c r="F491" s="55"/>
       <c r="G491" s="55"/>
       <c r="H491" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I491" s="29" t="s">
         <v>60</v>
@@ -21806,7 +21803,7 @@
       <c r="F492" s="55"/>
       <c r="G492" s="55"/>
       <c r="H492" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I492" s="29" t="s">
         <v>64</v>
@@ -21844,7 +21841,7 @@
       <c r="F493" s="55"/>
       <c r="G493" s="55"/>
       <c r="H493" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I493" s="29" t="s">
         <v>68</v>
@@ -21884,7 +21881,7 @@
       <c r="F494" s="55"/>
       <c r="G494" s="55"/>
       <c r="H494" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I494" s="29" t="s">
         <v>72</v>
@@ -21920,7 +21917,7 @@
       <c r="F495" s="47"/>
       <c r="G495" s="26"/>
       <c r="H495" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I495" s="31" t="s">
         <v>76</v>
@@ -21952,10 +21949,10 @@
         <v>22</v>
       </c>
       <c r="B496" s="48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C496" s="48" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D496" s="49"/>
       <c r="E496" s="49"/>
@@ -21966,7 +21963,7 @@
         <v>25</v>
       </c>
       <c r="H496" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I496" s="8"/>
       <c r="J496" s="50"/>
@@ -22002,34 +21999,34 @@
         <v>22</v>
       </c>
       <c r="B497" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="C497" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D497" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E497" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F497" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G497" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H497" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="C497" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D497" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="E497" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F497" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G497" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H497" s="26" t="s">
+      <c r="I497" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="I497" s="26" t="s">
-        <v>302</v>
-      </c>
       <c r="J497" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K497" s="26" t="s">
         <v>231</v>
-      </c>
-      <c r="K497" s="26" t="s">
-        <v>232</v>
       </c>
       <c r="L497" s="26" t="s">
         <v>35</v>
@@ -22052,34 +22049,34 @@
         <v>22</v>
       </c>
       <c r="B498" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="C498" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D498" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="E498" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F498" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G498" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H498" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="C498" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D498" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="E498" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F498" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G498" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H498" s="26" t="s">
-        <v>301</v>
-      </c>
       <c r="I498" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J498" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K498" s="26" t="s">
         <v>194</v>
-      </c>
-      <c r="K498" s="26" t="s">
-        <v>195</v>
       </c>
       <c r="L498" s="26" t="s">
         <v>35</v>
@@ -22102,34 +22099,34 @@
         <v>22</v>
       </c>
       <c r="B499" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C499" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D499" s="26" t="s">
         <v>120</v>
       </c>
       <c r="E499" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F499" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G499" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H499" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I499" s="26" t="s">
         <v>120</v>
       </c>
       <c r="J499" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K499" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K499" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L499" s="26" t="s">
         <v>35</v>
@@ -22152,10 +22149,10 @@
         <v>22</v>
       </c>
       <c r="B500" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C500" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D500" s="26" t="s">
         <v>46</v>
@@ -22164,19 +22161,19 @@
         <v>47</v>
       </c>
       <c r="F500" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G500" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H500" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I500" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J500" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K500" s="26" t="s">
         <v>48</v>
@@ -22204,34 +22201,34 @@
         <v>22</v>
       </c>
       <c r="B501" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C501" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D501" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E501" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F501" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G501" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H501" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I501" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J501" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K501" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K501" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L501" s="26" t="s">
         <v>35</v>
@@ -22254,10 +22251,10 @@
         <v>22</v>
       </c>
       <c r="B502" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C502" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D502" s="26" t="s">
         <v>50</v>
@@ -22266,19 +22263,19 @@
         <v>47</v>
       </c>
       <c r="F502" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G502" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H502" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I502" s="26" t="s">
         <v>50</v>
       </c>
       <c r="J502" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K502" s="26" t="s">
         <v>48</v>
@@ -22306,34 +22303,34 @@
         <v>22</v>
       </c>
       <c r="B503" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C503" s="55" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="D503" s="26" t="s">
         <v>51</v>
       </c>
       <c r="E503" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F503" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G503" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H503" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I503" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J503" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K503" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="K503" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="L503" s="26" t="s">
         <v>35</v>
@@ -22362,7 +22359,7 @@
       <c r="F504" s="55"/>
       <c r="G504" s="55"/>
       <c r="H504" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I504" s="55" t="s">
         <v>55</v>
@@ -22400,7 +22397,7 @@
       <c r="F505" s="55"/>
       <c r="G505" s="55"/>
       <c r="H505" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I505" s="29" t="s">
         <v>60</v>
@@ -22438,7 +22435,7 @@
       <c r="F506" s="55"/>
       <c r="G506" s="55"/>
       <c r="H506" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I506" s="29" t="s">
         <v>64</v>
@@ -22476,7 +22473,7 @@
       <c r="F507" s="55"/>
       <c r="G507" s="55"/>
       <c r="H507" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I507" s="29" t="s">
         <v>68</v>
@@ -22516,7 +22513,7 @@
       <c r="F508" s="55"/>
       <c r="G508" s="55"/>
       <c r="H508" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I508" s="29" t="s">
         <v>72</v>
@@ -22552,7 +22549,7 @@
       <c r="F509" s="47"/>
       <c r="G509" s="26"/>
       <c r="H509" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I509" s="31" t="s">
         <v>76</v>
@@ -22584,7 +22581,7 @@
         <v>22</v>
       </c>
       <c r="B510" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C510" s="48" t="s">
         <v>24</v>
@@ -22598,7 +22595,7 @@
         <v>25</v>
       </c>
       <c r="H510" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I510" s="8"/>
       <c r="J510" s="50"/>
@@ -22634,31 +22631,31 @@
         <v>22</v>
       </c>
       <c r="B511" s="54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C511" s="55" t="s">
         <v>24</v>
       </c>
       <c r="D511" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E511" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F511" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G511" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H511" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="I511" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="I511" s="26" t="s">
-        <v>306</v>
-      </c>
       <c r="J511" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K511" s="26" t="s">
         <v>48</v>
@@ -22684,43 +22681,43 @@
         <v>22</v>
       </c>
       <c r="B512" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C512" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D512" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="E512" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F512" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G512" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H512" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C512" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D512" s="26" t="s">
+      <c r="I512" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="J512" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K512" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="L512" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M512" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N512" s="55" t="s">
         <v>307</v>
-      </c>
-      <c r="E512" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F512" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G512" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H512" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="I512" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="J512" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="K512" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="L512" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="M512" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="N512" s="55" t="s">
-        <v>308</v>
       </c>
       <c r="O512" s="55"/>
       <c r="P512" s="62"/>
@@ -22738,34 +22735,34 @@
         <v>22</v>
       </c>
       <c r="B513" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C513" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D513" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E513" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F513" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G513" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H513" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C513" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D513" s="26" t="s">
+      <c r="I513" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="J513" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="E513" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F513" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G513" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H513" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="I513" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="J513" s="26" t="s">
+      <c r="K513" s="26" t="s">
         <v>310</v>
-      </c>
-      <c r="K513" s="26" t="s">
-        <v>311</v>
       </c>
       <c r="L513" s="26" t="s">
         <v>35</v>
@@ -22788,34 +22785,34 @@
         <v>22</v>
       </c>
       <c r="B514" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C514" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D514" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E514" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F514" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G514" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H514" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C514" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D514" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="E514" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F514" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G514" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H514" s="26" t="s">
-        <v>305</v>
-      </c>
       <c r="I514" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J514" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="K514" s="26" t="s">
         <v>259</v>
-      </c>
-      <c r="K514" s="26" t="s">
-        <v>260</v>
       </c>
       <c r="L514" s="26" t="s">
         <v>35</v>
@@ -22838,34 +22835,34 @@
         <v>22</v>
       </c>
       <c r="B515" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C515" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D515" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E515" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F515" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G515" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H515" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C515" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D515" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="E515" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F515" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G515" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H515" s="26" t="s">
-        <v>305</v>
-      </c>
       <c r="I515" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J515" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="K515" s="26" t="s">
         <v>277</v>
-      </c>
-      <c r="K515" s="26" t="s">
-        <v>278</v>
       </c>
       <c r="L515" s="26" t="s">
         <v>35</v>
@@ -22888,34 +22885,34 @@
         <v>22</v>
       </c>
       <c r="B516" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C516" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D516" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="E516" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F516" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G516" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H516" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C516" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D516" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="E516" s="26" t="s">
+      <c r="I516" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="J516" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F516" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G516" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H516" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="I516" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="J516" s="26" t="s">
+      <c r="K516" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="K516" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="L516" s="26" t="s">
         <v>35</v>
@@ -22938,28 +22935,28 @@
         <v>22</v>
       </c>
       <c r="B517" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C517" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D517" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="E517" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F517" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G517" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H517" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C517" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D517" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="E517" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F517" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G517" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H517" s="26" t="s">
-        <v>305</v>
-      </c>
       <c r="I517" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J517" s="26" t="s">
         <v>34</v>
@@ -22988,34 +22985,34 @@
         <v>22</v>
       </c>
       <c r="B518" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C518" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D518" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="E518" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F518" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G518" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H518" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C518" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D518" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="E518" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F518" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G518" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H518" s="26" t="s">
-        <v>305</v>
-      </c>
       <c r="I518" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J518" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K518" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K518" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L518" s="26" t="s">
         <v>35</v>
@@ -23038,28 +23035,28 @@
         <v>22</v>
       </c>
       <c r="B519" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C519" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D519" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E519" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F519" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G519" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H519" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C519" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D519" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="E519" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F519" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G519" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H519" s="26" t="s">
-        <v>305</v>
-      </c>
       <c r="I519" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J519" s="26" t="s">
         <v>34</v>
@@ -23088,34 +23085,34 @@
         <v>22</v>
       </c>
       <c r="B520" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C520" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D520" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E520" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F520" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G520" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H520" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C520" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D520" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="E520" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F520" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G520" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H520" s="26" t="s">
-        <v>305</v>
-      </c>
       <c r="I520" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J520" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K520" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K520" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L520" s="26" t="s">
         <v>35</v>
@@ -23138,34 +23135,34 @@
         <v>22</v>
       </c>
       <c r="B521" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C521" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D521" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E521" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F521" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G521" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H521" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C521" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D521" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E521" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F521" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G521" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H521" s="26" t="s">
-        <v>305</v>
-      </c>
       <c r="I521" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J521" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K521" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="K521" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="L521" s="26" t="s">
         <v>35</v>
@@ -23194,7 +23191,7 @@
       <c r="F522" s="55"/>
       <c r="G522" s="55"/>
       <c r="H522" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I522" s="55" t="s">
         <v>55</v>
@@ -23232,7 +23229,7 @@
       <c r="F523" s="55"/>
       <c r="G523" s="55"/>
       <c r="H523" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I523" s="29" t="s">
         <v>60</v>
@@ -23270,7 +23267,7 @@
       <c r="F524" s="55"/>
       <c r="G524" s="55"/>
       <c r="H524" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I524" s="29" t="s">
         <v>64</v>
@@ -23308,7 +23305,7 @@
       <c r="F525" s="55"/>
       <c r="G525" s="55"/>
       <c r="H525" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I525" s="29" t="s">
         <v>68</v>
@@ -23348,7 +23345,7 @@
       <c r="F526" s="55"/>
       <c r="G526" s="55"/>
       <c r="H526" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I526" s="29" t="s">
         <v>72</v>
@@ -23384,7 +23381,7 @@
       <c r="F527" s="47"/>
       <c r="G527" s="26"/>
       <c r="H527" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I527" s="31" t="s">
         <v>76</v>
@@ -23471,47 +23468,47 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="107" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" t="s">
         <v>351</v>
-      </c>
-      <c r="E2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="107" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E7" t="s">
         <v>356</v>
-      </c>
-      <c r="E7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="C8" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="D8" s="26" t="s">
         <v>360</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>361</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>68</v>
@@ -23520,10 +23517,10 @@
         <v>55</v>
       </c>
       <c r="G8" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="H8" s="109" t="s">
         <v>362</v>
-      </c>
-      <c r="H8" s="109" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -23546,7 +23543,7 @@
         <v>20190826</v>
       </c>
       <c r="I9" s="110" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -23569,7 +23566,7 @@
         <v>20190827</v>
       </c>
       <c r="I10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -23604,7 +23601,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="112" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B13" s="111"/>
       <c r="C13" s="111"/>
@@ -23615,29 +23612,29 @@
     </row>
     <row r="14" spans="1:9" ht="27.75" customHeight="1">
       <c r="A14" s="113" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" t="s">
         <v>368</v>
-      </c>
-      <c r="E15" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="C16" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="D16" s="26" t="s">
         <v>360</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>361</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>68</v>
@@ -23646,10 +23643,10 @@
         <v>55</v>
       </c>
       <c r="G16" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="H16" s="109" t="s">
         <v>362</v>
-      </c>
-      <c r="H16" s="109" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -23692,7 +23689,7 @@
         <v>20190820</v>
       </c>
       <c r="I18" s="110" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -23701,7 +23698,7 @@
     </row>
     <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="114" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B20" s="115"/>
       <c r="C20" s="115"/>
@@ -23713,7 +23710,7 @@
     </row>
     <row r="21" spans="1:9" ht="30.75" hidden="1" customHeight="1">
       <c r="A21" s="117" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B21" s="115"/>
       <c r="C21" s="115"/>
@@ -23725,13 +23722,13 @@
     </row>
     <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="115" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B22" s="115"/>
       <c r="C22" s="115"/>
       <c r="D22" s="115"/>
       <c r="E22" s="115" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F22" s="115"/>
       <c r="G22" s="115"/>
@@ -23739,13 +23736,13 @@
     </row>
     <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="118" t="s">
+        <v>357</v>
+      </c>
+      <c r="B23" s="118" t="s">
         <v>358</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="C23" s="118" t="s">
         <v>359</v>
-      </c>
-      <c r="C23" s="118" t="s">
-        <v>360</v>
       </c>
       <c r="D23" s="118"/>
       <c r="E23" s="118" t="s">
@@ -23755,10 +23752,10 @@
         <v>55</v>
       </c>
       <c r="G23" s="118" t="s">
+        <v>361</v>
+      </c>
+      <c r="H23" s="118" t="s">
         <v>362</v>
-      </c>
-      <c r="H23" s="118" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:9" hidden="1">
@@ -23786,36 +23783,36 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="107" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F27" s="111"/>
       <c r="G27" s="111"/>
     </row>
     <row r="28" spans="1:9" ht="47.25" customHeight="1">
       <c r="A28" s="113" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="C30" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="D30" s="26" t="s">
         <v>360</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>361</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>68</v>
@@ -23824,10 +23821,10 @@
         <v>55</v>
       </c>
       <c r="G30" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="H30" s="109" t="s">
         <v>362</v>
-      </c>
-      <c r="H30" s="109" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -23870,7 +23867,7 @@
         <v>20190820</v>
       </c>
       <c r="I32" s="110" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -23879,36 +23876,36 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="112" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F34" s="111"/>
       <c r="G34" s="111"/>
     </row>
     <row r="35" spans="1:9" ht="48.75" customHeight="1">
       <c r="A35" s="113" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B37" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="C37" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="D37" s="26" t="s">
         <v>360</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>361</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>68</v>
@@ -23917,10 +23914,10 @@
         <v>55</v>
       </c>
       <c r="G37" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="H37" s="109" t="s">
         <v>362</v>
-      </c>
-      <c r="H37" s="109" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -23963,7 +23960,7 @@
         <v>20190820</v>
       </c>
       <c r="I39" s="110" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -23992,16 +23989,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
@@ -24012,7 +24009,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>22</v>
@@ -24027,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D3" s="26"/>
     </row>
@@ -24040,7 +24037,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D4" s="26"/>
     </row>
@@ -24053,7 +24050,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D5" s="26"/>
     </row>
@@ -24066,7 +24063,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D6" s="26"/>
     </row>
@@ -24076,13 +24073,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="120" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="26" t="s">
         <v>392</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
@@ -24094,10 +24091,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>394</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
@@ -24109,7 +24106,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D9" s="26"/>
     </row>
@@ -24122,7 +24119,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D10" s="26"/>
     </row>
@@ -24135,7 +24132,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D11" s="26"/>
     </row>
@@ -24148,10 +24145,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>399</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
@@ -24163,10 +24160,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>401</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
@@ -24178,7 +24175,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D14" s="26"/>
     </row>
@@ -24191,7 +24188,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D15" s="26"/>
     </row>
@@ -24201,13 +24198,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="122" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>406</v>
-      </c>
       <c r="D16" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
@@ -24216,13 +24213,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="122" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>408</v>
-      </c>
       <c r="D17" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
@@ -24234,10 +24231,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
@@ -24249,10 +24246,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
@@ -24264,10 +24261,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>411</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
@@ -24279,7 +24276,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D21" s="26"/>
     </row>
@@ -24292,10 +24289,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>414</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1"/>
@@ -24309,21 +24306,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C723A6D629A244B9035064CEA29699F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="439c1f6a0871fabbc20469cf751fc22a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c6a5f84-dc80-404b-9608-a58c80d813cf" xmlns:ns3="fb15ab9c-5ce3-4966-97a0-841ffe55082a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a0ba7a63f3f3ddebd5188756dbc3799" ns2:_="" ns3:_="">
     <xsd:import namespace="5c6a5f84-dc80-404b-9608-a58c80d813cf"/>
@@ -24540,32 +24522,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70785B63-45C8-4C04-9C8C-D6290BDFADA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="5c6a5f84-dc80-404b-9608-a58c80d813cf"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fb15ab9c-5ce3-4966-97a0-841ffe55082a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C16B0E6-E226-461B-8D00-37FDE1E9DF80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFA04A07-630B-46D3-B899-ED803BE18F7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24582,4 +24554,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C16B0E6-E226-461B-8D00-37FDE1E9DF80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70785B63-45C8-4C04-9C8C-D6290BDFADA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="5c6a5f84-dc80-404b-9608-a58c80d813cf"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fb15ab9c-5ce3-4966-97a0-841ffe55082a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DTAC-SOURCE-TO-TARGET-MAPPING_SET2_V0.8.xlsx
+++ b/DTAC-SOURCE-TO-TARGET-MAPPING_SET2_V0.8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Telenor-AEP\Requirement-Docs\DTAC_Sprint1_SS_Feeds\IS_DTAC_Feeds\Review_Feb2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Telenor-AEP\Requirement-Docs\DTAC_STM_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5525" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5529" uniqueCount="421">
   <si>
     <t>Mode of Integration</t>
   </si>
@@ -1316,6 +1316,9 @@
   </si>
   <si>
     <t>SEND_SMS_DTTM</t>
+  </si>
+  <si>
+    <t>System date in format "YYYY-MM-DD HH:MM:SS"</t>
   </si>
 </sst>
 </file>
@@ -2422,6 +2425,24 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2475,24 +2496,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2803,12 +2806,12 @@
       <c r="A2" s="66"/>
     </row>
     <row r="3" spans="1:6" ht="20.25">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="156" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="66"/>
@@ -2832,10 +2835,10 @@
       <c r="F7" s="72"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="157" t="s">
         <v>307</v>
       </c>
-      <c r="B8" s="148"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="73" t="s">
         <v>308</v>
       </c>
@@ -2862,7 +2865,7 @@
       <c r="F9" s="75"/>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="159" t="s">
         <v>314</v>
       </c>
       <c r="B10" s="77" t="s">
@@ -2874,7 +2877,7 @@
       <c r="F10" s="82"/>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="150"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="83" t="s">
         <v>316</v>
       </c>
@@ -2904,7 +2907,7 @@
       <c r="F13" s="82"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="161" t="s">
         <v>319</v>
       </c>
       <c r="B14" s="83" t="s">
@@ -2916,7 +2919,7 @@
       <c r="F14" s="87"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="152"/>
+      <c r="A15" s="162"/>
       <c r="B15" s="77" t="s">
         <v>318</v>
       </c>
@@ -2926,7 +2929,7 @@
       <c r="F15" s="90"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="152"/>
+      <c r="A16" s="162"/>
       <c r="B16" s="77" t="s">
         <v>321</v>
       </c>
@@ -2936,7 +2939,7 @@
       <c r="F16" s="90"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A17" s="153"/>
+      <c r="A17" s="163"/>
       <c r="B17" s="92" t="s">
         <v>322</v>
       </c>
@@ -2973,11 +2976,11 @@
       <c r="C20" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="D20" s="154" t="s">
+      <c r="D20" s="164" t="s">
         <v>327</v>
       </c>
-      <c r="E20" s="155"/>
-      <c r="F20" s="156"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="166"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
       <c r="A21" s="100">
@@ -2989,11 +2992,11 @@
       <c r="C21" s="102" t="s">
         <v>328</v>
       </c>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="153" t="s">
         <v>329</v>
       </c>
-      <c r="E21" s="144"/>
-      <c r="F21" s="145"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="155"/>
     </row>
     <row r="22" spans="1:6" ht="36.75" customHeight="1">
       <c r="A22" s="103">
@@ -3005,11 +3008,11 @@
       <c r="C22" s="105" t="s">
         <v>330</v>
       </c>
-      <c r="D22" s="157" t="s">
+      <c r="D22" s="167" t="s">
         <v>331</v>
       </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="168"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" customHeight="1">
       <c r="A23" s="103">
@@ -3021,11 +3024,11 @@
       <c r="C23" s="105" t="s">
         <v>330</v>
       </c>
-      <c r="D23" s="157" t="s">
+      <c r="D23" s="167" t="s">
         <v>332</v>
       </c>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="168"/>
     </row>
     <row r="24" spans="1:6" ht="44.25" customHeight="1">
       <c r="A24" s="103">
@@ -3037,11 +3040,11 @@
       <c r="C24" s="105" t="s">
         <v>330</v>
       </c>
-      <c r="D24" s="157" t="s">
+      <c r="D24" s="167" t="s">
         <v>333</v>
       </c>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="168"/>
     </row>
     <row r="25" spans="1:6" ht="89.25" customHeight="1">
       <c r="A25" s="103">
@@ -3053,11 +3056,11 @@
       <c r="C25" s="105" t="s">
         <v>330</v>
       </c>
-      <c r="D25" s="159" t="s">
+      <c r="D25" s="169" t="s">
         <v>334</v>
       </c>
-      <c r="E25" s="144"/>
-      <c r="F25" s="145"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="155"/>
     </row>
     <row r="26" spans="1:6" ht="44.25" customHeight="1">
       <c r="A26" s="103">
@@ -3069,11 +3072,11 @@
       <c r="C26" s="105" t="s">
         <v>330</v>
       </c>
-      <c r="D26" s="160" t="s">
+      <c r="D26" s="170" t="s">
         <v>400</v>
       </c>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3099,11 +3102,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V528"/>
+  <dimension ref="A1:V529"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H75" sqref="H75"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -3252,7 +3255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="3" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A3" s="26" t="s">
         <v>22</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="4" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="26" t="s">
         <v>22</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="5" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="26" t="s">
         <v>22</v>
       </c>
@@ -3351,7 +3354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="6" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="26" t="s">
         <v>22</v>
       </c>
@@ -3384,7 +3387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="7" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
@@ -3417,7 +3420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="8" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="26" t="s">
         <v>22</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="9" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="26" t="s">
         <v>22</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="10" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A10" s="26" t="s">
         <v>22</v>
       </c>
@@ -3522,7 +3525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="11" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
@@ -3555,7 +3558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="12" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="13" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A13" s="26" t="s">
         <v>22</v>
       </c>
@@ -3627,7 +3630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="14" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A14" s="26" t="s">
         <v>22</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="15" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A15" s="26" t="s">
         <v>22</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="16" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E16" s="29" t="s">
         <v>58</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="17" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E17" s="29" t="s">
         <v>62</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="18" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E18" s="29" t="s">
         <v>66</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="19" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E19" s="29" t="s">
         <v>70</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="20" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E20" s="29" t="s">
         <v>74</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="21" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="F21" s="128"/>
       <c r="H21" s="26" t="s">
         <v>25</v>
@@ -3837,7 +3840,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" collapsed="1">
       <c r="A22" s="16" t="s">
         <v>22</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="26" customFormat="1" ht="36.75" outlineLevel="1">
+    <row r="23" spans="1:22" s="26" customFormat="1" ht="36.75" hidden="1" outlineLevel="1">
       <c r="F23" s="128"/>
       <c r="H23" s="26" t="s">
         <v>78</v>
@@ -3921,7 +3924,7 @@
       <c r="T23" s="46"/>
       <c r="V23" s="124"/>
     </row>
-    <row r="24" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="24" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A24" s="26" t="s">
         <v>22</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="25" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A25" s="26" t="s">
         <v>22</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="26" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A26" s="26" t="s">
         <v>22</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="27" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A27" s="26" t="s">
         <v>22</v>
       </c>
@@ -4059,7 +4062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="28" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A28" s="26" t="s">
         <v>22</v>
       </c>
@@ -4098,7 +4101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="29" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -4131,7 +4134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="30" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A30" s="26" t="s">
         <v>22</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="31" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A31" s="26" t="s">
         <v>22</v>
       </c>
@@ -4203,7 +4206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="26" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
+    <row r="32" spans="1:22" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E32" s="29" t="s">
         <v>58</v>
       </c>
@@ -4227,7 +4230,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="33" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E33" s="29" t="s">
         <v>62</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="26" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
+    <row r="34" spans="1:22" s="26" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E34" s="29" t="s">
         <v>66</v>
       </c>
@@ -4275,7 +4278,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="35" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E35" s="29" t="s">
         <v>70</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="36" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E36" s="29" t="s">
         <v>74</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="26" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="37" spans="1:22" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="F37" s="128"/>
       <c r="H37" s="26" t="s">
         <v>78</v>
@@ -4347,7 +4350,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" collapsed="1">
       <c r="A38" s="16" t="s">
         <v>22</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="39" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A39" s="26" t="s">
         <v>22</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="40" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A40" s="26" t="s">
         <v>22</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="41" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A41" s="26" t="s">
         <v>22</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="42" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A42" s="26" t="s">
         <v>22</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="43" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A43" s="26" t="s">
         <v>22</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="44" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A44" s="26" t="s">
         <v>22</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="45" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A45" s="26" t="s">
         <v>22</v>
       </c>
@@ -4637,7 +4640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="46" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A46" s="26" t="s">
         <v>22</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="47" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A47" s="26" t="s">
         <v>22</v>
       </c>
@@ -4709,7 +4712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1">
+    <row r="48" spans="1:22" s="26" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E48" s="29" t="s">
         <v>58</v>
       </c>
@@ -4733,7 +4736,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="49" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E49" s="29" t="s">
         <v>62</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="50" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E50" s="29" t="s">
         <v>66</v>
       </c>
@@ -4781,7 +4784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="51" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E51" s="29" t="s">
         <v>70</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="52" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E52" s="29" t="s">
         <v>74</v>
       </c>
@@ -4832,7 +4835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="26" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="53" spans="1:22" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="F53" s="128"/>
       <c r="H53" s="26" t="s">
         <v>88</v>
@@ -4853,7 +4856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" collapsed="1">
       <c r="A54" s="16" t="s">
         <v>22</v>
       </c>
@@ -4909,17 +4912,17 @@
     </row>
     <row r="55" spans="1:22" s="26" customFormat="1" ht="36.75" outlineLevel="1">
       <c r="F55" s="128"/>
-      <c r="H55" s="161" t="s">
+      <c r="H55" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I55" s="162" t="s">
+      <c r="I55" s="144" t="s">
         <v>234</v>
       </c>
-      <c r="J55" s="162" t="s">
+      <c r="J55" s="144" t="s">
         <v>183</v>
       </c>
-      <c r="K55" s="162"/>
-      <c r="L55" s="166" t="s">
+      <c r="K55" s="144"/>
+      <c r="L55" s="148" t="s">
         <v>56</v>
       </c>
       <c r="M55" s="27" t="s">
@@ -4950,19 +4953,19 @@
       <c r="D56" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H56" s="161" t="s">
+      <c r="H56" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I56" s="170" t="s">
+      <c r="I56" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="J56" s="170" t="s">
+      <c r="J56" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="K56" s="170" t="s">
+      <c r="K56" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="L56" s="165" t="s">
+      <c r="L56" s="147" t="s">
         <v>34</v>
       </c>
       <c r="M56" s="34" t="s">
@@ -4982,19 +4985,19 @@
       <c r="D57" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="H57" s="161" t="s">
+      <c r="H57" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I57" s="170" t="s">
+      <c r="I57" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="J57" s="170" t="s">
+      <c r="J57" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="K57" s="170" t="s">
+      <c r="K57" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="L57" s="165" t="s">
+      <c r="L57" s="147" t="s">
         <v>34</v>
       </c>
       <c r="M57" s="34" t="s">
@@ -5020,19 +5023,19 @@
       <c r="D58" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H58" s="161" t="s">
+      <c r="H58" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I58" s="170" t="s">
+      <c r="I58" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="J58" s="170" t="s">
+      <c r="J58" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="K58" s="170" t="s">
+      <c r="K58" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="L58" s="165" t="s">
+      <c r="L58" s="147" t="s">
         <v>34</v>
       </c>
       <c r="M58" s="34" t="s">
@@ -5052,19 +5055,19 @@
       <c r="D59" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H59" s="161" t="s">
+      <c r="H59" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I59" s="170" t="s">
+      <c r="I59" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="J59" s="170" t="s">
+      <c r="J59" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="K59" s="170" t="s">
+      <c r="K59" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="L59" s="165" t="s">
+      <c r="L59" s="147" t="s">
         <v>34</v>
       </c>
       <c r="M59" s="34" t="s">
@@ -5085,22 +5088,28 @@
       <c r="D60" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="H60" s="161" t="s">
+      <c r="H60" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I60" s="170" t="s">
+      <c r="I60" s="152" t="s">
         <v>173</v>
       </c>
-      <c r="J60" s="170" t="s">
+      <c r="J60" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="K60" s="170" t="s">
+      <c r="K60" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="L60" s="165" t="s">
+      <c r="L60" s="147" t="s">
         <v>34</v>
       </c>
       <c r="M60" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="R60" s="65" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5117,19 +5126,19 @@
       <c r="D61" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="H61" s="161" t="s">
+      <c r="H61" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="170" t="s">
+      <c r="I61" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="J61" s="170" t="s">
+      <c r="J61" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="K61" s="170" t="s">
+      <c r="K61" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="L61" s="165" t="s">
+      <c r="L61" s="147" t="s">
         <v>34</v>
       </c>
       <c r="M61" s="26" t="s">
@@ -5149,19 +5158,19 @@
       <c r="D62" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="H62" s="161" t="s">
+      <c r="H62" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I62" s="170" t="s">
+      <c r="I62" s="152" t="s">
         <v>417</v>
       </c>
-      <c r="J62" s="170" t="s">
+      <c r="J62" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="170" t="s">
+      <c r="K62" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="L62" s="165" t="s">
+      <c r="L62" s="147" t="s">
         <v>34</v>
       </c>
       <c r="M62" s="26" t="s">
@@ -5184,19 +5193,19 @@
       <c r="E63" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H63" s="161" t="s">
+      <c r="H63" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I63" s="170" t="s">
+      <c r="I63" s="152" t="s">
         <v>418</v>
       </c>
-      <c r="J63" s="170" t="s">
+      <c r="J63" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="K63" s="170" t="s">
+      <c r="K63" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="L63" s="165" t="s">
+      <c r="L63" s="147" t="s">
         <v>34</v>
       </c>
       <c r="M63" s="26" t="s">
@@ -5222,19 +5231,19 @@
       <c r="E64" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H64" s="161" t="s">
+      <c r="H64" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I64" s="170" t="s">
+      <c r="I64" s="152" t="s">
         <v>419</v>
       </c>
-      <c r="J64" s="170" t="s">
+      <c r="J64" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="K64" s="170" t="s">
+      <c r="K64" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="L64" s="165" t="s">
+      <c r="L64" s="147" t="s">
         <v>34</v>
       </c>
       <c r="M64" s="26" t="s">
@@ -5260,19 +5269,19 @@
       <c r="E65" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H65" s="161" t="s">
+      <c r="H65" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I65" s="170" t="s">
+      <c r="I65" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="J65" s="170" t="s">
+      <c r="J65" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="K65" s="170" t="s">
+      <c r="K65" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="L65" s="165" t="s">
+      <c r="L65" s="147" t="s">
         <v>34</v>
       </c>
       <c r="M65" s="34" t="s">
@@ -5295,19 +5304,19 @@
       <c r="D66" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H66" s="161" t="s">
+      <c r="H66" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I66" s="170" t="s">
+      <c r="I66" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="J66" s="170" t="s">
+      <c r="J66" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="K66" s="170" t="s">
+      <c r="K66" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="L66" s="165" t="s">
+      <c r="L66" s="147" t="s">
         <v>34</v>
       </c>
       <c r="M66" s="26" t="s">
@@ -5330,19 +5339,19 @@
       <c r="E67" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H67" s="161" t="s">
+      <c r="H67" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I67" s="170" t="s">
+      <c r="I67" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="J67" s="170" t="s">
+      <c r="J67" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="K67" s="170" t="s">
+      <c r="K67" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="L67" s="165" t="s">
+      <c r="L67" s="147" t="s">
         <v>34</v>
       </c>
       <c r="M67" s="26" t="s">
@@ -5352,7 +5361,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:22" s="161" customFormat="1" outlineLevel="1">
+    <row r="68" spans="1:22" s="143" customFormat="1" outlineLevel="1">
       <c r="A68" s="26" t="s">
         <v>22</v>
       </c>
@@ -5367,40 +5376,40 @@
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="26"/>
-      <c r="H68" s="161" t="s">
+      <c r="H68" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="I68" s="170" t="s">
+      <c r="I68" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="J68" s="170" t="s">
+      <c r="J68" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="K68" s="170" t="s">
+      <c r="K68" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="L68" s="165" t="s">
+      <c r="L68" s="147" t="s">
         <v>34</v>
       </c>
       <c r="M68" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="N68" s="163"/>
+      <c r="N68" s="145"/>
     </row>
     <row r="69" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="E69" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H69" s="167" t="s">
+      <c r="H69" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="I69" s="168" t="s">
+      <c r="I69" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="J69" s="169" t="s">
+      <c r="J69" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="K69" s="167"/>
+      <c r="K69" s="149"/>
       <c r="L69" s="32" t="s">
         <v>56</v>
       </c>
@@ -5632,13 +5641,13 @@
       <c r="H77" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I77" s="170" t="s">
+      <c r="I77" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="J77" s="170" t="s">
+      <c r="J77" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="K77" s="170" t="s">
+      <c r="K77" s="152" t="s">
         <v>33</v>
       </c>
       <c r="L77" s="33" t="s">
@@ -5665,13 +5674,13 @@
       <c r="H78" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I78" s="170" t="s">
+      <c r="I78" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="J78" s="170" t="s">
+      <c r="J78" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="K78" s="170" t="s">
+      <c r="K78" s="152" t="s">
         <v>95</v>
       </c>
       <c r="L78" s="33" t="s">
@@ -5704,13 +5713,13 @@
       <c r="H79" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I79" s="170" t="s">
+      <c r="I79" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="J79" s="170" t="s">
+      <c r="J79" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="K79" s="170" t="s">
+      <c r="K79" s="152" t="s">
         <v>40</v>
       </c>
       <c r="L79" s="33" t="s">
@@ -5737,13 +5746,13 @@
       <c r="H80" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I80" s="170" t="s">
+      <c r="I80" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="J80" s="170" t="s">
+      <c r="J80" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="K80" s="170" t="s">
+      <c r="K80" s="152" t="s">
         <v>36</v>
       </c>
       <c r="L80" s="33" t="s">
@@ -5771,19 +5780,25 @@
       <c r="H81" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I81" s="170" t="s">
+      <c r="I81" s="152" t="s">
         <v>173</v>
       </c>
-      <c r="J81" s="170" t="s">
+      <c r="J81" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="K81" s="170" t="s">
+      <c r="K81" s="152" t="s">
         <v>95</v>
       </c>
       <c r="L81" s="33" t="s">
         <v>34</v>
       </c>
       <c r="M81" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N81" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="R81" s="65" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5804,13 +5819,13 @@
       <c r="H82" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I82" s="170" t="s">
+      <c r="I82" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="170" t="s">
+      <c r="J82" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="K82" s="170" t="s">
+      <c r="K82" s="152" t="s">
         <v>100</v>
       </c>
       <c r="L82" s="33" t="s">
@@ -5837,13 +5852,13 @@
       <c r="H83" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I83" s="170" t="s">
+      <c r="I83" s="152" t="s">
         <v>417</v>
       </c>
-      <c r="J83" s="170" t="s">
+      <c r="J83" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="K83" s="170" t="s">
+      <c r="K83" s="152" t="s">
         <v>100</v>
       </c>
       <c r="L83" s="33" t="s">
@@ -5873,13 +5888,13 @@
       <c r="H84" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I84" s="170" t="s">
+      <c r="I84" s="152" t="s">
         <v>418</v>
       </c>
-      <c r="J84" s="170" t="s">
+      <c r="J84" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="K84" s="170" t="s">
+      <c r="K84" s="152" t="s">
         <v>47</v>
       </c>
       <c r="L84" s="33" t="s">
@@ -5912,13 +5927,13 @@
       <c r="H85" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I85" s="170" t="s">
+      <c r="I85" s="152" t="s">
         <v>419</v>
       </c>
-      <c r="J85" s="170" t="s">
+      <c r="J85" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="K85" s="170" t="s">
+      <c r="K85" s="152" t="s">
         <v>47</v>
       </c>
       <c r="L85" s="33" t="s">
@@ -5951,13 +5966,13 @@
       <c r="H86" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I86" s="170" t="s">
+      <c r="I86" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="J86" s="170" t="s">
+      <c r="J86" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="K86" s="170" t="s">
+      <c r="K86" s="152" t="s">
         <v>47</v>
       </c>
       <c r="L86" s="33" t="s">
@@ -5987,13 +6002,13 @@
       <c r="H87" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I87" s="170" t="s">
+      <c r="I87" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="J87" s="170" t="s">
+      <c r="J87" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="K87" s="170" t="s">
+      <c r="K87" s="152" t="s">
         <v>44</v>
       </c>
       <c r="L87" s="33" t="s">
@@ -6023,13 +6038,13 @@
       <c r="H88" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I88" s="170" t="s">
+      <c r="I88" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="J88" s="170" t="s">
+      <c r="J88" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="K88" s="170" t="s">
+      <c r="K88" s="152" t="s">
         <v>47</v>
       </c>
       <c r="L88" s="33" t="s">
@@ -6042,7 +6057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:22" s="161" customFormat="1" outlineLevel="1">
+    <row r="89" spans="1:22" s="143" customFormat="1" outlineLevel="1">
       <c r="A89" s="26" t="s">
         <v>22</v>
       </c>
@@ -6056,26 +6071,26 @@
         <v>50</v>
       </c>
       <c r="E89" s="26"/>
-      <c r="F89" s="164"/>
+      <c r="F89" s="146"/>
       <c r="H89" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="I89" s="170" t="s">
+      <c r="I89" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="J89" s="170" t="s">
+      <c r="J89" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="K89" s="170" t="s">
+      <c r="K89" s="152" t="s">
         <v>44</v>
       </c>
       <c r="L89" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="M89" s="161" t="s">
-        <v>27</v>
-      </c>
-      <c r="N89" s="163"/>
+      <c r="M89" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="N89" s="145"/>
     </row>
     <row r="90" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="E90" s="29" t="s">
@@ -6098,7 +6113,7 @@
         <v>28</v>
       </c>
       <c r="N90" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:22" s="26" customFormat="1" outlineLevel="1">
@@ -6274,7 +6289,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="97" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A97" s="26" t="s">
         <v>22</v>
       </c>
@@ -6307,7 +6322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="98" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A98" s="26" t="s">
         <v>22</v>
       </c>
@@ -6340,7 +6355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="99" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A99" s="26" t="s">
         <v>22</v>
       </c>
@@ -6379,7 +6394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="100" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A100" s="26" t="s">
         <v>22</v>
       </c>
@@ -6412,7 +6427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="101" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A101" s="26" t="s">
         <v>22</v>
       </c>
@@ -6451,7 +6466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:22" s="26" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
+    <row r="102" spans="1:22" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A102" s="26" t="s">
         <v>22</v>
       </c>
@@ -6484,7 +6499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1">
+    <row r="103" spans="1:22" s="26" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E103" s="29" t="s">
         <v>58</v>
       </c>
@@ -6505,10 +6520,10 @@
         <v>28</v>
       </c>
       <c r="N103" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E104" s="29" t="s">
         <v>62</v>
       </c>
@@ -6532,7 +6547,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1">
+    <row r="105" spans="1:22" s="26" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E105" s="29" t="s">
         <v>66</v>
       </c>
@@ -6556,7 +6571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="106" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E106" s="29" t="s">
         <v>70</v>
       </c>
@@ -6583,7 +6598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="107" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E107" s="29" t="s">
         <v>74</v>
       </c>
@@ -6607,7 +6622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:22" s="26" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="108" spans="1:22" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="F108" s="128"/>
       <c r="H108" s="26" t="s">
         <v>102</v>
@@ -6628,7 +6643,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" collapsed="1">
       <c r="A109" s="43" t="s">
         <v>22</v>
       </c>
@@ -6681,7 +6696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="110" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A110" s="26" t="s">
         <v>22</v>
       </c>
@@ -6714,7 +6729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="111" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A111" s="26" t="s">
         <v>22</v>
       </c>
@@ -6747,7 +6762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="112" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A112" s="26" t="s">
         <v>22</v>
       </c>
@@ -6780,7 +6795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="113" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A113" s="26" t="s">
         <v>22</v>
       </c>
@@ -6813,7 +6828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="114" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A114" s="26" t="s">
         <v>22</v>
       </c>
@@ -6846,7 +6861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="115" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A115" s="26" t="s">
         <v>22</v>
       </c>
@@ -6879,7 +6894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="116" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A116" s="26" t="s">
         <v>22</v>
       </c>
@@ -6918,7 +6933,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="117" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A117" s="26" t="s">
         <v>22</v>
       </c>
@@ -6951,7 +6966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="118" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A118" s="26" t="s">
         <v>22</v>
       </c>
@@ -6990,7 +7005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="119" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A119" s="26" t="s">
         <v>22</v>
       </c>
@@ -7023,7 +7038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1">
+    <row r="120" spans="1:22" s="26" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E120" s="29" t="s">
         <v>58</v>
       </c>
@@ -7044,10 +7059,10 @@
         <v>28</v>
       </c>
       <c r="N120" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E121" s="29" t="s">
         <v>62</v>
       </c>
@@ -7071,7 +7086,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="122" spans="1:22" s="26" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E122" s="29" t="s">
         <v>66</v>
       </c>
@@ -7095,7 +7110,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="123" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E123" s="29" t="s">
         <v>70</v>
       </c>
@@ -7122,7 +7137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="124" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E124" s="29" t="s">
         <v>74</v>
       </c>
@@ -7146,7 +7161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="125" spans="1:22" s="26" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+    <row r="125" spans="1:22" s="26" customFormat="1" ht="12" hidden="1" customHeight="1" outlineLevel="1">
       <c r="F125" s="128"/>
       <c r="H125" s="26" t="s">
         <v>107</v>
@@ -7167,7 +7182,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:22" collapsed="1">
       <c r="A126" s="43" t="s">
         <v>22</v>
       </c>
@@ -7221,7 +7236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:22" s="26" customFormat="1" ht="36.75" outlineLevel="1">
+    <row r="127" spans="1:22" s="26" customFormat="1" ht="36.75" hidden="1" outlineLevel="1">
       <c r="F127" s="128"/>
       <c r="H127" s="26" t="s">
         <v>115</v>
@@ -7251,7 +7266,7 @@
       <c r="T127" s="46"/>
       <c r="V127" s="124"/>
     </row>
-    <row r="128" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="128" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A128" s="26" t="s">
         <v>22</v>
       </c>
@@ -7284,7 +7299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="129" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A129" s="26" t="s">
         <v>22</v>
       </c>
@@ -7317,7 +7332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="130" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A130" s="26" t="s">
         <v>22</v>
       </c>
@@ -7356,7 +7371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="131" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A131" s="26" t="s">
         <v>22</v>
       </c>
@@ -7389,7 +7404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="132" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A132" s="26" t="s">
         <v>22</v>
       </c>
@@ -7422,7 +7437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="133" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A133" s="26" t="s">
         <v>22</v>
       </c>
@@ -7455,7 +7470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="134" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A134" s="26" t="s">
         <v>22</v>
       </c>
@@ -7494,7 +7509,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="135" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="135" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A135" s="26" t="s">
         <v>22</v>
       </c>
@@ -7527,7 +7542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="136" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A136" s="26" t="s">
         <v>22</v>
       </c>
@@ -7560,7 +7575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="137" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A137" s="26" t="s">
         <v>22</v>
       </c>
@@ -7593,7 +7608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="138" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A138" s="26" t="s">
         <v>22</v>
       </c>
@@ -7632,7 +7647,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="139" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A139" s="26" t="s">
         <v>22</v>
       </c>
@@ -7665,7 +7680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="140" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A140" s="26" t="s">
         <v>22</v>
       </c>
@@ -7704,7 +7719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="141" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A141" s="26" t="s">
         <v>22</v>
       </c>
@@ -7737,7 +7752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:18" s="26" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1">
+    <row r="142" spans="1:18" s="26" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E142" s="29" t="s">
         <v>58</v>
       </c>
@@ -7758,10 +7773,10 @@
         <v>28</v>
       </c>
       <c r="N142" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E143" s="29" t="s">
         <v>62</v>
       </c>
@@ -7785,7 +7800,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:18" s="26" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="144" spans="1:18" s="26" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E144" s="29" t="s">
         <v>66</v>
       </c>
@@ -7809,7 +7824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="145" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E145" s="29" t="s">
         <v>70</v>
       </c>
@@ -7836,7 +7851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="146" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E146" s="29" t="s">
         <v>74</v>
       </c>
@@ -7860,7 +7875,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="147" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1">
+    <row r="147" spans="1:22" s="26" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="F147" s="128"/>
       <c r="H147" s="26" t="s">
         <v>115</v>
@@ -7881,7 +7896,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" collapsed="1">
       <c r="A148" s="43" t="s">
         <v>22</v>
       </c>
@@ -7934,7 +7949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="149" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A149" s="26" t="s">
         <v>22</v>
       </c>
@@ -7967,7 +7982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="150" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A150" s="26" t="s">
         <v>22</v>
       </c>
@@ -8000,7 +8015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="151" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A151" s="26" t="s">
         <v>22</v>
       </c>
@@ -8033,7 +8048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="152" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A152" s="26" t="s">
         <v>22</v>
       </c>
@@ -8072,7 +8087,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="153" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="153" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A153" s="26" t="s">
         <v>22</v>
       </c>
@@ -8111,7 +8126,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="154" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A154" s="26" t="s">
         <v>22</v>
       </c>
@@ -8150,7 +8165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="155" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A155" s="26" t="s">
         <v>22</v>
       </c>
@@ -8183,7 +8198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="156" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A156" s="26" t="s">
         <v>22</v>
       </c>
@@ -8222,7 +8237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="157" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="157" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A157" s="26" t="s">
         <v>22</v>
       </c>
@@ -8255,7 +8270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:22" s="26" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="158" spans="1:22" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E158" s="29" t="s">
         <v>58</v>
       </c>
@@ -8276,10 +8291,10 @@
         <v>28</v>
       </c>
       <c r="N158" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E159" s="29" t="s">
         <v>62</v>
       </c>
@@ -8303,7 +8318,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="160" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="160" spans="1:22" s="26" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E160" s="29" t="s">
         <v>66</v>
       </c>
@@ -8327,7 +8342,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1">
+    <row r="161" spans="1:22" s="26" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E161" s="29" t="s">
         <v>70</v>
       </c>
@@ -8354,7 +8369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:22" s="26" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1">
+    <row r="162" spans="1:22" s="26" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E162" s="29" t="s">
         <v>74</v>
       </c>
@@ -8378,7 +8393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="163" spans="1:22" s="26" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="163" spans="1:22" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="F163" s="128"/>
       <c r="H163" s="26" t="s">
         <v>123</v>
@@ -8399,7 +8414,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:22">
+    <row r="164" spans="1:22" collapsed="1">
       <c r="A164" s="43" t="s">
         <v>22</v>
       </c>
@@ -8452,7 +8467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="165" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A165" s="26" t="s">
         <v>22</v>
       </c>
@@ -8485,7 +8500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="166" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A166" s="26" t="s">
         <v>22</v>
       </c>
@@ -8518,7 +8533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="167" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A167" s="26" t="s">
         <v>22</v>
       </c>
@@ -8557,7 +8572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="168" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A168" s="26" t="s">
         <v>22</v>
       </c>
@@ -8590,7 +8605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:22" s="26" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
+    <row r="169" spans="1:22" s="26" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E169" s="29" t="s">
         <v>58</v>
       </c>
@@ -8611,10 +8626,10 @@
         <v>28</v>
       </c>
       <c r="N169" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E170" s="29" t="s">
         <v>62</v>
       </c>
@@ -8638,7 +8653,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="171" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="171" spans="1:22" s="26" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E171" s="29" t="s">
         <v>66</v>
       </c>
@@ -8662,7 +8677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="172" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="172" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E172" s="29" t="s">
         <v>70</v>
       </c>
@@ -8689,7 +8704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="173" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E173" s="29" t="s">
         <v>74</v>
       </c>
@@ -8713,7 +8728,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:22" s="26" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
+    <row r="174" spans="1:22" s="26" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="F174" s="128"/>
       <c r="H174" s="26" t="s">
         <v>129</v>
@@ -8734,7 +8749,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:22">
+    <row r="175" spans="1:22" collapsed="1">
       <c r="A175" s="16" t="s">
         <v>22</v>
       </c>
@@ -8787,7 +8802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="176" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A176" s="26" t="s">
         <v>22</v>
       </c>
@@ -8820,7 +8835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="177" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A177" s="26" t="s">
         <v>22</v>
       </c>
@@ -8853,7 +8868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="178" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A178" s="26" t="s">
         <v>22</v>
       </c>
@@ -8886,7 +8901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="179" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A179" s="26" t="s">
         <v>22</v>
       </c>
@@ -8919,7 +8934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="180" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A180" s="26" t="s">
         <v>22</v>
       </c>
@@ -8952,7 +8967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="181" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A181" s="26" t="s">
         <v>22</v>
       </c>
@@ -8985,7 +9000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="182" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A182" s="26" t="s">
         <v>22</v>
       </c>
@@ -9018,7 +9033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="183" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A183" s="26" t="s">
         <v>22</v>
       </c>
@@ -9051,7 +9066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="184" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A184" s="26" t="s">
         <v>22</v>
       </c>
@@ -9086,7 +9101,7 @@
       <c r="N184" s="27"/>
       <c r="R184" s="46"/>
     </row>
-    <row r="185" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="185" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A185" s="26" t="s">
         <v>22</v>
       </c>
@@ -9119,7 +9134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="186" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A186" s="26" t="s">
         <v>22</v>
       </c>
@@ -9152,7 +9167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="187" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A187" s="26" t="s">
         <v>22</v>
       </c>
@@ -9185,7 +9200,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="188" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A188" s="26" t="s">
         <v>22</v>
       </c>
@@ -9218,7 +9233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="189" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A189" s="26" t="s">
         <v>22</v>
       </c>
@@ -9251,7 +9266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="190" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A190" s="26" t="s">
         <v>22</v>
       </c>
@@ -9284,7 +9299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="191" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A191" s="26" t="s">
         <v>22</v>
       </c>
@@ -9317,7 +9332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:18" s="26" customFormat="1" outlineLevel="1">
+    <row r="192" spans="1:18" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A192" s="26" t="s">
         <v>22</v>
       </c>
@@ -9356,7 +9371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="193" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A193" s="26" t="s">
         <v>22</v>
       </c>
@@ -9389,7 +9404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="194" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A194" s="26" t="s">
         <v>22</v>
       </c>
@@ -9428,7 +9443,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="195" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="195" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A195" s="26" t="s">
         <v>22</v>
       </c>
@@ -9461,7 +9476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="196" spans="1:22" s="26" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E196" s="29" t="s">
         <v>58</v>
       </c>
@@ -9482,10 +9497,10 @@
         <v>28</v>
       </c>
       <c r="N196" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="197" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E197" s="29" t="s">
         <v>62</v>
       </c>
@@ -9509,7 +9524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="198" spans="1:22" s="26" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E198" s="29" t="s">
         <v>66</v>
       </c>
@@ -9533,7 +9548,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="199" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="199" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E199" s="29" t="s">
         <v>70</v>
       </c>
@@ -9560,7 +9575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="200" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E200" s="29" t="s">
         <v>74</v>
       </c>
@@ -9584,7 +9599,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:22" s="26" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="201" spans="1:22" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="F201" s="128"/>
       <c r="H201" s="26" t="s">
         <v>134</v>
@@ -9605,7 +9620,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="202" spans="1:22">
+    <row r="202" spans="1:22" collapsed="1">
       <c r="A202" s="16" t="s">
         <v>22</v>
       </c>
@@ -9658,7 +9673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="203" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A203" s="26" t="s">
         <v>22</v>
       </c>
@@ -9691,7 +9706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="204" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A204" s="26" t="s">
         <v>22</v>
       </c>
@@ -9724,7 +9739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="205" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A205" s="26" t="s">
         <v>22</v>
       </c>
@@ -9757,7 +9772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="206" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A206" s="26" t="s">
         <v>22</v>
       </c>
@@ -9790,7 +9805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="207" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A207" s="26" t="s">
         <v>22</v>
       </c>
@@ -9829,7 +9844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="208" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A208" s="26" t="s">
         <v>22</v>
       </c>
@@ -9862,7 +9877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="209" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A209" s="26" t="s">
         <v>22</v>
       </c>
@@ -9901,7 +9916,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="210" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A210" s="26" t="s">
         <v>22</v>
       </c>
@@ -9934,7 +9949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:22" s="26" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
+    <row r="211" spans="1:22" s="26" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E211" s="29" t="s">
         <v>58</v>
       </c>
@@ -9955,10 +9970,10 @@
         <v>28</v>
       </c>
       <c r="N211" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="212" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E212" s="29" t="s">
         <v>62</v>
       </c>
@@ -9982,7 +9997,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="213" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="213" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E213" s="29" t="s">
         <v>66</v>
       </c>
@@ -10006,7 +10021,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="214" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="214" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E214" s="29" t="s">
         <v>70</v>
       </c>
@@ -10033,7 +10048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="215" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E215" s="29" t="s">
         <v>74</v>
       </c>
@@ -10057,7 +10072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:22" s="26" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="216" spans="1:22" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="F216" s="128"/>
       <c r="H216" s="26" t="s">
         <v>152</v>
@@ -10078,7 +10093,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" spans="1:22">
+    <row r="217" spans="1:22" collapsed="1">
       <c r="A217" s="16" t="s">
         <v>22</v>
       </c>
@@ -10132,7 +10147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:22" s="26" customFormat="1" ht="36.75" outlineLevel="1">
+    <row r="218" spans="1:22" s="26" customFormat="1" ht="36.75" hidden="1" outlineLevel="1">
       <c r="F218" s="128"/>
       <c r="H218" s="26" t="s">
         <v>156</v>
@@ -10162,7 +10177,7 @@
       <c r="T218" s="46"/>
       <c r="V218" s="124"/>
     </row>
-    <row r="219" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="219" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A219" s="26" t="s">
         <v>22</v>
       </c>
@@ -10195,7 +10210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="220" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A220" s="26" t="s">
         <v>22</v>
       </c>
@@ -10228,7 +10243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="221" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A221" s="26" t="s">
         <v>22</v>
       </c>
@@ -10267,7 +10282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="222" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A222" s="26" t="s">
         <v>22</v>
       </c>
@@ -10300,7 +10315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="223" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A223" s="26" t="s">
         <v>22</v>
       </c>
@@ -10333,7 +10348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="224" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A224" s="26" t="s">
         <v>22</v>
       </c>
@@ -10366,7 +10381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:17" s="26" customFormat="1" outlineLevel="1">
+    <row r="225" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A225" s="26" t="s">
         <v>22</v>
       </c>
@@ -10405,7 +10420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:17" s="26" customFormat="1" outlineLevel="1">
+    <row r="226" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A226" s="26" t="s">
         <v>22</v>
       </c>
@@ -10444,7 +10459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" spans="1:17" s="26" customFormat="1" outlineLevel="1">
+    <row r="227" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A227" s="26" t="s">
         <v>22</v>
       </c>
@@ -10483,7 +10498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="228" spans="1:17" s="26" customFormat="1" outlineLevel="1">
+    <row r="228" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A228" s="26" t="s">
         <v>22</v>
       </c>
@@ -10516,7 +10531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:17" s="26" customFormat="1" outlineLevel="1">
+    <row r="229" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A229" s="26" t="s">
         <v>22</v>
       </c>
@@ -10549,7 +10564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:17" s="26" customFormat="1" outlineLevel="1">
+    <row r="230" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A230" s="26" t="s">
         <v>22</v>
       </c>
@@ -10582,7 +10597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:17" s="26" customFormat="1" outlineLevel="1">
+    <row r="231" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A231" s="26" t="s">
         <v>22</v>
       </c>
@@ -10621,7 +10636,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="232" spans="1:17" s="26" customFormat="1" outlineLevel="1">
+    <row r="232" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A232" s="26" t="s">
         <v>22</v>
       </c>
@@ -10654,7 +10669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:17" s="26" customFormat="1" outlineLevel="1">
+    <row r="233" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A233" s="26" t="s">
         <v>22</v>
       </c>
@@ -10693,7 +10708,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="234" spans="1:17" s="26" customFormat="1" outlineLevel="1">
+    <row r="234" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A234" s="26" t="s">
         <v>22</v>
       </c>
@@ -10726,7 +10741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:17" s="26" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
+    <row r="235" spans="1:17" s="26" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E235" s="29" t="s">
         <v>58</v>
       </c>
@@ -10747,10 +10762,10 @@
         <v>28</v>
       </c>
       <c r="N235" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="236" spans="1:17" s="26" customFormat="1" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E236" s="29" t="s">
         <v>62</v>
       </c>
@@ -10774,7 +10789,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="237" spans="1:17" s="26" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="237" spans="1:17" s="26" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E237" s="29" t="s">
         <v>66</v>
       </c>
@@ -10798,7 +10813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="238" spans="1:17" s="26" customFormat="1" outlineLevel="1">
+    <row r="238" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E238" s="29" t="s">
         <v>70</v>
       </c>
@@ -10825,7 +10840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:17" s="26" customFormat="1" outlineLevel="1">
+    <row r="239" spans="1:17" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E239" s="29" t="s">
         <v>74</v>
       </c>
@@ -10849,7 +10864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="240" spans="1:17" s="26" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1">
+    <row r="240" spans="1:17" s="26" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="F240" s="128"/>
       <c r="H240" s="26" t="s">
         <v>156</v>
@@ -10870,7 +10885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="241" spans="1:22">
+    <row r="241" spans="1:22" collapsed="1">
       <c r="A241" s="16" t="s">
         <v>22</v>
       </c>
@@ -10923,7 +10938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="242" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A242" s="26" t="s">
         <v>22</v>
       </c>
@@ -10956,7 +10971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="243" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A243" s="26" t="s">
         <v>22</v>
       </c>
@@ -10989,7 +11004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="244" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A244" s="26" t="s">
         <v>22</v>
       </c>
@@ -11022,7 +11037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="245" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A245" s="26" t="s">
         <v>22</v>
       </c>
@@ -11055,7 +11070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="246" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A246" s="26" t="s">
         <v>22</v>
       </c>
@@ -11088,7 +11103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="247" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A247" s="26" t="s">
         <v>22</v>
       </c>
@@ -11127,7 +11142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="248" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="248" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A248" s="26" t="s">
         <v>22</v>
       </c>
@@ -11160,7 +11175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="249" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A249" s="26" t="s">
         <v>22</v>
       </c>
@@ -11199,7 +11214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="250" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="250" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A250" s="26" t="s">
         <v>22</v>
       </c>
@@ -11232,7 +11247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="251" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E251" s="29" t="s">
         <v>58</v>
       </c>
@@ -11253,10 +11268,10 @@
         <v>28</v>
       </c>
       <c r="N251" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="252" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E252" s="29" t="s">
         <v>62</v>
       </c>
@@ -11280,7 +11295,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="253" spans="1:22" s="26" customFormat="1" ht="18" customHeight="1" outlineLevel="1">
+    <row r="253" spans="1:22" s="26" customFormat="1" ht="18" hidden="1" customHeight="1" outlineLevel="1">
       <c r="E253" s="29" t="s">
         <v>66</v>
       </c>
@@ -11304,7 +11319,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="254" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="254" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E254" s="29" t="s">
         <v>70</v>
       </c>
@@ -11331,7 +11346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:22" s="26" customFormat="1" outlineLevel="1">
+    <row r="255" spans="1:22" s="26" customFormat="1" hidden="1" outlineLevel="1">
       <c r="E255" s="29" t="s">
         <v>74</v>
       </c>
@@ -11355,7 +11370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="256" spans="1:22" s="26" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="256" spans="1:22" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="F256" s="129"/>
       <c r="H256" s="26" t="s">
         <v>163</v>
@@ -11376,7 +11391,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="257" spans="1:22">
+    <row r="257" spans="1:22" collapsed="1">
       <c r="A257" s="8" t="s">
         <v>22</v>
       </c>
@@ -11429,7 +11444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:22" outlineLevel="1">
+    <row r="258" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A258" s="26" t="s">
         <v>22</v>
       </c>
@@ -11473,7 +11488,7 @@
       <c r="U258" s="26"/>
       <c r="V258" s="26"/>
     </row>
-    <row r="259" spans="1:22" outlineLevel="1">
+    <row r="259" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A259" s="26" t="s">
         <v>22</v>
       </c>
@@ -11517,7 +11532,7 @@
       <c r="U259" s="26"/>
       <c r="V259" s="26"/>
     </row>
-    <row r="260" spans="1:22" outlineLevel="1">
+    <row r="260" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A260" s="26" t="s">
         <v>22</v>
       </c>
@@ -11563,7 +11578,7 @@
       <c r="U260" s="26"/>
       <c r="V260" s="26"/>
     </row>
-    <row r="261" spans="1:22" outlineLevel="1">
+    <row r="261" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A261" s="26" t="s">
         <v>22</v>
       </c>
@@ -11609,7 +11624,7 @@
       <c r="U261" s="26"/>
       <c r="V261" s="26"/>
     </row>
-    <row r="262" spans="1:22" outlineLevel="1">
+    <row r="262" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A262" s="26" t="s">
         <v>22</v>
       </c>
@@ -11653,7 +11668,7 @@
       <c r="U262" s="26"/>
       <c r="V262" s="26"/>
     </row>
-    <row r="263" spans="1:22" outlineLevel="1">
+    <row r="263" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A263" s="26" t="s">
         <v>22</v>
       </c>
@@ -11699,7 +11714,7 @@
       <c r="U263" s="26"/>
       <c r="V263" s="26"/>
     </row>
-    <row r="264" spans="1:22" outlineLevel="1">
+    <row r="264" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A264" s="26" t="s">
         <v>22</v>
       </c>
@@ -11743,7 +11758,7 @@
       <c r="U264" s="26"/>
       <c r="V264" s="26"/>
     </row>
-    <row r="265" spans="1:22" outlineLevel="1">
+    <row r="265" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A265" s="26" t="s">
         <v>22</v>
       </c>
@@ -11791,7 +11806,7 @@
       <c r="U265" s="26"/>
       <c r="V265" s="26"/>
     </row>
-    <row r="266" spans="1:22" outlineLevel="1">
+    <row r="266" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A266" s="26" t="s">
         <v>22</v>
       </c>
@@ -11837,7 +11852,7 @@
       <c r="U266" s="26"/>
       <c r="V266" s="26"/>
     </row>
-    <row r="267" spans="1:22" outlineLevel="1">
+    <row r="267" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A267" s="26" t="s">
         <v>22</v>
       </c>
@@ -11885,7 +11900,7 @@
       <c r="U267" s="26"/>
       <c r="V267" s="26"/>
     </row>
-    <row r="268" spans="1:22" outlineLevel="1">
+    <row r="268" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A268" s="26" t="s">
         <v>22</v>
       </c>
@@ -11929,7 +11944,7 @@
       <c r="U268" s="26"/>
       <c r="V268" s="26"/>
     </row>
-    <row r="269" spans="1:22" outlineLevel="1">
+    <row r="269" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A269" s="26" t="s">
         <v>22</v>
       </c>
@@ -11977,7 +11992,7 @@
       <c r="U269" s="26"/>
       <c r="V269" s="26"/>
     </row>
-    <row r="270" spans="1:22" outlineLevel="1">
+    <row r="270" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A270" s="26" t="s">
         <v>22</v>
       </c>
@@ -12021,7 +12036,7 @@
       <c r="U270" s="26"/>
       <c r="V270" s="26"/>
     </row>
-    <row r="271" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="271" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A271" s="26"/>
       <c r="B271" s="26"/>
       <c r="C271" s="26"/>
@@ -12048,7 +12063,7 @@
         <v>28</v>
       </c>
       <c r="N271" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O271" s="26"/>
       <c r="P271" s="26"/>
@@ -12059,7 +12074,7 @@
       <c r="U271" s="26"/>
       <c r="V271" s="26"/>
     </row>
-    <row r="272" spans="1:22" outlineLevel="1">
+    <row r="272" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A272" s="26"/>
       <c r="B272" s="26"/>
       <c r="C272" s="26"/>
@@ -12097,7 +12112,7 @@
       <c r="U272" s="26"/>
       <c r="V272" s="26"/>
     </row>
-    <row r="273" spans="1:22" ht="14.25" customHeight="1" outlineLevel="1">
+    <row r="273" spans="1:22" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A273" s="26"/>
       <c r="B273" s="26"/>
       <c r="C273" s="26"/>
@@ -12135,7 +12150,7 @@
       <c r="U273" s="26"/>
       <c r="V273" s="26"/>
     </row>
-    <row r="274" spans="1:22" outlineLevel="1">
+    <row r="274" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A274" s="26"/>
       <c r="B274" s="26"/>
       <c r="C274" s="26"/>
@@ -12175,7 +12190,7 @@
       <c r="U274" s="26"/>
       <c r="V274" s="26"/>
     </row>
-    <row r="275" spans="1:22" outlineLevel="1">
+    <row r="275" spans="1:22" hidden="1" outlineLevel="1">
       <c r="A275" s="26"/>
       <c r="B275" s="26"/>
       <c r="C275" s="26"/>
@@ -12213,7 +12228,7 @@
       <c r="U275" s="26"/>
       <c r="V275" s="26"/>
     </row>
-    <row r="276" spans="1:22" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="276" spans="1:22" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A276" s="26"/>
       <c r="B276" s="26"/>
       <c r="C276" s="26"/>
@@ -12248,7 +12263,7 @@
       <c r="U276" s="26"/>
       <c r="V276" s="26"/>
     </row>
-    <row r="277" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="277" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1" collapsed="1">
       <c r="A277" s="8" t="s">
         <v>22</v>
       </c>
@@ -12298,7 +12313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="278" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A278" s="52" t="s">
         <v>22</v>
       </c>
@@ -12346,7 +12361,7 @@
       <c r="U278" s="54"/>
       <c r="V278" s="46"/>
     </row>
-    <row r="279" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="279" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A279" s="52" t="s">
         <v>22</v>
       </c>
@@ -12394,7 +12409,7 @@
       <c r="U279" s="54"/>
       <c r="V279" s="46"/>
     </row>
-    <row r="280" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="280" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A280" s="52" t="s">
         <v>22</v>
       </c>
@@ -12444,7 +12459,7 @@
       <c r="U280" s="54"/>
       <c r="V280" s="46"/>
     </row>
-    <row r="281" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="281" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A281" s="52" t="s">
         <v>22</v>
       </c>
@@ -12492,7 +12507,7 @@
       <c r="U281" s="54"/>
       <c r="V281" s="46"/>
     </row>
-    <row r="282" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="282" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A282" s="52" t="s">
         <v>22</v>
       </c>
@@ -12542,7 +12557,7 @@
       <c r="U282" s="54"/>
       <c r="V282" s="46"/>
     </row>
-    <row r="283" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="283" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A283" s="52" t="s">
         <v>22</v>
       </c>
@@ -12590,7 +12605,7 @@
       <c r="U283" s="54"/>
       <c r="V283" s="46"/>
     </row>
-    <row r="284" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="284" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A284" s="56"/>
       <c r="B284" s="136"/>
       <c r="C284" s="29"/>
@@ -12617,7 +12632,7 @@
         <v>28</v>
       </c>
       <c r="N284" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O284" s="37"/>
       <c r="P284" s="41"/>
@@ -12628,7 +12643,7 @@
       <c r="U284" s="54"/>
       <c r="V284" s="46"/>
     </row>
-    <row r="285" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="285" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A285" s="56"/>
       <c r="B285" s="136"/>
       <c r="C285" s="29"/>
@@ -12666,7 +12681,7 @@
       <c r="U285" s="54"/>
       <c r="V285" s="46"/>
     </row>
-    <row r="286" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="286" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A286" s="56"/>
       <c r="B286" s="136"/>
       <c r="C286" s="29"/>
@@ -12704,7 +12719,7 @@
       <c r="U286" s="54"/>
       <c r="V286" s="46"/>
     </row>
-    <row r="287" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="287" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A287" s="56"/>
       <c r="B287" s="136"/>
       <c r="C287" s="29"/>
@@ -12744,7 +12759,7 @@
       <c r="U287" s="54"/>
       <c r="V287" s="46"/>
     </row>
-    <row r="288" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="288" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A288" s="56"/>
       <c r="B288" s="136"/>
       <c r="C288" s="29"/>
@@ -12782,7 +12797,7 @@
       <c r="U288" s="54"/>
       <c r="V288" s="46"/>
     </row>
-    <row r="289" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="289" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A289" s="56"/>
       <c r="B289" s="136"/>
       <c r="C289" s="29"/>
@@ -12816,7 +12831,7 @@
       <c r="U289" s="26"/>
       <c r="V289" s="26"/>
     </row>
-    <row r="290" spans="1:22" ht="15" customHeight="1">
+    <row r="290" spans="1:22" ht="15" customHeight="1" collapsed="1">
       <c r="A290" s="8" t="s">
         <v>22</v>
       </c>
@@ -12866,7 +12881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="291" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A291" s="52" t="s">
         <v>22</v>
       </c>
@@ -12914,7 +12929,7 @@
       <c r="U291" s="54"/>
       <c r="V291" s="46"/>
     </row>
-    <row r="292" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="292" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A292" s="52" t="s">
         <v>22</v>
       </c>
@@ -12962,7 +12977,7 @@
       <c r="U292" s="54"/>
       <c r="V292" s="46"/>
     </row>
-    <row r="293" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="293" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A293" s="52" t="s">
         <v>22</v>
       </c>
@@ -13010,7 +13025,7 @@
       <c r="U293" s="54"/>
       <c r="V293" s="46"/>
     </row>
-    <row r="294" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="294" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A294" s="52" t="s">
         <v>22</v>
       </c>
@@ -13060,7 +13075,7 @@
       <c r="U294" s="54"/>
       <c r="V294" s="46"/>
     </row>
-    <row r="295" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="295" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A295" s="52" t="s">
         <v>22</v>
       </c>
@@ -13110,7 +13125,7 @@
       <c r="U295" s="54"/>
       <c r="V295" s="46"/>
     </row>
-    <row r="296" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="296" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A296" s="52" t="s">
         <v>22</v>
       </c>
@@ -13158,7 +13173,7 @@
       <c r="U296" s="54"/>
       <c r="V296" s="46"/>
     </row>
-    <row r="297" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="297" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A297" s="52" t="s">
         <v>22</v>
       </c>
@@ -13206,7 +13221,7 @@
       <c r="U297" s="54"/>
       <c r="V297" s="46"/>
     </row>
-    <row r="298" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="298" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A298" s="52" t="s">
         <v>22</v>
       </c>
@@ -13256,7 +13271,7 @@
       <c r="U298" s="54"/>
       <c r="V298" s="46"/>
     </row>
-    <row r="299" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="299" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A299" s="52" t="s">
         <v>22</v>
       </c>
@@ -13304,7 +13319,7 @@
       <c r="U299" s="54"/>
       <c r="V299" s="46"/>
     </row>
-    <row r="300" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="300" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A300" s="56"/>
       <c r="B300" s="136"/>
       <c r="C300" s="29"/>
@@ -13331,7 +13346,7 @@
         <v>28</v>
       </c>
       <c r="N300" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O300" s="37"/>
       <c r="P300" s="41"/>
@@ -13342,7 +13357,7 @@
       <c r="U300" s="54"/>
       <c r="V300" s="46"/>
     </row>
-    <row r="301" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="301" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A301" s="56"/>
       <c r="B301" s="136"/>
       <c r="C301" s="29"/>
@@ -13380,7 +13395,7 @@
       <c r="U301" s="54"/>
       <c r="V301" s="46"/>
     </row>
-    <row r="302" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="302" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A302" s="56"/>
       <c r="B302" s="136"/>
       <c r="C302" s="29"/>
@@ -13418,7 +13433,7 @@
       <c r="U302" s="54"/>
       <c r="V302" s="46"/>
     </row>
-    <row r="303" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="303" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A303" s="56"/>
       <c r="B303" s="136"/>
       <c r="C303" s="29"/>
@@ -13458,7 +13473,7 @@
       <c r="U303" s="54"/>
       <c r="V303" s="46"/>
     </row>
-    <row r="304" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="304" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A304" s="56"/>
       <c r="B304" s="136"/>
       <c r="C304" s="29"/>
@@ -13496,7 +13511,7 @@
       <c r="U304" s="54"/>
       <c r="V304" s="46"/>
     </row>
-    <row r="305" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="305" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A305" s="56"/>
       <c r="B305" s="136"/>
       <c r="C305" s="29"/>
@@ -13524,7 +13539,7 @@
       <c r="O305" s="26"/>
       <c r="R305"/>
     </row>
-    <row r="306" spans="1:22" ht="15" customHeight="1">
+    <row r="306" spans="1:22" ht="15" customHeight="1" collapsed="1">
       <c r="A306" s="8" t="s">
         <v>22</v>
       </c>
@@ -13574,7 +13589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="307" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="307" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A307" s="52" t="s">
         <v>22</v>
       </c>
@@ -13622,7 +13637,7 @@
       <c r="U307" s="26"/>
       <c r="V307" s="46"/>
     </row>
-    <row r="308" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="308" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A308" s="52" t="s">
         <v>22</v>
       </c>
@@ -13670,7 +13685,7 @@
       <c r="U308" s="26"/>
       <c r="V308" s="46"/>
     </row>
-    <row r="309" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="309" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A309" s="52" t="s">
         <v>22</v>
       </c>
@@ -13718,7 +13733,7 @@
       <c r="U309" s="26"/>
       <c r="V309" s="46"/>
     </row>
-    <row r="310" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="310" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A310" s="52" t="s">
         <v>22</v>
       </c>
@@ -13766,7 +13781,7 @@
       <c r="U310" s="26"/>
       <c r="V310" s="46"/>
     </row>
-    <row r="311" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="311" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A311" s="52" t="s">
         <v>22</v>
       </c>
@@ -13814,7 +13829,7 @@
       <c r="U311" s="26"/>
       <c r="V311" s="46"/>
     </row>
-    <row r="312" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="312" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A312" s="52" t="s">
         <v>22</v>
       </c>
@@ -13862,7 +13877,7 @@
       <c r="U312" s="26"/>
       <c r="V312" s="46"/>
     </row>
-    <row r="313" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="313" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A313" s="52" t="s">
         <v>22</v>
       </c>
@@ -13910,7 +13925,7 @@
       <c r="U313" s="26"/>
       <c r="V313" s="46"/>
     </row>
-    <row r="314" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="314" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A314" s="52" t="s">
         <v>22</v>
       </c>
@@ -13958,7 +13973,7 @@
       <c r="U314" s="26"/>
       <c r="V314" s="46"/>
     </row>
-    <row r="315" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="315" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A315" s="52" t="s">
         <v>22</v>
       </c>
@@ -14006,7 +14021,7 @@
       <c r="U315" s="26"/>
       <c r="V315" s="46"/>
     </row>
-    <row r="316" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="316" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A316" s="52" t="s">
         <v>22</v>
       </c>
@@ -14054,7 +14069,7 @@
       <c r="U316" s="26"/>
       <c r="V316" s="46"/>
     </row>
-    <row r="317" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="317" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A317" s="52" t="s">
         <v>22</v>
       </c>
@@ -14104,7 +14119,7 @@
       <c r="U317" s="26"/>
       <c r="V317" s="46"/>
     </row>
-    <row r="318" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="318" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A318" s="52" t="s">
         <v>22</v>
       </c>
@@ -14152,7 +14167,7 @@
       <c r="U318" s="26"/>
       <c r="V318" s="46"/>
     </row>
-    <row r="319" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="319" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A319" s="52" t="s">
         <v>22</v>
       </c>
@@ -14202,7 +14217,7 @@
       <c r="U319" s="26"/>
       <c r="V319" s="46"/>
     </row>
-    <row r="320" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="320" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A320" s="52" t="s">
         <v>22</v>
       </c>
@@ -14250,7 +14265,7 @@
       <c r="U320" s="26"/>
       <c r="V320" s="46"/>
     </row>
-    <row r="321" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="321" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A321" s="52" t="s">
         <v>22</v>
       </c>
@@ -14298,7 +14313,7 @@
       <c r="U321" s="26"/>
       <c r="V321" s="46"/>
     </row>
-    <row r="322" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="322" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A322" s="52" t="s">
         <v>22</v>
       </c>
@@ -14346,7 +14361,7 @@
       <c r="U322" s="26"/>
       <c r="V322" s="46"/>
     </row>
-    <row r="323" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="323" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A323" s="56"/>
       <c r="B323" s="136"/>
       <c r="C323" s="29"/>
@@ -14373,7 +14388,7 @@
         <v>28</v>
       </c>
       <c r="N323" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O323" s="29"/>
       <c r="P323" s="41"/>
@@ -14384,7 +14399,7 @@
       <c r="U323" s="26"/>
       <c r="V323" s="46"/>
     </row>
-    <row r="324" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="324" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A324" s="56"/>
       <c r="B324" s="136"/>
       <c r="C324" s="29"/>
@@ -14422,7 +14437,7 @@
       <c r="U324" s="26"/>
       <c r="V324" s="46"/>
     </row>
-    <row r="325" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="325" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A325" s="56"/>
       <c r="B325" s="136"/>
       <c r="C325" s="29"/>
@@ -14460,7 +14475,7 @@
       <c r="U325" s="26"/>
       <c r="V325" s="46"/>
     </row>
-    <row r="326" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="326" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A326" s="56"/>
       <c r="B326" s="136"/>
       <c r="C326" s="29"/>
@@ -14500,7 +14515,7 @@
       <c r="U326" s="26"/>
       <c r="V326" s="46"/>
     </row>
-    <row r="327" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="327" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A327" s="56"/>
       <c r="B327" s="136"/>
       <c r="C327" s="29"/>
@@ -14538,7 +14553,7 @@
       <c r="U327" s="26"/>
       <c r="V327" s="46"/>
     </row>
-    <row r="328" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="328" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A328" s="56"/>
       <c r="B328" s="136"/>
       <c r="C328" s="29"/>
@@ -14570,7 +14585,7 @@
       <c r="U328" s="26"/>
       <c r="V328" s="46"/>
     </row>
-    <row r="329" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="329" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1" collapsed="1">
       <c r="A329" s="8" t="s">
         <v>22</v>
       </c>
@@ -14620,7 +14635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="330" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="330" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A330" s="52" t="s">
         <v>22</v>
       </c>
@@ -14670,7 +14685,7 @@
       <c r="U330" s="54"/>
       <c r="V330" s="46"/>
     </row>
-    <row r="331" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="331" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A331" s="52" t="s">
         <v>22</v>
       </c>
@@ -14720,7 +14735,7 @@
       <c r="U331" s="54"/>
       <c r="V331" s="46"/>
     </row>
-    <row r="332" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="332" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A332" s="52" t="s">
         <v>22</v>
       </c>
@@ -14770,7 +14785,7 @@
       <c r="U332" s="54"/>
       <c r="V332" s="46"/>
     </row>
-    <row r="333" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="333" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A333" s="52" t="s">
         <v>22</v>
       </c>
@@ -14822,7 +14837,7 @@
       <c r="U333" s="54"/>
       <c r="V333" s="46"/>
     </row>
-    <row r="334" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="334" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A334" s="52" t="s">
         <v>22</v>
       </c>
@@ -14872,7 +14887,7 @@
       <c r="U334" s="54"/>
       <c r="V334" s="46"/>
     </row>
-    <row r="335" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="335" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A335" s="52" t="s">
         <v>22</v>
       </c>
@@ -14924,7 +14939,7 @@
       <c r="U335" s="54"/>
       <c r="V335" s="46"/>
     </row>
-    <row r="336" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="336" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A336" s="52" t="s">
         <v>22</v>
       </c>
@@ -14974,7 +14989,7 @@
       <c r="U336" s="54"/>
       <c r="V336" s="46"/>
     </row>
-    <row r="337" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="337" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A337" s="52"/>
       <c r="B337" s="135"/>
       <c r="C337" s="54"/>
@@ -15001,7 +15016,7 @@
         <v>28</v>
       </c>
       <c r="N337" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O337" s="37"/>
       <c r="P337" s="41"/>
@@ -15012,7 +15027,7 @@
       <c r="U337" s="54"/>
       <c r="V337" s="46"/>
     </row>
-    <row r="338" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="338" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A338" s="56"/>
       <c r="B338" s="136"/>
       <c r="C338" s="29"/>
@@ -15050,7 +15065,7 @@
       <c r="U338" s="54"/>
       <c r="V338" s="46"/>
     </row>
-    <row r="339" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="339" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A339" s="56"/>
       <c r="B339" s="136"/>
       <c r="C339" s="29"/>
@@ -15088,7 +15103,7 @@
       <c r="U339" s="54"/>
       <c r="V339" s="46"/>
     </row>
-    <row r="340" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="340" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A340" s="56"/>
       <c r="B340" s="136"/>
       <c r="C340" s="29"/>
@@ -15128,7 +15143,7 @@
       <c r="U340" s="54"/>
       <c r="V340" s="46"/>
     </row>
-    <row r="341" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="341" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A341" s="56"/>
       <c r="B341" s="136"/>
       <c r="C341" s="29"/>
@@ -15166,7 +15181,7 @@
       <c r="U341" s="54"/>
       <c r="V341" s="46"/>
     </row>
-    <row r="342" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="342" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A342" s="56"/>
       <c r="B342" s="136"/>
       <c r="C342" s="29"/>
@@ -15198,7 +15213,7 @@
       <c r="U342" s="54"/>
       <c r="V342" s="46"/>
     </row>
-    <row r="343" spans="1:22" ht="15" customHeight="1">
+    <row r="343" spans="1:22" ht="15" customHeight="1" collapsed="1">
       <c r="A343" s="8" t="s">
         <v>22</v>
       </c>
@@ -15248,7 +15263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="344" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A344" s="52" t="s">
         <v>22</v>
       </c>
@@ -15298,7 +15313,7 @@
       <c r="U344" s="54"/>
       <c r="V344" s="46"/>
     </row>
-    <row r="345" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="345" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A345" s="52" t="s">
         <v>22</v>
       </c>
@@ -15348,7 +15363,7 @@
       <c r="U345" s="54"/>
       <c r="V345" s="46"/>
     </row>
-    <row r="346" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="346" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A346" s="52" t="s">
         <v>22</v>
       </c>
@@ -15398,7 +15413,7 @@
       <c r="U346" s="54"/>
       <c r="V346" s="46"/>
     </row>
-    <row r="347" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="347" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A347" s="52" t="s">
         <v>22</v>
       </c>
@@ -15448,7 +15463,7 @@
       <c r="U347" s="54"/>
       <c r="V347" s="46"/>
     </row>
-    <row r="348" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="348" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A348" s="52" t="s">
         <v>22</v>
       </c>
@@ -15498,7 +15513,7 @@
       <c r="U348" s="54"/>
       <c r="V348" s="46"/>
     </row>
-    <row r="349" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="349" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A349" s="52" t="s">
         <v>22</v>
       </c>
@@ -15550,7 +15565,7 @@
       <c r="U349" s="54"/>
       <c r="V349" s="46"/>
     </row>
-    <row r="350" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="350" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A350" s="52" t="s">
         <v>22</v>
       </c>
@@ -15600,7 +15615,7 @@
       <c r="U350" s="54"/>
       <c r="V350" s="46"/>
     </row>
-    <row r="351" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="351" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A351" s="52" t="s">
         <v>22</v>
       </c>
@@ -15652,7 +15667,7 @@
       <c r="U351" s="54"/>
       <c r="V351" s="46"/>
     </row>
-    <row r="352" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="352" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A352" s="52" t="s">
         <v>22</v>
       </c>
@@ -15702,7 +15717,7 @@
       <c r="U352" s="54"/>
       <c r="V352" s="46"/>
     </row>
-    <row r="353" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="353" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A353" s="52" t="s">
         <v>22</v>
       </c>
@@ -15752,7 +15767,7 @@
       <c r="U353" s="54"/>
       <c r="V353" s="46"/>
     </row>
-    <row r="354" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="354" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A354" s="56"/>
       <c r="B354" s="136"/>
       <c r="C354" s="29"/>
@@ -15779,7 +15794,7 @@
         <v>28</v>
       </c>
       <c r="N354" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O354" s="37"/>
       <c r="P354" s="41"/>
@@ -15790,7 +15805,7 @@
       <c r="U354" s="54"/>
       <c r="V354" s="46"/>
     </row>
-    <row r="355" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="355" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A355" s="56"/>
       <c r="B355" s="136"/>
       <c r="C355" s="29"/>
@@ -15828,7 +15843,7 @@
       <c r="U355" s="54"/>
       <c r="V355" s="46"/>
     </row>
-    <row r="356" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="356" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A356" s="56"/>
       <c r="B356" s="136"/>
       <c r="C356" s="29"/>
@@ -15866,7 +15881,7 @@
       <c r="U356" s="54"/>
       <c r="V356" s="46"/>
     </row>
-    <row r="357" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="357" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A357" s="56"/>
       <c r="B357" s="136"/>
       <c r="C357" s="29"/>
@@ -15906,7 +15921,7 @@
       <c r="U357" s="54"/>
       <c r="V357" s="46"/>
     </row>
-    <row r="358" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="358" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A358" s="56"/>
       <c r="B358" s="136"/>
       <c r="C358" s="29"/>
@@ -15944,7 +15959,7 @@
       <c r="U358" s="54"/>
       <c r="V358" s="46"/>
     </row>
-    <row r="359" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="359" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A359" s="56"/>
       <c r="B359" s="136"/>
       <c r="C359" s="29"/>
@@ -15974,7 +15989,7 @@
       <c r="U359" s="26"/>
       <c r="V359" s="46"/>
     </row>
-    <row r="360" spans="1:22" ht="15" customHeight="1">
+    <row r="360" spans="1:22" ht="15" customHeight="1" collapsed="1">
       <c r="A360" s="8" t="s">
         <v>22</v>
       </c>
@@ -16026,7 +16041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="361" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="361" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A361" s="46"/>
       <c r="B361" s="136"/>
       <c r="C361" s="26"/>
@@ -16066,7 +16081,7 @@
       <c r="U361" s="26"/>
       <c r="V361" s="26"/>
     </row>
-    <row r="362" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="362" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A362" s="52" t="s">
         <v>22</v>
       </c>
@@ -16118,7 +16133,7 @@
       <c r="U362" s="26"/>
       <c r="V362" s="46"/>
     </row>
-    <row r="363" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="363" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A363" s="52" t="s">
         <v>22</v>
       </c>
@@ -16168,7 +16183,7 @@
       <c r="U363" s="26"/>
       <c r="V363" s="46"/>
     </row>
-    <row r="364" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="364" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A364" s="52" t="s">
         <v>22</v>
       </c>
@@ -16222,7 +16237,7 @@
       <c r="U364" s="26"/>
       <c r="V364" s="46"/>
     </row>
-    <row r="365" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="365" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A365" s="52" t="s">
         <v>22</v>
       </c>
@@ -16271,7 +16286,7 @@
       <c r="U365" s="26"/>
       <c r="V365" s="46"/>
     </row>
-    <row r="366" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="366" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A366" s="52" t="s">
         <v>22</v>
       </c>
@@ -16321,7 +16336,7 @@
       <c r="U366" s="26"/>
       <c r="V366" s="46"/>
     </row>
-    <row r="367" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="367" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A367" s="52" t="s">
         <v>22</v>
       </c>
@@ -16373,7 +16388,7 @@
       <c r="U367" s="26"/>
       <c r="V367" s="46"/>
     </row>
-    <row r="368" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="368" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A368" s="52" t="s">
         <v>22</v>
       </c>
@@ -16425,7 +16440,7 @@
       <c r="U368" s="26"/>
       <c r="V368" s="46"/>
     </row>
-    <row r="369" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="369" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A369" s="52" t="s">
         <v>22</v>
       </c>
@@ -16477,7 +16492,7 @@
       <c r="U369" s="26"/>
       <c r="V369" s="46"/>
     </row>
-    <row r="370" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="370" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A370" s="52" t="s">
         <v>22</v>
       </c>
@@ -16527,7 +16542,7 @@
       <c r="U370" s="26"/>
       <c r="V370" s="46"/>
     </row>
-    <row r="371" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="371" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A371" s="52" t="s">
         <v>22</v>
       </c>
@@ -16579,7 +16594,7 @@
       <c r="U371" s="26"/>
       <c r="V371" s="46"/>
     </row>
-    <row r="372" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="372" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A372" s="52" t="s">
         <v>22</v>
       </c>
@@ -16629,7 +16644,7 @@
       <c r="U372" s="26"/>
       <c r="V372" s="46"/>
     </row>
-    <row r="373" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="373" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A373" s="52"/>
       <c r="B373" s="135"/>
       <c r="C373" s="26"/>
@@ -16656,7 +16671,7 @@
         <v>28</v>
       </c>
       <c r="N373" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O373" s="29"/>
       <c r="P373" s="41"/>
@@ -16667,7 +16682,7 @@
       <c r="U373" s="26"/>
       <c r="V373" s="46"/>
     </row>
-    <row r="374" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="374" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A374" s="56"/>
       <c r="B374" s="136"/>
       <c r="C374" s="29"/>
@@ -16705,7 +16720,7 @@
       <c r="U374" s="26"/>
       <c r="V374" s="46"/>
     </row>
-    <row r="375" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="375" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A375" s="56"/>
       <c r="B375" s="136"/>
       <c r="C375" s="29"/>
@@ -16743,7 +16758,7 @@
       <c r="U375" s="26"/>
       <c r="V375" s="46"/>
     </row>
-    <row r="376" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="376" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A376" s="56"/>
       <c r="B376" s="136"/>
       <c r="C376" s="29"/>
@@ -16783,7 +16798,7 @@
       <c r="U376" s="26"/>
       <c r="V376" s="46"/>
     </row>
-    <row r="377" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="377" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A377" s="56"/>
       <c r="B377" s="136"/>
       <c r="C377" s="29"/>
@@ -16821,7 +16836,7 @@
       <c r="U377" s="26"/>
       <c r="V377" s="46"/>
     </row>
-    <row r="378" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="378" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A378" s="56"/>
       <c r="B378" s="136"/>
       <c r="C378" s="29"/>
@@ -16851,7 +16866,7 @@
       <c r="U378" s="26"/>
       <c r="V378" s="46"/>
     </row>
-    <row r="379" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="379" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1" collapsed="1">
       <c r="A379" s="8" t="s">
         <v>22</v>
       </c>
@@ -16903,7 +16918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="380" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="380" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A380" s="46"/>
       <c r="B380" s="136"/>
       <c r="C380" s="26"/>
@@ -16943,7 +16958,7 @@
       <c r="U380" s="26"/>
       <c r="V380" s="26"/>
     </row>
-    <row r="381" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="381" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A381" s="52" t="s">
         <v>22</v>
       </c>
@@ -16995,7 +17010,7 @@
       <c r="U381" s="54"/>
       <c r="V381" s="46"/>
     </row>
-    <row r="382" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="382" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A382" s="52" t="s">
         <v>22</v>
       </c>
@@ -17045,7 +17060,7 @@
       <c r="U382" s="54"/>
       <c r="V382" s="46"/>
     </row>
-    <row r="383" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="383" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A383" s="52" t="s">
         <v>22</v>
       </c>
@@ -17099,7 +17114,7 @@
       <c r="U383" s="54"/>
       <c r="V383" s="46"/>
     </row>
-    <row r="384" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="384" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A384" s="52" t="s">
         <v>22</v>
       </c>
@@ -17149,7 +17164,7 @@
       <c r="U384" s="54"/>
       <c r="V384" s="46"/>
     </row>
-    <row r="385" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="385" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A385" s="52" t="s">
         <v>22</v>
       </c>
@@ -17203,7 +17218,7 @@
       <c r="U385" s="54"/>
       <c r="V385" s="46"/>
     </row>
-    <row r="386" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="386" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A386" s="52" t="s">
         <v>22</v>
       </c>
@@ -17255,7 +17270,7 @@
       <c r="U386" s="54"/>
       <c r="V386" s="46"/>
     </row>
-    <row r="387" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="387" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A387" s="52" t="s">
         <v>22</v>
       </c>
@@ -17307,7 +17322,7 @@
       <c r="U387" s="54"/>
       <c r="V387" s="46"/>
     </row>
-    <row r="388" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="388" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A388" s="52" t="s">
         <v>22</v>
       </c>
@@ -17359,7 +17374,7 @@
       <c r="U388" s="54"/>
       <c r="V388" s="46"/>
     </row>
-    <row r="389" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="389" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A389" s="52" t="s">
         <v>22</v>
       </c>
@@ -17409,7 +17424,7 @@
       <c r="U389" s="54"/>
       <c r="V389" s="46"/>
     </row>
-    <row r="390" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="390" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A390" s="52" t="s">
         <v>22</v>
       </c>
@@ -17461,7 +17476,7 @@
       <c r="U390" s="54"/>
       <c r="V390" s="46"/>
     </row>
-    <row r="391" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="391" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A391" s="52" t="s">
         <v>22</v>
       </c>
@@ -17511,7 +17526,7 @@
       <c r="U391" s="54"/>
       <c r="V391" s="46"/>
     </row>
-    <row r="392" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="392" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A392" s="52" t="s">
         <v>22</v>
       </c>
@@ -17561,7 +17576,7 @@
       <c r="U392" s="54"/>
       <c r="V392" s="46"/>
     </row>
-    <row r="393" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="393" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A393" s="52" t="s">
         <v>22</v>
       </c>
@@ -17611,7 +17626,7 @@
       <c r="U393" s="54"/>
       <c r="V393" s="46"/>
     </row>
-    <row r="394" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="394" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A394" s="52"/>
       <c r="B394" s="135"/>
       <c r="C394" s="54"/>
@@ -17638,7 +17653,7 @@
         <v>28</v>
       </c>
       <c r="N394" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O394" s="37"/>
       <c r="P394" s="41"/>
@@ -17649,7 +17664,7 @@
       <c r="U394" s="54"/>
       <c r="V394" s="46"/>
     </row>
-    <row r="395" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="395" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A395" s="56"/>
       <c r="B395" s="136"/>
       <c r="C395" s="29"/>
@@ -17687,7 +17702,7 @@
       <c r="U395" s="54"/>
       <c r="V395" s="46"/>
     </row>
-    <row r="396" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="396" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A396" s="56"/>
       <c r="B396" s="136"/>
       <c r="C396" s="29"/>
@@ -17725,7 +17740,7 @@
       <c r="U396" s="54"/>
       <c r="V396" s="46"/>
     </row>
-    <row r="397" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="397" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A397" s="56"/>
       <c r="B397" s="136"/>
       <c r="C397" s="29"/>
@@ -17765,7 +17780,7 @@
       <c r="U397" s="54"/>
       <c r="V397" s="46"/>
     </row>
-    <row r="398" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="398" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A398" s="56"/>
       <c r="B398" s="136"/>
       <c r="C398" s="29"/>
@@ -17803,7 +17818,7 @@
       <c r="U398" s="54"/>
       <c r="V398" s="46"/>
     </row>
-    <row r="399" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="399" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A399" s="56"/>
       <c r="B399" s="136"/>
       <c r="C399" s="29"/>
@@ -17839,7 +17854,7 @@
       <c r="U399" s="54"/>
       <c r="V399" s="46"/>
     </row>
-    <row r="400" spans="1:22" ht="15" customHeight="1">
+    <row r="400" spans="1:22" ht="15" customHeight="1" collapsed="1">
       <c r="A400" s="8" t="s">
         <v>22</v>
       </c>
@@ -17891,7 +17906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="401" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="401" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A401" s="46"/>
       <c r="B401" s="136"/>
       <c r="C401" s="26"/>
@@ -17931,7 +17946,7 @@
       <c r="U401" s="26"/>
       <c r="V401" s="26"/>
     </row>
-    <row r="402" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="402" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A402" s="52" t="s">
         <v>22</v>
       </c>
@@ -17983,7 +17998,7 @@
       <c r="U402" s="54"/>
       <c r="V402" s="46"/>
     </row>
-    <row r="403" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="403" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A403" s="52" t="s">
         <v>22</v>
       </c>
@@ -18033,7 +18048,7 @@
       <c r="U403" s="54"/>
       <c r="V403" s="46"/>
     </row>
-    <row r="404" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="404" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A404" s="52" t="s">
         <v>22</v>
       </c>
@@ -18087,7 +18102,7 @@
       <c r="U404" s="54"/>
       <c r="V404" s="46"/>
     </row>
-    <row r="405" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="405" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A405" s="52" t="s">
         <v>22</v>
       </c>
@@ -18137,7 +18152,7 @@
       <c r="U405" s="54"/>
       <c r="V405" s="46"/>
     </row>
-    <row r="406" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="406" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A406" s="52" t="s">
         <v>22</v>
       </c>
@@ -18187,7 +18202,7 @@
       <c r="U406" s="54"/>
       <c r="V406" s="46"/>
     </row>
-    <row r="407" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="407" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A407" s="52" t="s">
         <v>22</v>
       </c>
@@ -18237,7 +18252,7 @@
       <c r="U407" s="54"/>
       <c r="V407" s="46"/>
     </row>
-    <row r="408" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="408" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A408" s="52" t="s">
         <v>22</v>
       </c>
@@ -18289,7 +18304,7 @@
       <c r="U408" s="54"/>
       <c r="V408" s="46"/>
     </row>
-    <row r="409" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="409" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A409" s="52" t="s">
         <v>22</v>
       </c>
@@ -18341,7 +18356,7 @@
       <c r="U409" s="54"/>
       <c r="V409" s="46"/>
     </row>
-    <row r="410" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="410" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A410" s="52" t="s">
         <v>22</v>
       </c>
@@ -18393,7 +18408,7 @@
       <c r="U410" s="54"/>
       <c r="V410" s="46"/>
     </row>
-    <row r="411" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="411" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A411" s="52" t="s">
         <v>22</v>
       </c>
@@ -18443,7 +18458,7 @@
       <c r="U411" s="54"/>
       <c r="V411" s="46"/>
     </row>
-    <row r="412" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="412" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A412" s="52" t="s">
         <v>22</v>
       </c>
@@ -18495,7 +18510,7 @@
       <c r="U412" s="54"/>
       <c r="V412" s="46"/>
     </row>
-    <row r="413" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="413" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A413" s="52" t="s">
         <v>22</v>
       </c>
@@ -18545,7 +18560,7 @@
       <c r="U413" s="54"/>
       <c r="V413" s="46"/>
     </row>
-    <row r="414" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="414" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A414" s="52"/>
       <c r="B414" s="135"/>
       <c r="C414" s="54"/>
@@ -18572,7 +18587,7 @@
         <v>28</v>
       </c>
       <c r="N414" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O414" s="37"/>
       <c r="P414" s="41"/>
@@ -18583,7 +18598,7 @@
       <c r="U414" s="54"/>
       <c r="V414" s="46"/>
     </row>
-    <row r="415" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="415" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A415" s="56"/>
       <c r="B415" s="136"/>
       <c r="C415" s="29"/>
@@ -18621,7 +18636,7 @@
       <c r="U415" s="54"/>
       <c r="V415" s="46"/>
     </row>
-    <row r="416" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="416" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A416" s="56"/>
       <c r="B416" s="136"/>
       <c r="C416" s="29"/>
@@ -18659,7 +18674,7 @@
       <c r="U416" s="54"/>
       <c r="V416" s="46"/>
     </row>
-    <row r="417" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="417" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A417" s="56"/>
       <c r="B417" s="136"/>
       <c r="C417" s="29"/>
@@ -18699,7 +18714,7 @@
       <c r="U417" s="54"/>
       <c r="V417" s="46"/>
     </row>
-    <row r="418" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="418" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A418" s="56"/>
       <c r="B418" s="136"/>
       <c r="C418" s="29"/>
@@ -18737,7 +18752,7 @@
       <c r="U418" s="54"/>
       <c r="V418" s="46"/>
     </row>
-    <row r="419" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="419" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A419" s="56"/>
       <c r="B419" s="136"/>
       <c r="C419" s="29"/>
@@ -18773,7 +18788,7 @@
       <c r="U419" s="26"/>
       <c r="V419" s="46"/>
     </row>
-    <row r="420" spans="1:22" ht="15" customHeight="1">
+    <row r="420" spans="1:22" ht="15" customHeight="1" collapsed="1">
       <c r="A420" s="8" t="s">
         <v>22</v>
       </c>
@@ -18823,7 +18838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="421" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="421" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A421" s="52" t="s">
         <v>22</v>
       </c>
@@ -18873,7 +18888,7 @@
       <c r="U421" s="26"/>
       <c r="V421" s="46"/>
     </row>
-    <row r="422" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="422" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A422" s="52" t="s">
         <v>22</v>
       </c>
@@ -18923,7 +18938,7 @@
       <c r="U422" s="26"/>
       <c r="V422" s="46"/>
     </row>
-    <row r="423" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="423" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A423" s="52" t="s">
         <v>22</v>
       </c>
@@ -18975,7 +18990,7 @@
       <c r="U423" s="26"/>
       <c r="V423" s="46"/>
     </row>
-    <row r="424" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="424" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A424" s="52" t="s">
         <v>22</v>
       </c>
@@ -19025,7 +19040,7 @@
       <c r="U424" s="26"/>
       <c r="V424" s="46"/>
     </row>
-    <row r="425" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="425" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A425" s="52" t="s">
         <v>22</v>
       </c>
@@ -19077,7 +19092,7 @@
       <c r="U425" s="26"/>
       <c r="V425" s="46"/>
     </row>
-    <row r="426" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="426" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A426" s="52" t="s">
         <v>22</v>
       </c>
@@ -19127,7 +19142,7 @@
       <c r="U426" s="26"/>
       <c r="V426" s="46"/>
     </row>
-    <row r="427" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="427" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A427" s="52"/>
       <c r="B427" s="135"/>
       <c r="C427" s="54"/>
@@ -19154,7 +19169,7 @@
         <v>28</v>
       </c>
       <c r="N427" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O427" s="29"/>
       <c r="P427" s="41"/>
@@ -19165,7 +19180,7 @@
       <c r="U427" s="26"/>
       <c r="V427" s="46"/>
     </row>
-    <row r="428" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="428" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A428" s="56"/>
       <c r="B428" s="136"/>
       <c r="C428" s="29"/>
@@ -19203,7 +19218,7 @@
       <c r="U428" s="26"/>
       <c r="V428" s="46"/>
     </row>
-    <row r="429" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="429" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A429" s="56"/>
       <c r="B429" s="136"/>
       <c r="C429" s="29"/>
@@ -19241,7 +19256,7 @@
       <c r="U429" s="26"/>
       <c r="V429" s="46"/>
     </row>
-    <row r="430" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="430" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A430" s="56"/>
       <c r="B430" s="136"/>
       <c r="C430" s="29"/>
@@ -19281,7 +19296,7 @@
       <c r="U430" s="26"/>
       <c r="V430" s="46"/>
     </row>
-    <row r="431" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="431" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A431" s="56"/>
       <c r="B431" s="136"/>
       <c r="C431" s="29"/>
@@ -19319,7 +19334,7 @@
       <c r="U431" s="26"/>
       <c r="V431" s="46"/>
     </row>
-    <row r="432" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="432" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A432" s="56"/>
       <c r="B432" s="136"/>
       <c r="C432" s="29"/>
@@ -19355,7 +19370,7 @@
       <c r="U432" s="26"/>
       <c r="V432" s="46"/>
     </row>
-    <row r="433" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="433" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1" collapsed="1">
       <c r="A433" s="8" t="s">
         <v>22</v>
       </c>
@@ -19405,7 +19420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="434" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="434" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A434" s="52" t="s">
         <v>22</v>
       </c>
@@ -19455,7 +19470,7 @@
       <c r="U434" s="54"/>
       <c r="V434" s="46"/>
     </row>
-    <row r="435" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="435" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A435" s="52" t="s">
         <v>22</v>
       </c>
@@ -19505,7 +19520,7 @@
       <c r="U435" s="54"/>
       <c r="V435" s="46"/>
     </row>
-    <row r="436" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="436" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A436" s="52" t="s">
         <v>22</v>
       </c>
@@ -19555,7 +19570,7 @@
       <c r="U436" s="54"/>
       <c r="V436" s="46"/>
     </row>
-    <row r="437" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="437" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A437" s="52" t="s">
         <v>22</v>
       </c>
@@ -19605,7 +19620,7 @@
       <c r="U437" s="54"/>
       <c r="V437" s="46"/>
     </row>
-    <row r="438" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="438" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A438" s="52" t="s">
         <v>22</v>
       </c>
@@ -19657,7 +19672,7 @@
       <c r="U438" s="54"/>
       <c r="V438" s="46"/>
     </row>
-    <row r="439" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="439" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A439" s="52" t="s">
         <v>22</v>
       </c>
@@ -19707,7 +19722,7 @@
       <c r="U439" s="54"/>
       <c r="V439" s="46"/>
     </row>
-    <row r="440" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="440" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A440" s="52" t="s">
         <v>22</v>
       </c>
@@ -19759,7 +19774,7 @@
       <c r="U440" s="54"/>
       <c r="V440" s="46"/>
     </row>
-    <row r="441" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="441" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A441" s="52" t="s">
         <v>22</v>
       </c>
@@ -19809,7 +19824,7 @@
       <c r="U441" s="54"/>
       <c r="V441" s="46"/>
     </row>
-    <row r="442" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="442" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A442" s="52"/>
       <c r="B442" s="135"/>
       <c r="C442" s="54"/>
@@ -19836,7 +19851,7 @@
         <v>28</v>
       </c>
       <c r="N442" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O442" s="37"/>
       <c r="P442" s="41"/>
@@ -19847,7 +19862,7 @@
       <c r="U442" s="54"/>
       <c r="V442" s="46"/>
     </row>
-    <row r="443" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="443" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A443" s="56"/>
       <c r="B443" s="136"/>
       <c r="C443" s="29"/>
@@ -19885,7 +19900,7 @@
       <c r="U443" s="54"/>
       <c r="V443" s="46"/>
     </row>
-    <row r="444" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="444" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A444" s="56"/>
       <c r="B444" s="136"/>
       <c r="C444" s="29"/>
@@ -19923,7 +19938,7 @@
       <c r="U444" s="54"/>
       <c r="V444" s="46"/>
     </row>
-    <row r="445" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="445" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A445" s="56"/>
       <c r="B445" s="136"/>
       <c r="C445" s="29"/>
@@ -19963,7 +19978,7 @@
       <c r="U445" s="54"/>
       <c r="V445" s="46"/>
     </row>
-    <row r="446" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="446" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A446" s="56"/>
       <c r="B446" s="136"/>
       <c r="C446" s="29"/>
@@ -20001,7 +20016,7 @@
       <c r="U446" s="54"/>
       <c r="V446" s="46"/>
     </row>
-    <row r="447" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="447" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A447" s="56"/>
       <c r="B447" s="136"/>
       <c r="C447" s="29"/>
@@ -20037,7 +20052,7 @@
       <c r="U447" s="26"/>
       <c r="V447" s="46"/>
     </row>
-    <row r="448" spans="1:22" ht="15" customHeight="1">
+    <row r="448" spans="1:22" ht="15" customHeight="1" collapsed="1">
       <c r="A448" s="8" t="s">
         <v>22</v>
       </c>
@@ -20087,7 +20102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="449" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="449" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A449" s="52" t="s">
         <v>22</v>
       </c>
@@ -20137,7 +20152,7 @@
       <c r="U449" s="54"/>
       <c r="V449" s="46"/>
     </row>
-    <row r="450" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="450" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A450" s="52" t="s">
         <v>22</v>
       </c>
@@ -20187,7 +20202,7 @@
       <c r="U450" s="54"/>
       <c r="V450" s="46"/>
     </row>
-    <row r="451" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="451" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A451" s="52" t="s">
         <v>22</v>
       </c>
@@ -20237,7 +20252,7 @@
       <c r="U451" s="54"/>
       <c r="V451" s="46"/>
     </row>
-    <row r="452" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="452" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A452" s="52" t="s">
         <v>22</v>
       </c>
@@ -20289,7 +20304,7 @@
       <c r="U452" s="54"/>
       <c r="V452" s="46"/>
     </row>
-    <row r="453" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="453" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A453" s="52" t="s">
         <v>22</v>
       </c>
@@ -20339,7 +20354,7 @@
       <c r="U453" s="54"/>
       <c r="V453" s="46"/>
     </row>
-    <row r="454" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="454" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A454" s="52" t="s">
         <v>22</v>
       </c>
@@ -20391,7 +20406,7 @@
       <c r="U454" s="54"/>
       <c r="V454" s="46"/>
     </row>
-    <row r="455" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="455" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A455" s="52" t="s">
         <v>22</v>
       </c>
@@ -20441,7 +20456,7 @@
       <c r="U455" s="54"/>
       <c r="V455" s="46"/>
     </row>
-    <row r="456" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="456" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A456" s="52"/>
       <c r="B456" s="135"/>
       <c r="C456" s="54"/>
@@ -20468,7 +20483,7 @@
         <v>28</v>
       </c>
       <c r="N456" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O456" s="37"/>
       <c r="P456" s="41"/>
@@ -20479,7 +20494,7 @@
       <c r="U456" s="54"/>
       <c r="V456" s="46"/>
     </row>
-    <row r="457" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="457" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A457" s="56"/>
       <c r="B457" s="136"/>
       <c r="C457" s="29"/>
@@ -20517,7 +20532,7 @@
       <c r="U457" s="54"/>
       <c r="V457" s="46"/>
     </row>
-    <row r="458" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="458" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A458" s="56"/>
       <c r="B458" s="136"/>
       <c r="C458" s="29"/>
@@ -20555,7 +20570,7 @@
       <c r="U458" s="54"/>
       <c r="V458" s="46"/>
     </row>
-    <row r="459" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="459" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A459" s="56"/>
       <c r="B459" s="136"/>
       <c r="C459" s="29"/>
@@ -20595,7 +20610,7 @@
       <c r="U459" s="54"/>
       <c r="V459" s="46"/>
     </row>
-    <row r="460" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="460" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A460" s="56"/>
       <c r="B460" s="136"/>
       <c r="C460" s="29"/>
@@ -20633,7 +20648,7 @@
       <c r="U460" s="54"/>
       <c r="V460" s="46"/>
     </row>
-    <row r="461" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="461" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A461" s="56"/>
       <c r="B461" s="136"/>
       <c r="C461" s="29"/>
@@ -20669,7 +20684,7 @@
       <c r="U461" s="26"/>
       <c r="V461" s="46"/>
     </row>
-    <row r="462" spans="1:22" ht="15" customHeight="1">
+    <row r="462" spans="1:22" ht="15" customHeight="1" collapsed="1">
       <c r="A462" s="8" t="s">
         <v>22</v>
       </c>
@@ -20719,7 +20734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="463" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="463" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A463" s="52" t="s">
         <v>22</v>
       </c>
@@ -20769,7 +20784,7 @@
       <c r="U463" s="26"/>
       <c r="V463" s="46"/>
     </row>
-    <row r="464" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="464" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A464" s="52" t="s">
         <v>22</v>
       </c>
@@ -20819,7 +20834,7 @@
       <c r="U464" s="26"/>
       <c r="V464" s="46"/>
     </row>
-    <row r="465" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="465" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A465" s="52" t="s">
         <v>22</v>
       </c>
@@ -20869,7 +20884,7 @@
       <c r="U465" s="26"/>
       <c r="V465" s="46"/>
     </row>
-    <row r="466" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="466" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A466" s="52" t="s">
         <v>22</v>
       </c>
@@ -20921,7 +20936,7 @@
       <c r="U466" s="26"/>
       <c r="V466" s="46"/>
     </row>
-    <row r="467" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="467" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A467" s="52" t="s">
         <v>22</v>
       </c>
@@ -20971,7 +20986,7 @@
       <c r="U467" s="26"/>
       <c r="V467" s="46"/>
     </row>
-    <row r="468" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="468" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A468" s="52" t="s">
         <v>22</v>
       </c>
@@ -21023,7 +21038,7 @@
       <c r="U468" s="26"/>
       <c r="V468" s="46"/>
     </row>
-    <row r="469" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="469" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A469" s="52" t="s">
         <v>22</v>
       </c>
@@ -21073,7 +21088,7 @@
       <c r="U469" s="26"/>
       <c r="V469" s="46"/>
     </row>
-    <row r="470" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="470" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A470" s="52"/>
       <c r="B470" s="135"/>
       <c r="C470" s="54"/>
@@ -21100,7 +21115,7 @@
         <v>28</v>
       </c>
       <c r="N470" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O470" s="29"/>
       <c r="P470" s="41"/>
@@ -21111,7 +21126,7 @@
       <c r="U470" s="26"/>
       <c r="V470" s="46"/>
     </row>
-    <row r="471" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="471" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A471" s="56"/>
       <c r="B471" s="136"/>
       <c r="C471" s="29"/>
@@ -21149,7 +21164,7 @@
       <c r="U471" s="26"/>
       <c r="V471" s="46"/>
     </row>
-    <row r="472" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="472" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A472" s="56"/>
       <c r="B472" s="136"/>
       <c r="C472" s="29"/>
@@ -21187,7 +21202,7 @@
       <c r="U472" s="26"/>
       <c r="V472" s="46"/>
     </row>
-    <row r="473" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="473" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A473" s="56"/>
       <c r="B473" s="136"/>
       <c r="C473" s="29"/>
@@ -21227,7 +21242,7 @@
       <c r="U473" s="26"/>
       <c r="V473" s="46"/>
     </row>
-    <row r="474" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="474" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A474" s="56"/>
       <c r="B474" s="136"/>
       <c r="C474" s="29"/>
@@ -21265,7 +21280,7 @@
       <c r="U474" s="26"/>
       <c r="V474" s="46"/>
     </row>
-    <row r="475" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="475" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A475" s="56"/>
       <c r="B475" s="136"/>
       <c r="C475" s="29"/>
@@ -21301,7 +21316,7 @@
       <c r="U475" s="26"/>
       <c r="V475" s="46"/>
     </row>
-    <row r="476" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="476" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1" collapsed="1">
       <c r="A476" s="8" t="s">
         <v>22</v>
       </c>
@@ -21351,7 +21366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="477" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="477" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A477" s="52" t="s">
         <v>22</v>
       </c>
@@ -21401,7 +21416,7 @@
       <c r="U477" s="54"/>
       <c r="V477" s="46"/>
     </row>
-    <row r="478" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="478" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A478" s="52" t="s">
         <v>22</v>
       </c>
@@ -21451,7 +21466,7 @@
       <c r="U478" s="54"/>
       <c r="V478" s="46"/>
     </row>
-    <row r="479" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="479" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A479" s="52" t="s">
         <v>22</v>
       </c>
@@ -21501,7 +21516,7 @@
       <c r="U479" s="54"/>
       <c r="V479" s="46"/>
     </row>
-    <row r="480" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="480" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A480" s="52" t="s">
         <v>22</v>
       </c>
@@ -21551,7 +21566,7 @@
       <c r="U480" s="54"/>
       <c r="V480" s="46"/>
     </row>
-    <row r="481" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="481" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A481" s="52" t="s">
         <v>22</v>
       </c>
@@ -21601,7 +21616,7 @@
       <c r="U481" s="54"/>
       <c r="V481" s="46"/>
     </row>
-    <row r="482" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="482" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A482" s="52" t="s">
         <v>22</v>
       </c>
@@ -21651,7 +21666,7 @@
       <c r="U482" s="54"/>
       <c r="V482" s="46"/>
     </row>
-    <row r="483" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="483" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A483" s="52" t="s">
         <v>22</v>
       </c>
@@ -21701,7 +21716,7 @@
       <c r="U483" s="54"/>
       <c r="V483" s="46"/>
     </row>
-    <row r="484" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="484" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A484" s="52" t="s">
         <v>22</v>
       </c>
@@ -21751,7 +21766,7 @@
       <c r="U484" s="54"/>
       <c r="V484" s="46"/>
     </row>
-    <row r="485" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="485" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A485" s="52" t="s">
         <v>22</v>
       </c>
@@ -21803,7 +21818,7 @@
       <c r="U485" s="54"/>
       <c r="V485" s="46"/>
     </row>
-    <row r="486" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="486" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A486" s="52" t="s">
         <v>22</v>
       </c>
@@ -21855,7 +21870,7 @@
       <c r="U486" s="54"/>
       <c r="V486" s="46"/>
     </row>
-    <row r="487" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="487" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A487" s="52" t="s">
         <v>22</v>
       </c>
@@ -21907,7 +21922,7 @@
       <c r="U487" s="54"/>
       <c r="V487" s="46"/>
     </row>
-    <row r="488" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="488" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A488" s="52" t="s">
         <v>22</v>
       </c>
@@ -21957,7 +21972,7 @@
       <c r="U488" s="54"/>
       <c r="V488" s="46"/>
     </row>
-    <row r="489" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="489" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A489" s="52" t="s">
         <v>22</v>
       </c>
@@ -22009,7 +22024,7 @@
       <c r="U489" s="54"/>
       <c r="V489" s="46"/>
     </row>
-    <row r="490" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="490" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A490" s="52" t="s">
         <v>22</v>
       </c>
@@ -22059,7 +22074,7 @@
       <c r="U490" s="54"/>
       <c r="V490" s="46"/>
     </row>
-    <row r="491" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="491" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A491" s="52"/>
       <c r="B491" s="135"/>
       <c r="C491" s="54"/>
@@ -22086,7 +22101,7 @@
         <v>28</v>
       </c>
       <c r="N491" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O491" s="37"/>
       <c r="P491" s="41"/>
@@ -22097,7 +22112,7 @@
       <c r="U491" s="54"/>
       <c r="V491" s="46"/>
     </row>
-    <row r="492" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="492" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A492" s="56"/>
       <c r="B492" s="136"/>
       <c r="C492" s="29"/>
@@ -22135,7 +22150,7 @@
       <c r="U492" s="54"/>
       <c r="V492" s="46"/>
     </row>
-    <row r="493" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="493" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A493" s="56"/>
       <c r="B493" s="136"/>
       <c r="C493" s="29"/>
@@ -22173,7 +22188,7 @@
       <c r="U493" s="54"/>
       <c r="V493" s="46"/>
     </row>
-    <row r="494" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="494" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A494" s="56"/>
       <c r="B494" s="136"/>
       <c r="C494" s="29"/>
@@ -22213,7 +22228,7 @@
       <c r="U494" s="54"/>
       <c r="V494" s="46"/>
     </row>
-    <row r="495" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="495" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A495" s="56"/>
       <c r="B495" s="136"/>
       <c r="C495" s="29"/>
@@ -22251,7 +22266,7 @@
       <c r="U495" s="54"/>
       <c r="V495" s="46"/>
     </row>
-    <row r="496" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="496" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A496" s="56"/>
       <c r="B496" s="136"/>
       <c r="C496" s="29"/>
@@ -22287,7 +22302,7 @@
       <c r="U496" s="26"/>
       <c r="V496" s="46"/>
     </row>
-    <row r="497" spans="1:22" ht="15" customHeight="1">
+    <row r="497" spans="1:22" ht="15" customHeight="1" collapsed="1">
       <c r="A497" s="8" t="s">
         <v>22</v>
       </c>
@@ -22337,7 +22352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="498" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="498" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A498" s="52" t="s">
         <v>22</v>
       </c>
@@ -22387,7 +22402,7 @@
       <c r="U498" s="54"/>
       <c r="V498" s="46"/>
     </row>
-    <row r="499" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="499" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A499" s="52" t="s">
         <v>22</v>
       </c>
@@ -22437,7 +22452,7 @@
       <c r="U499" s="54"/>
       <c r="V499" s="46"/>
     </row>
-    <row r="500" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="500" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A500" s="52" t="s">
         <v>22</v>
       </c>
@@ -22487,7 +22502,7 @@
       <c r="U500" s="54"/>
       <c r="V500" s="46"/>
     </row>
-    <row r="501" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="501" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A501" s="52" t="s">
         <v>22</v>
       </c>
@@ -22539,7 +22554,7 @@
       <c r="U501" s="54"/>
       <c r="V501" s="46"/>
     </row>
-    <row r="502" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="502" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A502" s="52" t="s">
         <v>22</v>
       </c>
@@ -22589,7 +22604,7 @@
       <c r="U502" s="54"/>
       <c r="V502" s="46"/>
     </row>
-    <row r="503" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="503" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A503" s="52" t="s">
         <v>22</v>
       </c>
@@ -22641,7 +22656,7 @@
       <c r="U503" s="54"/>
       <c r="V503" s="46"/>
     </row>
-    <row r="504" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="504" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A504" s="52" t="s">
         <v>22</v>
       </c>
@@ -22691,7 +22706,7 @@
       <c r="U504" s="54"/>
       <c r="V504" s="46"/>
     </row>
-    <row r="505" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="505" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A505" s="52"/>
       <c r="B505" s="135"/>
       <c r="C505" s="54"/>
@@ -22718,7 +22733,7 @@
         <v>28</v>
       </c>
       <c r="N505" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O505" s="37"/>
       <c r="P505" s="41"/>
@@ -22729,7 +22744,7 @@
       <c r="U505" s="54"/>
       <c r="V505" s="46"/>
     </row>
-    <row r="506" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="506" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A506" s="56"/>
       <c r="B506" s="136"/>
       <c r="C506" s="29"/>
@@ -22767,7 +22782,7 @@
       <c r="U506" s="54"/>
       <c r="V506" s="46"/>
     </row>
-    <row r="507" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="507" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A507" s="56"/>
       <c r="B507" s="136"/>
       <c r="C507" s="29"/>
@@ -22805,7 +22820,7 @@
       <c r="U507" s="54"/>
       <c r="V507" s="46"/>
     </row>
-    <row r="508" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="508" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A508" s="56"/>
       <c r="B508" s="136"/>
       <c r="C508" s="29"/>
@@ -22845,7 +22860,7 @@
       <c r="U508" s="54"/>
       <c r="V508" s="46"/>
     </row>
-    <row r="509" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="509" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A509" s="56"/>
       <c r="B509" s="136"/>
       <c r="C509" s="29"/>
@@ -22883,7 +22898,7 @@
       <c r="U509" s="54"/>
       <c r="V509" s="46"/>
     </row>
-    <row r="510" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="510" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A510" s="56"/>
       <c r="B510" s="136"/>
       <c r="C510" s="29"/>
@@ -22919,7 +22934,7 @@
       <c r="U510" s="26"/>
       <c r="V510" s="46"/>
     </row>
-    <row r="511" spans="1:22" ht="15" customHeight="1">
+    <row r="511" spans="1:22" ht="15" customHeight="1" collapsed="1">
       <c r="A511" s="8" t="s">
         <v>22</v>
       </c>
@@ -22969,7 +22984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="512" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="512" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A512" s="138" t="s">
         <v>22</v>
       </c>
@@ -23019,7 +23034,7 @@
       <c r="U512" s="26"/>
       <c r="V512" s="46"/>
     </row>
-    <row r="513" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="513" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A513" s="138" t="s">
         <v>22</v>
       </c>
@@ -23073,7 +23088,7 @@
       <c r="U513" s="26"/>
       <c r="V513" s="46"/>
     </row>
-    <row r="514" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="514" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A514" s="138" t="s">
         <v>22</v>
       </c>
@@ -23123,7 +23138,7 @@
       <c r="U514" s="26"/>
       <c r="V514" s="46"/>
     </row>
-    <row r="515" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="515" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A515" s="138" t="s">
         <v>22</v>
       </c>
@@ -23173,7 +23188,7 @@
       <c r="U515" s="26"/>
       <c r="V515" s="46"/>
     </row>
-    <row r="516" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="516" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A516" s="138" t="s">
         <v>22</v>
       </c>
@@ -23223,7 +23238,7 @@
       <c r="U516" s="26"/>
       <c r="V516" s="46"/>
     </row>
-    <row r="517" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="517" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A517" s="138" t="s">
         <v>22</v>
       </c>
@@ -23273,7 +23288,7 @@
       <c r="U517" s="26"/>
       <c r="V517" s="46"/>
     </row>
-    <row r="518" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="518" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A518" s="138" t="s">
         <v>22</v>
       </c>
@@ -23323,7 +23338,7 @@
       <c r="U518" s="26"/>
       <c r="V518" s="46"/>
     </row>
-    <row r="519" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="519" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A519" s="138" t="s">
         <v>22</v>
       </c>
@@ -23373,7 +23388,7 @@
       <c r="U519" s="26"/>
       <c r="V519" s="46"/>
     </row>
-    <row r="520" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="520" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A520" s="138" t="s">
         <v>22</v>
       </c>
@@ -23423,7 +23438,7 @@
       <c r="U520" s="26"/>
       <c r="V520" s="46"/>
     </row>
-    <row r="521" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="521" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A521" s="138" t="s">
         <v>22</v>
       </c>
@@ -23473,7 +23488,7 @@
       <c r="U521" s="26"/>
       <c r="V521" s="46"/>
     </row>
-    <row r="522" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="522" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A522" s="138" t="s">
         <v>22</v>
       </c>
@@ -23523,7 +23538,7 @@
       <c r="U522" s="26"/>
       <c r="V522" s="46"/>
     </row>
-    <row r="523" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="523" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A523" s="56"/>
       <c r="B523" s="141"/>
       <c r="C523" s="29"/>
@@ -23550,7 +23565,7 @@
         <v>28</v>
       </c>
       <c r="N523" s="36" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="O523" s="29"/>
       <c r="P523" s="41"/>
@@ -23561,7 +23576,7 @@
       <c r="U523" s="26"/>
       <c r="V523" s="46"/>
     </row>
-    <row r="524" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="524" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A524" s="56"/>
       <c r="B524" s="57"/>
       <c r="C524" s="29"/>
@@ -23599,7 +23614,7 @@
       <c r="U524" s="26"/>
       <c r="V524" s="46"/>
     </row>
-    <row r="525" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="525" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A525" s="56"/>
       <c r="B525" s="57"/>
       <c r="C525" s="29"/>
@@ -23637,7 +23652,7 @@
       <c r="U525" s="26"/>
       <c r="V525" s="46"/>
     </row>
-    <row r="526" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="526" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A526" s="56"/>
       <c r="B526" s="57"/>
       <c r="C526" s="29"/>
@@ -23677,7 +23692,7 @@
       <c r="U526" s="26"/>
       <c r="V526" s="46"/>
     </row>
-    <row r="527" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="527" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A527" s="56"/>
       <c r="B527" s="57"/>
       <c r="C527" s="29"/>
@@ -23715,7 +23730,7 @@
       <c r="U527" s="26"/>
       <c r="V527" s="46"/>
     </row>
-    <row r="528" spans="1:22" ht="15" customHeight="1" outlineLevel="1">
+    <row r="528" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A528" s="56"/>
       <c r="B528" s="57"/>
       <c r="C528" s="29"/>
@@ -23751,6 +23766,7 @@
       <c r="U528" s="26"/>
       <c r="V528" s="46"/>
     </row>
+    <row r="529" collapsed="1"/>
   </sheetData>
   <autoFilter ref="A1:V528"/>
   <hyperlinks>
